--- a/테이블명세서.xlsx
+++ b/테이블명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8040" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8040" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="252">
   <si>
     <t>테이블 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,46 +686,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목도리/장갑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양말</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벨트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쥬얼리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홈웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cartNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1047,6 +1015,18 @@
   </si>
   <si>
     <t>공지사항, Q&amp;A, 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,23 +1130,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1188,6 +1156,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1477,193 +1457,221 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="9" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>44987</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
@@ -1673,34 +1681,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1718,317 +1698,317 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2046,626 +2026,626 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12">
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12">
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12">
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
         <v>0</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12">
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
         <v>2500</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12">
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
         <v>0</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12">
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12">
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
         <v>0</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2675,203 +2655,179 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-      <c r="J4" s="7" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="J4" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-      <c r="J5" s="7" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="J5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M12" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M13" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M14" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M15" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M16" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="13:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M17" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2885,261 +2841,261 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="A17" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3157,247 +3113,247 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="F4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="F5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12">
-        <v>2500</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3415,364 +3371,364 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="10.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B6" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="B9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11" t="s">
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="C19" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12" t="s">
+      <c r="C20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3791,291 +3747,291 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="C12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4087,259 +4043,259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/테이블명세서.xlsx
+++ b/테이블명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8040" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8040" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="254">
   <si>
     <t>테이블 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -890,10 +890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1: 신용카드, 2:체크카드, 3:실시간 계좌이체, 4:무통장입금, 5:휴대폰결제, 6:카카오페이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1027,6 +1023,18 @@
   </si>
   <si>
     <t>가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordComplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[결제대기] → [결제완료] → [주문완료] → [배송준비] → [배송완료] → [수취확인]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 카드결제 , 2:실시간 계좌이체, 3:무통장입금, 4:휴대폰결제, 5:카카오페이, 6:네이버페이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,7 +1042,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,6 +1090,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF626262"/>
+      <name val="D2Coding ligature"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1126,7 +1141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,6 +1170,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1463,184 +1481,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>44987</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -2261,7 +2279,7 @@
         <v>84</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>128</v>
@@ -2657,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -2797,10 +2815,10 @@
         <v>163</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2808,7 +2826,7 @@
         <v>164</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3363,10 +3381,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3599,7 +3617,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
@@ -3728,12 +3746,23 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>217</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3786,7 +3815,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>171</v>
@@ -3822,7 +3851,7 @@
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>54</v>
@@ -3831,7 +3860,7 @@
         <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>73</v>
@@ -3841,10 +3870,10 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>63</v>
@@ -3858,7 +3887,7 @@
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>107</v>
@@ -3867,7 +3896,7 @@
         <v>66</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>73</v>
@@ -3886,7 +3915,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>73</v>
@@ -3899,13 +3928,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>73</v>
@@ -3915,16 +3944,16 @@
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>73</v>
@@ -3937,13 +3966,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>73</v>
@@ -3956,7 +3985,7 @@
         <v>88</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>63</v>
@@ -4060,7 +4089,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4088,10 +4117,10 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>66</v>
@@ -4107,16 +4136,16 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>72</v>
@@ -4126,10 +4155,10 @@
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>63</v>
@@ -4143,10 +4172,10 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>63</v>
@@ -4194,16 +4223,16 @@
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>73</v>
@@ -4216,13 +4245,13 @@
         <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>73</v>
@@ -4232,16 +4261,16 @@
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>73</v>

--- a/테이블명세서.xlsx
+++ b/테이블명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8040" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="275">
   <si>
     <t>테이블 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,10 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -890,10 +882,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배송비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1035,6 +1023,102 @@
   </si>
   <si>
     <t>1: 카드결제 , 2:실시간 계좌이체, 3:무통장입금, 4:휴대폰결제, 5:카카오페이, 6:네이버페이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,7 +1225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,7 +1259,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1186,6 +1270,12 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1539,142 +1629,144 @@
       <c r="F4" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="A9" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
@@ -1684,21 +1776,19 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1710,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1755,20 +1845,20 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -1777,14 +1867,14 @@
         <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
@@ -1794,14 +1884,14 @@
         <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
@@ -1811,13 +1901,13 @@
         <v>42</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -1830,13 +1920,13 @@
         <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
@@ -1849,14 +1939,14 @@
         <v>44</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -1866,14 +1956,14 @@
         <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
@@ -1883,14 +1973,14 @@
         <v>46</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
@@ -1900,14 +1990,14 @@
         <v>47</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
@@ -1917,14 +2007,14 @@
         <v>48</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
@@ -1934,14 +2024,14 @@
         <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
@@ -1951,14 +2041,14 @@
         <v>50</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
@@ -1968,14 +2058,14 @@
         <v>51</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
@@ -2083,142 +2173,142 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
@@ -2228,10 +2318,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8">
@@ -2242,13 +2332,13 @@
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8">
@@ -2259,13 +2349,13 @@
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8">
@@ -2276,13 +2366,13 @@
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8">
@@ -2293,13 +2383,13 @@
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8">
@@ -2310,13 +2400,13 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8">
@@ -2327,13 +2417,13 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="8">
@@ -2344,323 +2434,323 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -2675,7 +2765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -2683,7 +2773,7 @@
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -2692,7 +2782,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2718,128 +2808,128 @@
         <v>38</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="L3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="5"/>
       <c r="J4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
       <c r="J5" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J6" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J10" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M12" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2851,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2897,223 +2987,327 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>66</v>
+      <c r="A4" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>63</v>
+      <c r="A6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="A7" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="A8" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A12" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>66</v>
+      <c r="A13" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>71</v>
       </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>66</v>
+      <c r="A14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>63</v>
+      <c r="C15" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3170,106 +3364,106 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -3279,10 +3473,10 @@
         <v>43</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8">
@@ -3293,13 +3487,13 @@
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8">
@@ -3310,28 +3504,37 @@
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -3383,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3429,140 +3632,140 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>72</v>
+      <c r="E7" s="8">
+        <v>0</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
-        <v>72</v>
+      <c r="E8" s="8">
+        <v>0</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="8" t="s">
-        <v>73</v>
+      <c r="E9" s="8">
+        <v>0</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="8" t="s">
-        <v>73</v>
+      <c r="E10" s="8">
+        <v>0</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8">
@@ -3573,13 +3776,13 @@
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8">
@@ -3590,13 +3793,13 @@
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
@@ -3607,30 +3810,30 @@
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8" t="s">
@@ -3641,13 +3844,13 @@
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8" t="s">
@@ -3658,13 +3861,13 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8" t="s">
@@ -3675,16 +3878,16 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>72</v>
@@ -3694,30 +3897,30 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="8" t="s">
-        <v>72</v>
+      <c r="E19" s="8">
+        <v>1</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="8" t="s">
@@ -3736,7 +3939,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3746,17 +3949,17 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3815,91 +4018,91 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
@@ -3912,13 +4115,13 @@
         <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -3928,71 +4131,71 @@
         <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
@@ -4002,14 +4205,14 @@
         <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
@@ -4089,7 +4292,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4117,125 +4320,125 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="E10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
@@ -4245,35 +4448,35 @@
         <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>

--- a/테이블명세서.xlsx
+++ b/테이블명세서.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\why_n\Desktop\Beauty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25AAC36-CBF8-43CC-BE5F-7F14A0A65919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9174818-230E-44C8-B3C1-08FED2FCD4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
+    <sheet name="컬러코드" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="677">
   <si>
     <t>테이블 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1024,6 +1025,1279 @@
   </si>
   <si>
     <t>구매자 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML name</t>
+  </si>
+  <si>
+    <t>Hex code</t>
+  </si>
+  <si>
+    <t>R   G   B</t>
+  </si>
+  <si>
+    <t>Decimal code</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>FF C0 CB</t>
+  </si>
+  <si>
+    <t>255 192 203</t>
+  </si>
+  <si>
+    <t>LightPink</t>
+  </si>
+  <si>
+    <t>FF B6 C1</t>
+  </si>
+  <si>
+    <t>255 182 193</t>
+  </si>
+  <si>
+    <t>HotPink</t>
+  </si>
+  <si>
+    <t>FF 69 B4</t>
+  </si>
+  <si>
+    <t>255 105 180</t>
+  </si>
+  <si>
+    <t>DeepPink</t>
+  </si>
+  <si>
+    <t>FF 14 93</t>
+  </si>
+  <si>
+    <t>255  20 147</t>
+  </si>
+  <si>
+    <t>PaleVioletRed</t>
+  </si>
+  <si>
+    <t>DB 70 93</t>
+  </si>
+  <si>
+    <t>219 112 147</t>
+  </si>
+  <si>
+    <t>MediumVioletRed</t>
+  </si>
+  <si>
+    <t>C7 15 85</t>
+  </si>
+  <si>
+    <t>199  21 133</t>
+  </si>
+  <si>
+    <t>LightSalmon</t>
+  </si>
+  <si>
+    <t>FF A0 7A</t>
+  </si>
+  <si>
+    <t>255 160 122</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>FA 80 72</t>
+  </si>
+  <si>
+    <t>250 128 114</t>
+  </si>
+  <si>
+    <t>DarkSalmon</t>
+  </si>
+  <si>
+    <t>E9 96 7A</t>
+  </si>
+  <si>
+    <t>233 150 122</t>
+  </si>
+  <si>
+    <t>LightCoral</t>
+  </si>
+  <si>
+    <t>F0 80 80</t>
+  </si>
+  <si>
+    <t>240 128 128</t>
+  </si>
+  <si>
+    <t>IndianRed</t>
+  </si>
+  <si>
+    <t>CD 5C 5C</t>
+  </si>
+  <si>
+    <t>205  92  92</t>
+  </si>
+  <si>
+    <t>Crimson</t>
+  </si>
+  <si>
+    <t>DC 14 3C</t>
+  </si>
+  <si>
+    <t>220  20  60</t>
+  </si>
+  <si>
+    <t>FireBrick</t>
+  </si>
+  <si>
+    <t>B2 22 22</t>
+  </si>
+  <si>
+    <t>178  34  34</t>
+  </si>
+  <si>
+    <t>DarkRed</t>
+  </si>
+  <si>
+    <t>8B 00 00</t>
+  </si>
+  <si>
+    <t>139   0   0</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>FF 00 00</t>
+  </si>
+  <si>
+    <t>255   0   0</t>
+  </si>
+  <si>
+    <t>OrangeRed</t>
+  </si>
+  <si>
+    <t>FF 45 00</t>
+  </si>
+  <si>
+    <t>255  69   0</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>FF 63 47</t>
+  </si>
+  <si>
+    <t>255  99  71</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>FF 7F 50</t>
+  </si>
+  <si>
+    <t>255 127  80</t>
+  </si>
+  <si>
+    <t>DarkOrange</t>
+  </si>
+  <si>
+    <t>FF 8C 00</t>
+  </si>
+  <si>
+    <t>255 140   0</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>FF A5 00</t>
+  </si>
+  <si>
+    <t>255 165   0</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>FF FF 00</t>
+  </si>
+  <si>
+    <t>255 255   0</t>
+  </si>
+  <si>
+    <t>LightYellow</t>
+  </si>
+  <si>
+    <t>FF FF E0</t>
+  </si>
+  <si>
+    <t>255 255 224</t>
+  </si>
+  <si>
+    <t>LemonChiffon</t>
+  </si>
+  <si>
+    <t>FF FA CD</t>
+  </si>
+  <si>
+    <t>255 250 205</t>
+  </si>
+  <si>
+    <t>LightGoldenrodYellow</t>
+  </si>
+  <si>
+    <t>FA FA D2</t>
+  </si>
+  <si>
+    <t>250 250 210</t>
+  </si>
+  <si>
+    <t>PapayaWhip</t>
+  </si>
+  <si>
+    <t>FF EF D5</t>
+  </si>
+  <si>
+    <t>255 239 213</t>
+  </si>
+  <si>
+    <t>Moccasin</t>
+  </si>
+  <si>
+    <t>FF E4 B5</t>
+  </si>
+  <si>
+    <t>255 228 181</t>
+  </si>
+  <si>
+    <t>PeachPuff</t>
+  </si>
+  <si>
+    <t>FF DA B9</t>
+  </si>
+  <si>
+    <t>255 218 185</t>
+  </si>
+  <si>
+    <t>PaleGoldenrod</t>
+  </si>
+  <si>
+    <t>EE E8 AA</t>
+  </si>
+  <si>
+    <t>238 232 170</t>
+  </si>
+  <si>
+    <t>Khaki</t>
+  </si>
+  <si>
+    <t>F0 E6 8C</t>
+  </si>
+  <si>
+    <t>240 230 140</t>
+  </si>
+  <si>
+    <t>DarkKhaki</t>
+  </si>
+  <si>
+    <t>BD B7 6B</t>
+  </si>
+  <si>
+    <t>189 183 107</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>FF D7 00</t>
+  </si>
+  <si>
+    <t>255 215   0</t>
+  </si>
+  <si>
+    <t>Cornsilk</t>
+  </si>
+  <si>
+    <t>FF F8 DC</t>
+  </si>
+  <si>
+    <t>255 248 220</t>
+  </si>
+  <si>
+    <t>BlanchedAlmond</t>
+  </si>
+  <si>
+    <t>FF EB CD</t>
+  </si>
+  <si>
+    <t>255 235 205</t>
+  </si>
+  <si>
+    <t>Bisque</t>
+  </si>
+  <si>
+    <t>FF E4 C4</t>
+  </si>
+  <si>
+    <t>255 228 196</t>
+  </si>
+  <si>
+    <t>NavajoWhite</t>
+  </si>
+  <si>
+    <t>FF DE AD</t>
+  </si>
+  <si>
+    <t>255 222 173</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>F5 DE B3</t>
+  </si>
+  <si>
+    <t>245 222 179</t>
+  </si>
+  <si>
+    <t>BurlyWood</t>
+  </si>
+  <si>
+    <t>DE B8 87</t>
+  </si>
+  <si>
+    <t>222 184 135</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>D2 B4 8C</t>
+  </si>
+  <si>
+    <t>210 180 140</t>
+  </si>
+  <si>
+    <t>RosyBrown</t>
+  </si>
+  <si>
+    <t>BC 8F 8F</t>
+  </si>
+  <si>
+    <t>188 143 143</t>
+  </si>
+  <si>
+    <t>SandyBrown</t>
+  </si>
+  <si>
+    <t>F4 A4 60</t>
+  </si>
+  <si>
+    <t>244 164  96</t>
+  </si>
+  <si>
+    <t>Goldenrod</t>
+  </si>
+  <si>
+    <t>DA A5 20</t>
+  </si>
+  <si>
+    <t>218 165  32</t>
+  </si>
+  <si>
+    <t>DarkGoldenrod</t>
+  </si>
+  <si>
+    <t>B8 86 0B</t>
+  </si>
+  <si>
+    <t>184 134  11</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>CD 85 3F</t>
+  </si>
+  <si>
+    <t>205 133  63</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>D2 69 1E</t>
+  </si>
+  <si>
+    <t>210 105  30</t>
+  </si>
+  <si>
+    <t>SaddleBrown</t>
+  </si>
+  <si>
+    <t>8B 45 13</t>
+  </si>
+  <si>
+    <t>139  69  19</t>
+  </si>
+  <si>
+    <t>Sienna</t>
+  </si>
+  <si>
+    <t>A0 52 2D</t>
+  </si>
+  <si>
+    <t>160  82  45</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>A5 2A 2A</t>
+  </si>
+  <si>
+    <t>165  42  42</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>80 00 00</t>
+  </si>
+  <si>
+    <t>128   0   0</t>
+  </si>
+  <si>
+    <t>DarkOliveGreen</t>
+  </si>
+  <si>
+    <t>55 6B 2F</t>
+  </si>
+  <si>
+    <t> 85 107  47</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>80 80 00</t>
+  </si>
+  <si>
+    <t>128 128   0</t>
+  </si>
+  <si>
+    <t>OliveDrab</t>
+  </si>
+  <si>
+    <t>6B 8E 23</t>
+  </si>
+  <si>
+    <t>107 142  35</t>
+  </si>
+  <si>
+    <t>YellowGreen</t>
+  </si>
+  <si>
+    <t>9A CD 32</t>
+  </si>
+  <si>
+    <t>154 205  50</t>
+  </si>
+  <si>
+    <t>LimeGreen</t>
+  </si>
+  <si>
+    <t>32 CD 32</t>
+  </si>
+  <si>
+    <t> 50 205  50</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>00 FF 00</t>
+  </si>
+  <si>
+    <t>  0 255   0</t>
+  </si>
+  <si>
+    <t>LawnGreen</t>
+  </si>
+  <si>
+    <t>7C FC 00</t>
+  </si>
+  <si>
+    <t>124 252   0</t>
+  </si>
+  <si>
+    <t>Chartreuse</t>
+  </si>
+  <si>
+    <t>7F FF 00</t>
+  </si>
+  <si>
+    <t>127 255   0</t>
+  </si>
+  <si>
+    <t>GreenYellow</t>
+  </si>
+  <si>
+    <t>AD FF 2F</t>
+  </si>
+  <si>
+    <t>173 255  47</t>
+  </si>
+  <si>
+    <t>SpringGreen</t>
+  </si>
+  <si>
+    <t>00 FF 7F</t>
+  </si>
+  <si>
+    <t>  0 255 127</t>
+  </si>
+  <si>
+    <t>MediumSpringGreen</t>
+  </si>
+  <si>
+    <t>00 FA 9A</t>
+  </si>
+  <si>
+    <t>  0 250 154</t>
+  </si>
+  <si>
+    <t>LightGreen</t>
+  </si>
+  <si>
+    <t>90 EE 90</t>
+  </si>
+  <si>
+    <t>144 238 144</t>
+  </si>
+  <si>
+    <t>PaleGreen</t>
+  </si>
+  <si>
+    <t>98 FB 98</t>
+  </si>
+  <si>
+    <t>152 251 152</t>
+  </si>
+  <si>
+    <t>DarkSeaGreen</t>
+  </si>
+  <si>
+    <t>8F BC 8F</t>
+  </si>
+  <si>
+    <t>143 188 143</t>
+  </si>
+  <si>
+    <t>MediumSeaGreen</t>
+  </si>
+  <si>
+    <t>3C B3 71</t>
+  </si>
+  <si>
+    <t> 60 179 113</t>
+  </si>
+  <si>
+    <t>SeaGreen</t>
+  </si>
+  <si>
+    <t>2E 8B 57</t>
+  </si>
+  <si>
+    <t> 46 139  87</t>
+  </si>
+  <si>
+    <t>ForestGreen</t>
+  </si>
+  <si>
+    <t>22 8B 22</t>
+  </si>
+  <si>
+    <t> 34 139  34</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>00 80 00</t>
+  </si>
+  <si>
+    <t>  0 128   0</t>
+  </si>
+  <si>
+    <t>DarkGreen</t>
+  </si>
+  <si>
+    <t>00 64 00</t>
+  </si>
+  <si>
+    <t>  0 100   0</t>
+  </si>
+  <si>
+    <t>MediumAquamarine</t>
+  </si>
+  <si>
+    <t>66 CD AA</t>
+  </si>
+  <si>
+    <t>102 205 170</t>
+  </si>
+  <si>
+    <t>Aqua</t>
+  </si>
+  <si>
+    <t>00 FF FF</t>
+  </si>
+  <si>
+    <t>  0 255 255</t>
+  </si>
+  <si>
+    <t>Cyan</t>
+  </si>
+  <si>
+    <t>LightCyan</t>
+  </si>
+  <si>
+    <t>E0 FF FF</t>
+  </si>
+  <si>
+    <t>224 255 255</t>
+  </si>
+  <si>
+    <t>PaleTurquoise</t>
+  </si>
+  <si>
+    <t>AF EE EE</t>
+  </si>
+  <si>
+    <t>175 238 238</t>
+  </si>
+  <si>
+    <t>Aquamarine</t>
+  </si>
+  <si>
+    <t>7F FF D4</t>
+  </si>
+  <si>
+    <t>127 255 212</t>
+  </si>
+  <si>
+    <t>Turquoise</t>
+  </si>
+  <si>
+    <t>40 E0 D0</t>
+  </si>
+  <si>
+    <t> 64 224 208</t>
+  </si>
+  <si>
+    <t>MediumTurquoise</t>
+  </si>
+  <si>
+    <t>48 D1 CC</t>
+  </si>
+  <si>
+    <t> 72 209 204</t>
+  </si>
+  <si>
+    <t>DarkTurquoise</t>
+  </si>
+  <si>
+    <t>00 CE D1</t>
+  </si>
+  <si>
+    <t>  0 206 209</t>
+  </si>
+  <si>
+    <t>LightSeaGreen</t>
+  </si>
+  <si>
+    <t>20 B2 AA</t>
+  </si>
+  <si>
+    <t> 32 178 170</t>
+  </si>
+  <si>
+    <t>CadetBlue</t>
+  </si>
+  <si>
+    <t>5F 9E A0</t>
+  </si>
+  <si>
+    <t> 95 158 160</t>
+  </si>
+  <si>
+    <t>DarkCyan</t>
+  </si>
+  <si>
+    <t>00 8B 8B</t>
+  </si>
+  <si>
+    <t>  0 139 139</t>
+  </si>
+  <si>
+    <t>Teal</t>
+  </si>
+  <si>
+    <t>00 80 80</t>
+  </si>
+  <si>
+    <t>  0 128 128</t>
+  </si>
+  <si>
+    <t>LightSteelBlue</t>
+  </si>
+  <si>
+    <t>B0 C4 DE</t>
+  </si>
+  <si>
+    <t>176 196 222</t>
+  </si>
+  <si>
+    <t>PowderBlue</t>
+  </si>
+  <si>
+    <t>B0 E0 E6</t>
+  </si>
+  <si>
+    <t>176 224 230</t>
+  </si>
+  <si>
+    <t>LightBlue</t>
+  </si>
+  <si>
+    <t>AD D8 E6</t>
+  </si>
+  <si>
+    <t>173 216 230</t>
+  </si>
+  <si>
+    <t>SkyBlue</t>
+  </si>
+  <si>
+    <t>87 CE EB</t>
+  </si>
+  <si>
+    <t>135 206 235</t>
+  </si>
+  <si>
+    <t>LightSkyBlue</t>
+  </si>
+  <si>
+    <t>87 CE FA</t>
+  </si>
+  <si>
+    <t>135 206 250</t>
+  </si>
+  <si>
+    <t>DeepSkyBlue</t>
+  </si>
+  <si>
+    <t>00 BF FF</t>
+  </si>
+  <si>
+    <t>  0 191 255</t>
+  </si>
+  <si>
+    <t>DodgerBlue</t>
+  </si>
+  <si>
+    <t>1E 90 FF</t>
+  </si>
+  <si>
+    <t> 30 144 255</t>
+  </si>
+  <si>
+    <t>CornflowerBlue</t>
+  </si>
+  <si>
+    <t>64 95 ED</t>
+  </si>
+  <si>
+    <t>100 149 237</t>
+  </si>
+  <si>
+    <t>SteelBlue</t>
+  </si>
+  <si>
+    <t>46 82 B4</t>
+  </si>
+  <si>
+    <t> 70 130 180</t>
+  </si>
+  <si>
+    <t>RoyalBlue</t>
+  </si>
+  <si>
+    <t>41 69 E1</t>
+  </si>
+  <si>
+    <t> 65 105 225</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>00 00 FF</t>
+  </si>
+  <si>
+    <t>  0   0 255</t>
+  </si>
+  <si>
+    <t>MediumBlue</t>
+  </si>
+  <si>
+    <t>00 00 CD</t>
+  </si>
+  <si>
+    <t>  0   0 205</t>
+  </si>
+  <si>
+    <t>DarkBlue</t>
+  </si>
+  <si>
+    <t>00 00 8B</t>
+  </si>
+  <si>
+    <t>  0   0 139</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>00 00 80</t>
+  </si>
+  <si>
+    <t>  0   0 128</t>
+  </si>
+  <si>
+    <t>MidnightBlue</t>
+  </si>
+  <si>
+    <t>19 19 70</t>
+  </si>
+  <si>
+    <t> 25  25 112</t>
+  </si>
+  <si>
+    <t>Lavender</t>
+  </si>
+  <si>
+    <t>E6 E6 FA</t>
+  </si>
+  <si>
+    <t>230 230 250</t>
+  </si>
+  <si>
+    <t>Thistle</t>
+  </si>
+  <si>
+    <t>D8 BF D8</t>
+  </si>
+  <si>
+    <t>216 191 216</t>
+  </si>
+  <si>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>DD A0 DD</t>
+  </si>
+  <si>
+    <t>221 160 221</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>EE 82 EE</t>
+  </si>
+  <si>
+    <t>238 130 238</t>
+  </si>
+  <si>
+    <t>Orchid</t>
+  </si>
+  <si>
+    <t>DA 70 D6</t>
+  </si>
+  <si>
+    <t>218 112 214</t>
+  </si>
+  <si>
+    <t>Fuchsia</t>
+  </si>
+  <si>
+    <t>FF 00 FF</t>
+  </si>
+  <si>
+    <t>255   0 255</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
+  <si>
+    <t>MediumOrchid</t>
+  </si>
+  <si>
+    <t>BA 55 D3</t>
+  </si>
+  <si>
+    <t>186  85 211</t>
+  </si>
+  <si>
+    <t>MediumPurple</t>
+  </si>
+  <si>
+    <t>93 70 DB</t>
+  </si>
+  <si>
+    <t>147 112 219</t>
+  </si>
+  <si>
+    <t>BlueViolet</t>
+  </si>
+  <si>
+    <t>8A 2B E2</t>
+  </si>
+  <si>
+    <t>138  43 226</t>
+  </si>
+  <si>
+    <t>DarkViolet</t>
+  </si>
+  <si>
+    <t>94 00 D3</t>
+  </si>
+  <si>
+    <t>148   0 211</t>
+  </si>
+  <si>
+    <t>DarkOrchid</t>
+  </si>
+  <si>
+    <t>99 32 CC</t>
+  </si>
+  <si>
+    <t>153  50 204</t>
+  </si>
+  <si>
+    <t>DarkMagenta</t>
+  </si>
+  <si>
+    <t>8B 00 8B</t>
+  </si>
+  <si>
+    <t>139   0 139</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>80 00 80</t>
+  </si>
+  <si>
+    <t>128   0 128</t>
+  </si>
+  <si>
+    <t>Indigo</t>
+  </si>
+  <si>
+    <t>4B 00 82</t>
+  </si>
+  <si>
+    <t> 75   0 130</t>
+  </si>
+  <si>
+    <t>DarkSlateBlue</t>
+  </si>
+  <si>
+    <t>48 3D 8B</t>
+  </si>
+  <si>
+    <t> 72  61 139</t>
+  </si>
+  <si>
+    <t>RebeccaPurple</t>
+  </si>
+  <si>
+    <t>66 33 99</t>
+  </si>
+  <si>
+    <t>102  51 153</t>
+  </si>
+  <si>
+    <t>SlateBlue</t>
+  </si>
+  <si>
+    <t>6A 5A CD</t>
+  </si>
+  <si>
+    <t>106  90 205</t>
+  </si>
+  <si>
+    <t>MediumSlateBlue</t>
+  </si>
+  <si>
+    <t>7B 68 EE</t>
+  </si>
+  <si>
+    <t>123 104 238</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>FF FF FF</t>
+  </si>
+  <si>
+    <t>255 255 255</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>FF FA FA</t>
+  </si>
+  <si>
+    <t>255 250 250</t>
+  </si>
+  <si>
+    <t>Honeydew</t>
+  </si>
+  <si>
+    <t>F0 FF F0</t>
+  </si>
+  <si>
+    <t>240 255 240</t>
+  </si>
+  <si>
+    <t>MintCream</t>
+  </si>
+  <si>
+    <t>F5 FF FA</t>
+  </si>
+  <si>
+    <t>245 255 250</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>F0 FF FF</t>
+  </si>
+  <si>
+    <t>240 255 255</t>
+  </si>
+  <si>
+    <t>AliceBlue</t>
+  </si>
+  <si>
+    <t>F0 F8 FF</t>
+  </si>
+  <si>
+    <t>240 248 255</t>
+  </si>
+  <si>
+    <t>GhostWhite</t>
+  </si>
+  <si>
+    <t>F8 F8 FF</t>
+  </si>
+  <si>
+    <t>248 248 255</t>
+  </si>
+  <si>
+    <t>WhiteSmoke</t>
+  </si>
+  <si>
+    <t>F5 F5 F5</t>
+  </si>
+  <si>
+    <t>245 245 245</t>
+  </si>
+  <si>
+    <t>Seashell</t>
+  </si>
+  <si>
+    <t>FF F5 EE</t>
+  </si>
+  <si>
+    <t>255 245 238</t>
+  </si>
+  <si>
+    <t>Beige</t>
+  </si>
+  <si>
+    <t>F5 F5 DC</t>
+  </si>
+  <si>
+    <t>245 245 220</t>
+  </si>
+  <si>
+    <t>OldLace</t>
+  </si>
+  <si>
+    <t>FD F5 E6</t>
+  </si>
+  <si>
+    <t>253 245 230</t>
+  </si>
+  <si>
+    <t>FloralWhite</t>
+  </si>
+  <si>
+    <t>FF FA F0</t>
+  </si>
+  <si>
+    <t>255 250 240</t>
+  </si>
+  <si>
+    <t>Ivory</t>
+  </si>
+  <si>
+    <t>FF FF F0</t>
+  </si>
+  <si>
+    <t>255 255 240</t>
+  </si>
+  <si>
+    <t>AntiqueWhite</t>
+  </si>
+  <si>
+    <t>FA EB D7</t>
+  </si>
+  <si>
+    <t>250 235 215</t>
+  </si>
+  <si>
+    <t>Linen</t>
+  </si>
+  <si>
+    <t>FA F0 E6</t>
+  </si>
+  <si>
+    <t>250 240 230</t>
+  </si>
+  <si>
+    <t>LavenderBlush</t>
+  </si>
+  <si>
+    <t>FF F0 F5</t>
+  </si>
+  <si>
+    <t>255 240 245</t>
+  </si>
+  <si>
+    <t>MistyRose</t>
+  </si>
+  <si>
+    <t>FF E4 E1</t>
+  </si>
+  <si>
+    <t>255 228 225</t>
+  </si>
+  <si>
+    <t>Gainsboro</t>
+  </si>
+  <si>
+    <t>DC DC DC</t>
+  </si>
+  <si>
+    <t>220 220 220</t>
+  </si>
+  <si>
+    <t>LightGrey</t>
+  </si>
+  <si>
+    <t>D3 D3 D3</t>
+  </si>
+  <si>
+    <t>211 211 211</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>C0 C0 C0</t>
+  </si>
+  <si>
+    <t>192 192 192</t>
+  </si>
+  <si>
+    <t>DarkGray</t>
+  </si>
+  <si>
+    <t>A9 A9 A9</t>
+  </si>
+  <si>
+    <t>169 169 169</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>80 80 80</t>
+  </si>
+  <si>
+    <t>128 128 128</t>
+  </si>
+  <si>
+    <t>DimGray</t>
+  </si>
+  <si>
+    <t>69 69 69</t>
+  </si>
+  <si>
+    <t>105 105 105</t>
+  </si>
+  <si>
+    <t>LightSlateGray</t>
+  </si>
+  <si>
+    <t>77 88 99</t>
+  </si>
+  <si>
+    <t>119 136 153</t>
+  </si>
+  <si>
+    <t>SlateGray</t>
+  </si>
+  <si>
+    <t>70 80 90</t>
+  </si>
+  <si>
+    <t>112 128 144</t>
+  </si>
+  <si>
+    <t>DarkSlateGray</t>
+  </si>
+  <si>
+    <t>2F 4F 4F</t>
+  </si>
+  <si>
+    <t> 47  79  79</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>00 00 00</t>
+  </si>
+  <si>
+    <t>  0   0   0</t>
+  </si>
+  <si>
+    <t>색깔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1031,7 +2305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,8 +2373,40 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10.65"/>
+      <color rgb="FF474747"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.65"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10.65"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="142">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1110,6 +2416,840 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB6C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF69B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1493"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDB7093"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC71585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA07A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9967A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF08080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD5C5C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC143C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB22222"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6347"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7F50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8C00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFACD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAD2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEFD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE4B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDAB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEE8AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0E68C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDB76B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF8DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEBCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDEAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5DEB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEB887"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2B48C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBC8F8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4A460"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAA520"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8860B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD853F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2691E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B4513"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0522D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA52A2A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF556B2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B8E23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ACD32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF32CD32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CFC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7FFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADFF2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FA9A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98FB98"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FBC8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3CB371"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF228B22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CDAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7FFFD4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40E0D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF48D1CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CED1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF20B2AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5F9EA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008B8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0C4DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0E0E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD8E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E90FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6495ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4682B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4169E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00008B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF191970"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8BFD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDA0DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE82EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA70D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBA55D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9370DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8A2BE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9400D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9932CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B008B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B0082"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF483D8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF663399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6A5ACD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7B68EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5FFFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDF5E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFAF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAEBD7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF0E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF0F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE4E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCDCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A9A9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF696969"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF778899"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF708090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,7 +3462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,6 +3493,909 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="48" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="51" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="51" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="53" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="53" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="54" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="55" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="55" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="56" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="56" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="57" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="58" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="58" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="59" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="59" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="60" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="60" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="61" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="61" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="62" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="62" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="63" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="63" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="64" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="64" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="65" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="65" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="66" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="66" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="67" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="67" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="68" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="68" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="69" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="69" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="70" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="70" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="71" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="71" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="72" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="72" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="73" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="73" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="74" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="74" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="75" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="75" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="76" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="76" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="77" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="77" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="78" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="78" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="79" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="79" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="80" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="80" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="81" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="81" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="82" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="82" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="83" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="83" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="84" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="84" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="85" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="85" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="86" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="86" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="87" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="87" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="88" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="88" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="89" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="89" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="90" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="90" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="91" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="91" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="92" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="92" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="93" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="93" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="94" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="94" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="95" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="95" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="96" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="96" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="97" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="97" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="98" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="98" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="99" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="99" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="100" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="100" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="101" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="101" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="102" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="102" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="103" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="103" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="104" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="104" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="105" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="105" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="106" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="106" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="107" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="107" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="108" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="108" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="109" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="109" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="110" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="110" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="111" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="111" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="112" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="112" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="113" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="113" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="114" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="114" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="115" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="115" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="116" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="116" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="117" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="117" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="118" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="118" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="119" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="119" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="120" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="120" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="121" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="121" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="122" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="122" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="123" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="123" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="124" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="124" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="125" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="125" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="126" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="126" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="127" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="127" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="128" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="128" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="129" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="129" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="130" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="130" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="131" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="131" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="132" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="132" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="133" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="133" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="134" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="134" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="135" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="135" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="136" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="136" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="137" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="137" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="138" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="138" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="139" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="139" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="140" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="140" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="141" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="141" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1365,116 +4408,53 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1756,10 +4736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK65"/>
+  <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1772,136 +4752,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="313" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="313"/>
+      <c r="H1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="319" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
-      <c r="R1" s="26" t="s">
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
+      <c r="O1" s="320"/>
+      <c r="P1" s="321"/>
+      <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="29"/>
-      <c r="AB1" s="26" t="s">
+      <c r="T1" s="320"/>
+      <c r="U1" s="320"/>
+      <c r="V1" s="320"/>
+      <c r="W1" s="320"/>
+      <c r="X1" s="320"/>
+      <c r="Y1" s="320"/>
+      <c r="Z1" s="321"/>
+      <c r="AB1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="319" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="29"/>
+      <c r="AD1" s="320"/>
+      <c r="AE1" s="320"/>
+      <c r="AF1" s="320"/>
+      <c r="AG1" s="320"/>
+      <c r="AH1" s="320"/>
+      <c r="AI1" s="320"/>
+      <c r="AJ1" s="321"/>
     </row>
     <row r="2" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="312"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="313" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="313"/>
+      <c r="H2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="316"/>
+      <c r="L2" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="21"/>
+      <c r="M2" s="316"/>
       <c r="N2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="20" t="s">
+      <c r="U2" s="316"/>
+      <c r="V2" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="21"/>
+      <c r="W2" s="316"/>
       <c r="X2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="20" t="s">
+      <c r="AE2" s="316"/>
+      <c r="AF2" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="21"/>
+      <c r="AG2" s="316"/>
       <c r="AH2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AI2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="31" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1909,18 +4889,18 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="313"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="314">
         <v>44987</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="313"/>
+      <c r="H3" s="18" t="s">
         <v>212</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1930,70 +4910,70 @@
         <v>62</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
+      <c r="L3" s="315"/>
+      <c r="M3" s="316"/>
       <c r="N3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="R3" s="32" t="s">
+      <c r="P3" s="17"/>
+      <c r="R3" s="18" t="s">
         <v>140</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="23"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="21"/>
+      <c r="U3" s="323"/>
+      <c r="V3" s="315"/>
+      <c r="W3" s="316"/>
       <c r="X3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="Z3" s="31"/>
-      <c r="AB3" s="32" t="s">
+      <c r="Z3" s="17"/>
+      <c r="AB3" s="18" t="s">
         <v>148</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AD3" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="21"/>
+      <c r="AE3" s="323"/>
+      <c r="AF3" s="315"/>
+      <c r="AG3" s="316"/>
       <c r="AH3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ3" s="31"/>
+        <v>218</v>
+      </c>
+      <c r="AJ3" s="17"/>
     </row>
     <row r="4" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="313" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="313"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="313" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="H4" s="32" t="s">
+      <c r="F4" s="313"/>
+      <c r="H4" s="18" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -2003,33 +4983,33 @@
         <v>62</v>
       </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
+      <c r="L4" s="315"/>
+      <c r="M4" s="316"/>
       <c r="N4" s="8" t="s">
         <v>71</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="31"/>
-      <c r="R4" s="33" t="s">
+      <c r="P4" s="17"/>
+      <c r="R4" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="326" t="s">
         <v>183</v>
       </c>
-      <c r="U4" s="44"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="37" t="s">
+      <c r="U4" s="327"/>
+      <c r="V4" s="317"/>
+      <c r="W4" s="318"/>
+      <c r="X4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="50" t="s">
+      <c r="Y4" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AB4" s="32" t="s">
+      <c r="Z4" s="22"/>
+      <c r="AB4" s="18" t="s">
         <v>212</v>
       </c>
       <c r="AC4" s="6" t="s">
@@ -2039,18 +5019,18 @@
         <v>62</v>
       </c>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="22" t="s">
+      <c r="AF4" s="322" t="s">
         <v>181</v>
       </c>
-      <c r="AG4" s="23"/>
+      <c r="AG4" s="323"/>
       <c r="AH4" s="8" t="s">
         <v>72</v>
       </c>
       <c r="AI4" s="7"/>
-      <c r="AJ4" s="31"/>
+      <c r="AJ4" s="17"/>
     </row>
     <row r="5" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="18" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -2060,181 +5040,181 @@
         <v>63</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
+      <c r="L5" s="315"/>
+      <c r="M5" s="316"/>
       <c r="N5" s="8" t="s">
         <v>71</v>
       </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="AB5" s="32" t="s">
+      <c r="AB5" s="18" t="s">
         <v>154</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AD5" s="22" t="s">
+      <c r="AD5" s="322" t="s">
         <v>214</v>
       </c>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="22" t="s">
+      <c r="AE5" s="323"/>
+      <c r="AF5" s="322" t="s">
         <v>182</v>
       </c>
-      <c r="AG5" s="23"/>
+      <c r="AG5" s="323"/>
       <c r="AH5" s="8" t="s">
         <v>72</v>
       </c>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="31"/>
+      <c r="AJ5" s="17"/>
     </row>
     <row r="6" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="311" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="311"/>
+      <c r="C6" s="311" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="311"/>
+      <c r="E6" s="311" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="H6" s="32" t="s">
+      <c r="F6" s="311"/>
+      <c r="H6" s="18" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="322" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="22" t="s">
+      <c r="K6" s="323"/>
+      <c r="L6" s="322" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="23"/>
+      <c r="M6" s="323"/>
       <c r="N6" s="8">
         <v>1</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="31"/>
-      <c r="R6" s="26" t="s">
+      <c r="P6" s="17"/>
+      <c r="R6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="27" t="s">
+      <c r="S6" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="29"/>
-      <c r="AB6" s="32" t="s">
+      <c r="T6" s="320"/>
+      <c r="U6" s="320"/>
+      <c r="V6" s="320"/>
+      <c r="W6" s="320"/>
+      <c r="X6" s="320"/>
+      <c r="Y6" s="320"/>
+      <c r="Z6" s="321"/>
+      <c r="AB6" s="18" t="s">
         <v>155</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AD6" s="22" t="s">
+      <c r="AD6" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="21"/>
+      <c r="AE6" s="323"/>
+      <c r="AF6" s="315"/>
+      <c r="AG6" s="316"/>
       <c r="AH6" s="8">
         <v>0</v>
       </c>
       <c r="AI6" s="6"/>
-      <c r="AJ6" s="31"/>
+      <c r="AJ6" s="17"/>
     </row>
     <row r="7" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="311" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="311"/>
+      <c r="C7" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="311"/>
+      <c r="H7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="22" t="s">
+      <c r="K7" s="323"/>
+      <c r="L7" s="322" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="23"/>
+      <c r="M7" s="323"/>
       <c r="N7" s="8">
         <v>0</v>
       </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="31"/>
-      <c r="R7" s="30" t="s">
+      <c r="P7" s="17"/>
+      <c r="R7" s="16" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="20" t="s">
+      <c r="T7" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="20" t="s">
+      <c r="U7" s="316"/>
+      <c r="V7" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="21"/>
+      <c r="W7" s="316"/>
       <c r="X7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Y7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="31" t="s">
+      <c r="Z7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="32" t="s">
+      <c r="AB7" s="18" t="s">
         <v>156</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="AD7" s="22" t="s">
+      <c r="AD7" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="21"/>
+      <c r="AE7" s="323"/>
+      <c r="AF7" s="315"/>
+      <c r="AG7" s="316"/>
       <c r="AH7" s="8">
         <v>0</v>
       </c>
       <c r="AI7" s="6"/>
-      <c r="AJ7" s="31"/>
+      <c r="AJ7" s="17"/>
     </row>
     <row r="8" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="311" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="311"/>
+      <c r="C8" s="311" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="32" t="s">
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="311"/>
+      <c r="H8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -2244,62 +5224,62 @@
         <v>66</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
+      <c r="L8" s="315"/>
+      <c r="M8" s="316"/>
       <c r="N8" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O8" s="6"/>
-      <c r="P8" s="31"/>
-      <c r="R8" s="32" t="s">
+      <c r="P8" s="17"/>
+      <c r="R8" s="18" t="s">
         <v>140</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="T8" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="21"/>
+      <c r="U8" s="323"/>
+      <c r="V8" s="315"/>
+      <c r="W8" s="316"/>
       <c r="X8" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Y8" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="Z8" s="31"/>
-      <c r="AB8" s="32" t="s">
+      <c r="Z8" s="17"/>
+      <c r="AB8" s="18" t="s">
         <v>157</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AD8" s="22" t="s">
+      <c r="AD8" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="21"/>
+      <c r="AE8" s="323"/>
+      <c r="AF8" s="315"/>
+      <c r="AG8" s="316"/>
       <c r="AH8" s="8">
         <v>0</v>
       </c>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="31"/>
+      <c r="AJ8" s="17"/>
     </row>
     <row r="9" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="311" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="311"/>
+      <c r="C9" s="311" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="32" t="s">
+      <c r="D9" s="311"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="H9" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -2309,62 +5289,62 @@
         <v>67</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
+      <c r="L9" s="315"/>
+      <c r="M9" s="316"/>
       <c r="N9" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="31"/>
-      <c r="R9" s="32" t="s">
+      <c r="P9" s="17"/>
+      <c r="R9" s="18" t="s">
         <v>222</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="322" t="s">
         <v>183</v>
       </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="21"/>
+      <c r="U9" s="323"/>
+      <c r="V9" s="315"/>
+      <c r="W9" s="316"/>
       <c r="X9" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y9" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="Z9" s="31"/>
-      <c r="AB9" s="32" t="s">
+      <c r="Z9" s="17"/>
+      <c r="AB9" s="18" t="s">
         <v>158</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AD9" s="22" t="s">
+      <c r="AD9" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="21"/>
+      <c r="AE9" s="323"/>
+      <c r="AF9" s="315"/>
+      <c r="AG9" s="316"/>
       <c r="AH9" s="8">
         <v>0</v>
       </c>
       <c r="AI9" s="6"/>
-      <c r="AJ9" s="31"/>
+      <c r="AJ9" s="17"/>
     </row>
     <row r="10" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="311" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="311"/>
+      <c r="C10" s="311" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="H10" s="32" t="s">
+      <c r="D10" s="311"/>
+      <c r="E10" s="311"/>
+      <c r="F10" s="311"/>
+      <c r="H10" s="18" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -2374,60 +5354,60 @@
         <v>67</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
+      <c r="L10" s="315"/>
+      <c r="M10" s="316"/>
       <c r="N10" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="31"/>
-      <c r="R10" s="33" t="s">
+      <c r="P10" s="17"/>
+      <c r="R10" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="S10" s="34" t="s">
+      <c r="S10" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="T10" s="43" t="s">
+      <c r="T10" s="326" t="s">
         <v>183</v>
       </c>
-      <c r="U10" s="44"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="37" t="s">
+      <c r="U10" s="327"/>
+      <c r="V10" s="317"/>
+      <c r="W10" s="318"/>
+      <c r="X10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="49"/>
-      <c r="AB10" s="32" t="s">
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="30"/>
+      <c r="AB10" s="18" t="s">
         <v>159</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AD10" s="22" t="s">
+      <c r="AD10" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="21"/>
+      <c r="AE10" s="323"/>
+      <c r="AF10" s="315"/>
+      <c r="AG10" s="316"/>
       <c r="AH10" s="8">
         <v>0</v>
       </c>
       <c r="AI10" s="6"/>
-      <c r="AJ10" s="31"/>
+      <c r="AJ10" s="17"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="311" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="311"/>
+      <c r="C11" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="32" t="s">
+      <c r="D11" s="311"/>
+      <c r="E11" s="311"/>
+      <c r="F11" s="311"/>
+      <c r="H11" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2437,43 +5417,43 @@
         <v>67</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
+      <c r="L11" s="315"/>
+      <c r="M11" s="316"/>
       <c r="N11" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O11" s="6"/>
-      <c r="P11" s="31"/>
-      <c r="AB11" s="32" t="s">
+      <c r="P11" s="17"/>
+      <c r="AB11" s="18" t="s">
         <v>160</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="AD11" s="22" t="s">
+      <c r="AD11" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="21"/>
+      <c r="AE11" s="323"/>
+      <c r="AF11" s="315"/>
+      <c r="AG11" s="316"/>
       <c r="AH11" s="8">
         <v>0</v>
       </c>
       <c r="AI11" s="6"/>
-      <c r="AJ11" s="31"/>
+      <c r="AJ11" s="17"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="311" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="311"/>
+      <c r="C12" s="311" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="H12" s="32" t="s">
+      <c r="D12" s="311"/>
+      <c r="E12" s="311"/>
+      <c r="F12" s="311"/>
+      <c r="H12" s="18" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -2483,125 +5463,125 @@
         <v>67</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
+      <c r="L12" s="315"/>
+      <c r="M12" s="316"/>
       <c r="N12" s="8" t="s">
         <v>71</v>
       </c>
       <c r="O12" s="6"/>
-      <c r="P12" s="31"/>
-      <c r="R12" s="26" t="s">
+      <c r="P12" s="17"/>
+      <c r="R12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="S12" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="29"/>
-      <c r="AB12" s="32" t="s">
+      <c r="T12" s="320"/>
+      <c r="U12" s="320"/>
+      <c r="V12" s="320"/>
+      <c r="W12" s="320"/>
+      <c r="X12" s="320"/>
+      <c r="Y12" s="320"/>
+      <c r="Z12" s="321"/>
+      <c r="AB12" s="18" t="s">
         <v>150</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AD12" s="22" t="s">
+      <c r="AD12" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="21"/>
+      <c r="AE12" s="323"/>
+      <c r="AF12" s="315"/>
+      <c r="AG12" s="316"/>
       <c r="AH12" s="8">
         <v>0</v>
       </c>
       <c r="AI12" s="6"/>
-      <c r="AJ12" s="31"/>
+      <c r="AJ12" s="17"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="311" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="311"/>
+      <c r="C13" s="311" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="H13" s="32" t="s">
+      <c r="D13" s="311"/>
+      <c r="E13" s="311"/>
+      <c r="F13" s="311"/>
+      <c r="H13" s="18" t="s">
         <v>49</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="322" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
+      <c r="K13" s="323"/>
+      <c r="L13" s="315"/>
+      <c r="M13" s="316"/>
       <c r="N13" s="8" t="s">
         <v>71</v>
       </c>
       <c r="O13" s="6"/>
-      <c r="P13" s="31"/>
-      <c r="R13" s="30" t="s">
+      <c r="P13" s="17"/>
+      <c r="R13" s="16" t="s">
         <v>33</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="21"/>
-      <c r="V13" s="20" t="s">
+      <c r="U13" s="316"/>
+      <c r="V13" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="21"/>
+      <c r="W13" s="316"/>
       <c r="X13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Y13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z13" s="31" t="s">
+      <c r="Z13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AB13" s="32" t="s">
+      <c r="AB13" s="18" t="s">
         <v>230</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AD13" s="22" t="s">
+      <c r="AD13" s="322" t="s">
         <v>241</v>
       </c>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="21"/>
+      <c r="AE13" s="323"/>
+      <c r="AF13" s="315"/>
+      <c r="AG13" s="316"/>
       <c r="AH13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI13" s="6"/>
-      <c r="AJ13" s="31"/>
+      <c r="AJ13" s="17"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="311" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="311"/>
+      <c r="C14" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="H14" s="32" t="s">
+      <c r="D14" s="311"/>
+      <c r="E14" s="311"/>
+      <c r="F14" s="311"/>
+      <c r="H14" s="18" t="s">
         <v>50</v>
       </c>
       <c r="I14" s="6" t="s">
@@ -2611,79 +5591,79 @@
         <v>67</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
+      <c r="L14" s="315"/>
+      <c r="M14" s="316"/>
       <c r="N14" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O14" s="6"/>
-      <c r="P14" s="31"/>
-      <c r="R14" s="40" t="s">
+      <c r="P14" s="17"/>
+      <c r="R14" s="24" t="s">
         <v>141</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="T14" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U14" s="23"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="21"/>
+      <c r="U14" s="323"/>
+      <c r="V14" s="315"/>
+      <c r="W14" s="316"/>
       <c r="X14" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Y14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Z14" s="31"/>
-      <c r="AB14" s="32" t="s">
+      <c r="Z14" s="17"/>
+      <c r="AB14" s="18" t="s">
         <v>232</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD14" s="22" t="s">
+      <c r="AD14" s="322" t="s">
         <v>242</v>
       </c>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="21"/>
+      <c r="AE14" s="323"/>
+      <c r="AF14" s="315"/>
+      <c r="AG14" s="316"/>
       <c r="AH14" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="31"/>
+      <c r="AJ14" s="17"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="311"/>
+      <c r="C15" s="311" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="H15" s="33" t="s">
+      <c r="D15" s="311"/>
+      <c r="E15" s="311"/>
+      <c r="F15" s="311"/>
+      <c r="H15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="37" t="s">
+      <c r="K15" s="20"/>
+      <c r="L15" s="317"/>
+      <c r="M15" s="318"/>
+      <c r="N15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="38"/>
-      <c r="R15" s="40" t="s">
+      <c r="O15" s="20"/>
+      <c r="P15" s="22"/>
+      <c r="R15" s="24" t="s">
         <v>212</v>
       </c>
       <c r="S15" s="9" t="s">
@@ -2693,14 +5673,14 @@
         <v>62</v>
       </c>
       <c r="U15" s="9"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="21"/>
+      <c r="V15" s="315"/>
+      <c r="W15" s="316"/>
       <c r="X15" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="31"/>
-      <c r="AB15" s="32" t="s">
+      <c r="Z15" s="17"/>
+      <c r="AB15" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AC15" s="6" t="s">
@@ -2710,35 +5690,35 @@
         <v>62</v>
       </c>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="21"/>
+      <c r="AF15" s="315"/>
+      <c r="AG15" s="316"/>
       <c r="AH15" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI15" s="6"/>
-      <c r="AJ15" s="31"/>
+      <c r="AJ15" s="17"/>
     </row>
     <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="24" t="s">
         <v>73</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="T16" s="22" t="s">
+      <c r="T16" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U16" s="23"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="21"/>
+      <c r="U16" s="323"/>
+      <c r="V16" s="315"/>
+      <c r="W16" s="316"/>
       <c r="X16" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y16" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Z16" s="31"/>
-      <c r="AB16" s="32" t="s">
+      <c r="Z16" s="17"/>
+      <c r="AB16" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AC16" s="6" t="s">
@@ -2748,29 +5728,29 @@
         <v>62</v>
       </c>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="21"/>
+      <c r="AF16" s="315"/>
+      <c r="AG16" s="316"/>
       <c r="AH16" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI16" s="6"/>
-      <c r="AJ16" s="39"/>
+      <c r="AJ16" s="23"/>
     </row>
     <row r="17" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="R17" s="40" t="s">
+      <c r="J17" s="320"/>
+      <c r="K17" s="320"/>
+      <c r="L17" s="320"/>
+      <c r="M17" s="320"/>
+      <c r="N17" s="320"/>
+      <c r="O17" s="320"/>
+      <c r="P17" s="321"/>
+      <c r="R17" s="24" t="s">
         <v>74</v>
       </c>
       <c r="S17" s="9" t="s">
@@ -2780,14 +5760,14 @@
         <v>62</v>
       </c>
       <c r="U17" s="9"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="21"/>
+      <c r="V17" s="315"/>
+      <c r="W17" s="316"/>
       <c r="X17" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="31"/>
-      <c r="AB17" s="32" t="s">
+      <c r="Z17" s="17"/>
+      <c r="AB17" s="18" t="s">
         <v>235</v>
       </c>
       <c r="AC17" s="6" t="s">
@@ -2797,56 +5777,56 @@
         <v>62</v>
       </c>
       <c r="AE17" s="6"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="21"/>
+      <c r="AF17" s="315"/>
+      <c r="AG17" s="316"/>
       <c r="AH17" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI17" s="6"/>
-      <c r="AJ17" s="39"/>
+      <c r="AJ17" s="23"/>
     </row>
     <row r="18" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20" t="s">
+      <c r="K18" s="316"/>
+      <c r="L18" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="21"/>
+      <c r="M18" s="316"/>
       <c r="N18" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="40" t="s">
+      <c r="R18" s="24" t="s">
         <v>78</v>
       </c>
       <c r="S18" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="T18" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U18" s="23"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="21"/>
+      <c r="U18" s="323"/>
+      <c r="V18" s="315"/>
+      <c r="W18" s="316"/>
       <c r="X18" s="8">
         <v>0</v>
       </c>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="31"/>
-      <c r="AB18" s="32" t="s">
+      <c r="Z18" s="17"/>
+      <c r="AB18" s="18" t="s">
         <v>236</v>
       </c>
       <c r="AC18" s="6" t="s">
@@ -2856,71 +5836,71 @@
         <v>62</v>
       </c>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="21"/>
+      <c r="AF18" s="315"/>
+      <c r="AG18" s="316"/>
       <c r="AH18" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI18" s="6"/>
-      <c r="AJ18" s="39"/>
+      <c r="AJ18" s="23"/>
     </row>
     <row r="19" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="18" t="s">
         <v>73</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
+      <c r="K19" s="323"/>
+      <c r="L19" s="315"/>
+      <c r="M19" s="316"/>
       <c r="N19" s="7" t="s">
         <v>71</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P19" s="31"/>
-      <c r="R19" s="40" t="s">
+      <c r="P19" s="17"/>
+      <c r="R19" s="24" t="s">
         <v>79</v>
       </c>
       <c r="S19" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="T19" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U19" s="23"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="21"/>
+      <c r="U19" s="323"/>
+      <c r="V19" s="315"/>
+      <c r="W19" s="316"/>
       <c r="X19" s="8">
         <v>0</v>
       </c>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="31"/>
-      <c r="AB19" s="32" t="s">
+      <c r="Z19" s="17"/>
+      <c r="AB19" s="18" t="s">
         <v>161</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AD19" s="22" t="s">
+      <c r="AD19" s="322" t="s">
         <v>241</v>
       </c>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="21"/>
+      <c r="AE19" s="323"/>
+      <c r="AF19" s="315"/>
+      <c r="AG19" s="316"/>
       <c r="AH19" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI19" s="6"/>
-      <c r="AJ19" s="39"/>
+      <c r="AJ19" s="23"/>
     </row>
     <row r="20" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="18" t="s">
         <v>74</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -2930,50 +5910,50 @@
         <v>62</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
+      <c r="L20" s="315"/>
+      <c r="M20" s="316"/>
       <c r="N20" s="8" t="s">
         <v>71</v>
       </c>
       <c r="O20" s="6"/>
-      <c r="P20" s="31"/>
-      <c r="R20" s="40" t="s">
+      <c r="P20" s="17"/>
+      <c r="R20" s="24" t="s">
         <v>80</v>
       </c>
       <c r="S20" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="T20" s="22" t="s">
+      <c r="T20" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U20" s="23"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="21"/>
+      <c r="U20" s="323"/>
+      <c r="V20" s="315"/>
+      <c r="W20" s="316"/>
       <c r="X20" s="8">
         <v>0</v>
       </c>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="31"/>
-      <c r="AB20" s="32" t="s">
+      <c r="Z20" s="17"/>
+      <c r="AB20" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="AC20" s="15" t="s">
+      <c r="AC20" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="AD20" s="22" t="s">
+      <c r="AD20" s="322" t="s">
         <v>242</v>
       </c>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="21"/>
+      <c r="AE20" s="323"/>
+      <c r="AF20" s="315"/>
+      <c r="AG20" s="316"/>
       <c r="AH20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="48"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="29"/>
     </row>
     <row r="21" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="18" t="s">
         <v>75</v>
       </c>
       <c r="I21" s="6" t="s">
@@ -2983,31 +5963,31 @@
         <v>62</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
+      <c r="L21" s="315"/>
+      <c r="M21" s="316"/>
       <c r="N21" s="8" t="s">
         <v>71</v>
       </c>
       <c r="O21" s="6"/>
-      <c r="P21" s="31"/>
-      <c r="R21" s="47" t="s">
+      <c r="P21" s="17"/>
+      <c r="R21" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="S21" s="15" t="s">
+      <c r="S21" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="T21" s="22" t="s">
+      <c r="T21" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U21" s="23"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="21"/>
+      <c r="U21" s="323"/>
+      <c r="V21" s="315"/>
+      <c r="W21" s="316"/>
       <c r="X21" s="8">
         <v>0</v>
       </c>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="48"/>
-      <c r="AB21" s="32" t="s">
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="29"/>
+      <c r="AB21" s="18" t="s">
         <v>162</v>
       </c>
       <c r="AC21" s="6" t="s">
@@ -3017,52 +5997,52 @@
         <v>62</v>
       </c>
       <c r="AE21" s="6"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="21"/>
+      <c r="AF21" s="315"/>
+      <c r="AG21" s="316"/>
       <c r="AH21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="48"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="29"/>
     </row>
     <row r="22" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="18" t="s">
         <v>77</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="322" t="s">
         <v>183</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
+      <c r="K22" s="323"/>
+      <c r="L22" s="315"/>
+      <c r="M22" s="316"/>
       <c r="N22" s="8" t="s">
         <v>71</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="31"/>
-      <c r="R22" s="40" t="s">
+      <c r="P22" s="17"/>
+      <c r="R22" s="24" t="s">
         <v>142</v>
       </c>
       <c r="S22" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="T22" s="22" t="s">
+      <c r="T22" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U22" s="23"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="21"/>
+      <c r="U22" s="323"/>
+      <c r="V22" s="315"/>
+      <c r="W22" s="316"/>
       <c r="X22" s="8">
         <v>1</v>
       </c>
       <c r="Y22" s="6"/>
-      <c r="Z22" s="31"/>
-      <c r="AB22" s="32" t="s">
+      <c r="Z22" s="17"/>
+      <c r="AB22" s="18" t="s">
         <v>163</v>
       </c>
       <c r="AC22" s="6" t="s">
@@ -3072,35 +6052,35 @@
         <v>62</v>
       </c>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="21"/>
+      <c r="AF22" s="315"/>
+      <c r="AG22" s="316"/>
       <c r="AH22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="48"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="29"/>
     </row>
     <row r="23" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="18" t="s">
         <v>76</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="322" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
+      <c r="K23" s="323"/>
+      <c r="L23" s="315"/>
+      <c r="M23" s="316"/>
       <c r="N23" s="8" t="s">
         <v>71</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P23" s="31"/>
-      <c r="R23" s="40" t="s">
+      <c r="P23" s="17"/>
+      <c r="R23" s="24" t="s">
         <v>102</v>
       </c>
       <c r="S23" s="9" t="s">
@@ -3110,14 +6090,14 @@
         <v>62</v>
       </c>
       <c r="U23" s="9"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="21"/>
+      <c r="V23" s="315"/>
+      <c r="W23" s="316"/>
       <c r="X23" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y23" s="6"/>
-      <c r="Z23" s="31"/>
-      <c r="AB23" s="32" t="s">
+      <c r="Z23" s="17"/>
+      <c r="AB23" s="18" t="s">
         <v>164</v>
       </c>
       <c r="AC23" s="6" t="s">
@@ -3127,33 +6107,33 @@
         <v>62</v>
       </c>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="21"/>
+      <c r="AF23" s="315"/>
+      <c r="AG23" s="316"/>
       <c r="AH23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="48"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="29"/>
     </row>
     <row r="24" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21"/>
+      <c r="K24" s="323"/>
+      <c r="L24" s="315"/>
+      <c r="M24" s="316"/>
       <c r="N24" s="8">
         <v>0</v>
       </c>
       <c r="O24" s="6"/>
-      <c r="P24" s="31"/>
-      <c r="R24" s="40" t="s">
+      <c r="P24" s="17"/>
+      <c r="R24" s="24" t="s">
         <v>103</v>
       </c>
       <c r="S24" s="9" t="s">
@@ -3163,50 +6143,50 @@
         <v>62</v>
       </c>
       <c r="U24" s="9"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="21"/>
+      <c r="V24" s="315"/>
+      <c r="W24" s="316"/>
       <c r="X24" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y24" s="6"/>
-      <c r="Z24" s="31"/>
-      <c r="AB24" s="32" t="s">
+      <c r="Z24" s="17"/>
+      <c r="AB24" s="18" t="s">
         <v>245</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AD24" s="22" t="s">
+      <c r="AD24" s="322" t="s">
         <v>247</v>
       </c>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="21"/>
+      <c r="AE24" s="323"/>
+      <c r="AF24" s="315"/>
+      <c r="AG24" s="316"/>
       <c r="AH24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="48"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="29"/>
     </row>
     <row r="25" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="18" t="s">
         <v>79</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
+      <c r="K25" s="323"/>
+      <c r="L25" s="315"/>
+      <c r="M25" s="316"/>
       <c r="N25" s="8">
         <v>0</v>
       </c>
       <c r="O25" s="6"/>
-      <c r="P25" s="31"/>
-      <c r="R25" s="40" t="s">
+      <c r="P25" s="17"/>
+      <c r="R25" s="24" t="s">
         <v>86</v>
       </c>
       <c r="S25" s="9" t="s">
@@ -3216,331 +6196,331 @@
         <v>62</v>
       </c>
       <c r="U25" s="9"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="21"/>
+      <c r="V25" s="315"/>
+      <c r="W25" s="316"/>
       <c r="X25" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y25" s="6"/>
-      <c r="Z25" s="31"/>
-      <c r="AB25" s="32" t="s">
+      <c r="Z25" s="17"/>
+      <c r="AB25" s="18" t="s">
         <v>165</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="AD25" s="22" t="s">
+      <c r="AD25" s="322" t="s">
         <v>64</v>
       </c>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="21"/>
+      <c r="AE25" s="323"/>
+      <c r="AF25" s="315"/>
+      <c r="AG25" s="316"/>
       <c r="AH25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="48"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="29"/>
     </row>
     <row r="26" spans="8:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="18" t="s">
         <v>80</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
+      <c r="K26" s="323"/>
+      <c r="L26" s="315"/>
+      <c r="M26" s="316"/>
       <c r="N26" s="8">
         <v>0</v>
       </c>
       <c r="O26" s="6"/>
-      <c r="P26" s="31"/>
-      <c r="R26" s="41" t="s">
+      <c r="P26" s="17"/>
+      <c r="R26" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="S26" s="42" t="s">
+      <c r="S26" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="T26" s="43" t="s">
+      <c r="T26" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="U26" s="44"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="37" t="s">
+      <c r="U26" s="327"/>
+      <c r="V26" s="317"/>
+      <c r="W26" s="318"/>
+      <c r="X26" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="38"/>
-      <c r="AB26" s="32" t="s">
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="22"/>
+      <c r="AB26" s="18" t="s">
         <v>166</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="AD26" s="24" t="s">
+      <c r="AD26" s="324" t="s">
         <v>248</v>
       </c>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="21"/>
+      <c r="AE26" s="325"/>
+      <c r="AF26" s="315"/>
+      <c r="AG26" s="316"/>
       <c r="AH26" s="8">
         <v>1</v>
       </c>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="48"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="29"/>
     </row>
     <row r="27" spans="8:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="21"/>
+      <c r="K27" s="323"/>
+      <c r="L27" s="315"/>
+      <c r="M27" s="316"/>
       <c r="N27" s="8">
         <v>0</v>
       </c>
       <c r="O27" s="6"/>
-      <c r="P27" s="31"/>
-      <c r="AB27" s="33" t="s">
+      <c r="P27" s="17"/>
+      <c r="AB27" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="AC27" s="34" t="s">
+      <c r="AC27" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="AD27" s="43" t="s">
+      <c r="AD27" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="50" t="s">
+      <c r="AE27" s="327"/>
+      <c r="AF27" s="317"/>
+      <c r="AG27" s="318"/>
+      <c r="AH27" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="38"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="22"/>
     </row>
     <row r="28" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="18" t="s">
         <v>81</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="21"/>
+      <c r="K28" s="323"/>
+      <c r="L28" s="315"/>
+      <c r="M28" s="316"/>
       <c r="N28" s="8">
         <v>0</v>
       </c>
       <c r="O28" s="6"/>
-      <c r="P28" s="31"/>
-      <c r="R28" s="26" t="s">
+      <c r="P28" s="17"/>
+      <c r="R28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S28" s="27" t="s">
+      <c r="S28" s="319" t="s">
         <v>21</v>
       </c>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="29"/>
-      <c r="AB28" s="16" t="s">
+      <c r="T28" s="320"/>
+      <c r="U28" s="320"/>
+      <c r="V28" s="320"/>
+      <c r="W28" s="320"/>
+      <c r="X28" s="320"/>
+      <c r="Y28" s="320"/>
+      <c r="Z28" s="321"/>
+      <c r="AB28" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
     </row>
     <row r="29" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="18" t="s">
         <v>82</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="21"/>
+      <c r="K29" s="323"/>
+      <c r="L29" s="315"/>
+      <c r="M29" s="316"/>
       <c r="N29" s="8">
         <v>0</v>
       </c>
       <c r="O29" s="6"/>
-      <c r="P29" s="31"/>
-      <c r="R29" s="30" t="s">
+      <c r="P29" s="17"/>
+      <c r="R29" s="16" t="s">
         <v>33</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="U29" s="21"/>
-      <c r="V29" s="20" t="s">
+      <c r="U29" s="316"/>
+      <c r="V29" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="W29" s="21"/>
+      <c r="W29" s="316"/>
       <c r="X29" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Y29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z29" s="31" t="s">
+      <c r="Z29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AB29" s="17" t="s">
+      <c r="AB29" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
     </row>
     <row r="30" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="18" t="s">
         <v>83</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="21"/>
+      <c r="K30" s="323"/>
+      <c r="L30" s="315"/>
+      <c r="M30" s="316"/>
       <c r="N30" s="8">
         <v>0</v>
       </c>
       <c r="O30" s="6"/>
-      <c r="P30" s="31"/>
-      <c r="R30" s="32" t="s">
+      <c r="P30" s="17"/>
+      <c r="R30" s="18" t="s">
         <v>146</v>
       </c>
       <c r="S30" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T30" s="22" t="s">
+      <c r="T30" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U30" s="23"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="21"/>
+      <c r="U30" s="323"/>
+      <c r="V30" s="315"/>
+      <c r="W30" s="316"/>
       <c r="X30" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Y30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z30" s="31"/>
-      <c r="AB30" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z30" s="17"/>
+      <c r="AB30" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
     </row>
     <row r="31" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="18" t="s">
         <v>84</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="21"/>
+      <c r="K31" s="323"/>
+      <c r="L31" s="315"/>
+      <c r="M31" s="316"/>
       <c r="N31" s="8">
         <v>0</v>
       </c>
       <c r="O31" s="6"/>
-      <c r="P31" s="39"/>
-      <c r="R31" s="32" t="s">
+      <c r="P31" s="23"/>
+      <c r="R31" s="18" t="s">
         <v>73</v>
       </c>
       <c r="S31" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="T31" s="22" t="s">
+      <c r="T31" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U31" s="23"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="21"/>
+      <c r="U31" s="323"/>
+      <c r="V31" s="315"/>
+      <c r="W31" s="316"/>
       <c r="X31" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y31" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Z31" s="31"/>
+      <c r="Z31" s="17"/>
       <c r="AB31" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="18"/>
-      <c r="AK31" s="18"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
     </row>
     <row r="32" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="18" t="s">
         <v>85</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="21"/>
+      <c r="K32" s="323"/>
+      <c r="L32" s="315"/>
+      <c r="M32" s="316"/>
       <c r="N32" s="8">
         <v>0</v>
       </c>
       <c r="O32" s="6"/>
-      <c r="P32" s="39"/>
-      <c r="R32" s="32" t="s">
+      <c r="P32" s="23"/>
+      <c r="R32" s="18" t="s">
         <v>212</v>
       </c>
       <c r="S32" s="6" t="s">
@@ -3550,19 +6530,19 @@
         <v>62</v>
       </c>
       <c r="U32" s="6"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="21"/>
+      <c r="V32" s="315"/>
+      <c r="W32" s="316"/>
       <c r="X32" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y32" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Z32" s="31"/>
-      <c r="AB32" s="19"/>
-    </row>
-    <row r="33" spans="8:35" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="32" t="s">
+      <c r="Z32" s="17"/>
+      <c r="AB32" s="14"/>
+    </row>
+    <row r="33" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="18" t="s">
         <v>86</v>
       </c>
       <c r="I33" s="6" t="s">
@@ -3572,39 +6552,39 @@
         <v>62</v>
       </c>
       <c r="K33" s="6"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="21"/>
+      <c r="L33" s="315"/>
+      <c r="M33" s="316"/>
       <c r="N33" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O33" s="6"/>
-      <c r="P33" s="39"/>
-      <c r="R33" s="33" t="s">
+      <c r="P33" s="23"/>
+      <c r="R33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="S33" s="34" t="s">
+      <c r="S33" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="T33" s="43" t="s">
+      <c r="T33" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="U33" s="44"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="37" t="s">
+      <c r="U33" s="327"/>
+      <c r="V33" s="317"/>
+      <c r="W33" s="318"/>
+      <c r="X33" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="38"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-    </row>
-    <row r="34" spans="8:35" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H34" s="32" t="s">
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="22"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+    </row>
+    <row r="34" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="18" t="s">
         <v>87</v>
       </c>
       <c r="I34" s="6" t="s">
@@ -3614,13 +6594,13 @@
         <v>62</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21"/>
+      <c r="L34" s="315"/>
+      <c r="M34" s="316"/>
       <c r="N34" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O34" s="6"/>
-      <c r="P34" s="39"/>
+      <c r="P34" s="23"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3630,8 +6610,8 @@
       <c r="AH34" s="4"/>
       <c r="AI34" s="3"/>
     </row>
-    <row r="35" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="32" t="s">
+    <row r="35" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="18" t="s">
         <v>88</v>
       </c>
       <c r="I35" s="6" t="s">
@@ -3641,29 +6621,42 @@
         <v>62</v>
       </c>
       <c r="K35" s="6"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="21"/>
+      <c r="L35" s="315"/>
+      <c r="M35" s="316"/>
       <c r="N35" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O35" s="6"/>
-      <c r="P35" s="39"/>
-      <c r="R35" s="26" t="s">
+      <c r="P35" s="23"/>
+      <c r="R35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S35" s="27" t="s">
+      <c r="S35" s="319" t="s">
         <v>23</v>
       </c>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="29"/>
-    </row>
-    <row r="36" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="32" t="s">
+      <c r="T35" s="320"/>
+      <c r="U35" s="320"/>
+      <c r="V35" s="320"/>
+      <c r="W35" s="320"/>
+      <c r="X35" s="320"/>
+      <c r="Y35" s="320"/>
+      <c r="Z35" s="321"/>
+      <c r="AB35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC35" s="319" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD35" s="320"/>
+      <c r="AE35" s="320"/>
+      <c r="AF35" s="320"/>
+      <c r="AG35" s="320"/>
+      <c r="AH35" s="320"/>
+      <c r="AI35" s="320"/>
+      <c r="AJ35" s="321"/>
+    </row>
+    <row r="36" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I36" s="6" t="s">
@@ -3673,39 +6666,62 @@
         <v>62</v>
       </c>
       <c r="K36" s="6"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="21"/>
+      <c r="L36" s="315"/>
+      <c r="M36" s="316"/>
       <c r="N36" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O36" s="6"/>
-      <c r="P36" s="39"/>
-      <c r="R36" s="30" t="s">
+      <c r="P36" s="23"/>
+      <c r="R36" s="16" t="s">
         <v>33</v>
       </c>
       <c r="S36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T36" s="20" t="s">
+      <c r="T36" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="U36" s="21"/>
-      <c r="V36" s="20" t="s">
+      <c r="U36" s="316"/>
+      <c r="V36" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="W36" s="21"/>
+      <c r="W36" s="316"/>
       <c r="X36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Y36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z36" s="31" t="s">
+      <c r="Z36" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="32" t="s">
+      <c r="AB36" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD36" s="315" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE36" s="316"/>
+      <c r="AF36" s="315" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG36" s="316"/>
+      <c r="AH36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ36" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="18" t="s">
         <v>90</v>
       </c>
       <c r="I37" s="6" t="s">
@@ -3715,35 +6731,54 @@
         <v>62</v>
       </c>
       <c r="K37" s="6"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="21"/>
+      <c r="L37" s="315"/>
+      <c r="M37" s="316"/>
       <c r="N37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O37" s="9"/>
-      <c r="P37" s="39"/>
-      <c r="R37" s="32" t="s">
+      <c r="P37" s="23"/>
+      <c r="R37" s="18" t="s">
         <v>148</v>
       </c>
       <c r="S37" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="T37" s="22" t="s">
+      <c r="T37" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U37" s="23"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="21"/>
+      <c r="U37" s="323"/>
+      <c r="V37" s="315"/>
+      <c r="W37" s="316"/>
       <c r="X37" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Y37" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Z37" s="31"/>
-    </row>
-    <row r="38" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="32" t="s">
+      <c r="Z37" s="17"/>
+      <c r="AB37" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD37" s="322" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE37" s="323"/>
+      <c r="AF37" s="315"/>
+      <c r="AG37" s="316"/>
+      <c r="AH37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ37" s="17"/>
+    </row>
+    <row r="38" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="18" t="s">
         <v>91</v>
       </c>
       <c r="I38" s="6" t="s">
@@ -3753,35 +6788,54 @@
         <v>62</v>
       </c>
       <c r="K38" s="6"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="21"/>
+      <c r="L38" s="315"/>
+      <c r="M38" s="316"/>
       <c r="N38" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O38" s="9"/>
-      <c r="P38" s="39"/>
-      <c r="R38" s="32" t="s">
+      <c r="P38" s="23"/>
+      <c r="R38" s="18" t="s">
         <v>73</v>
       </c>
       <c r="S38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="T38" s="22" t="s">
+      <c r="T38" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U38" s="23"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="21"/>
+      <c r="U38" s="323"/>
+      <c r="V38" s="315"/>
+      <c r="W38" s="316"/>
       <c r="X38" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="Z38" s="31"/>
-    </row>
-    <row r="39" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="40" t="s">
+      <c r="Z38" s="17"/>
+      <c r="AB38" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD38" s="322" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE38" s="323"/>
+      <c r="AF38" s="315"/>
+      <c r="AG38" s="316"/>
+      <c r="AH38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI38" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ38" s="17"/>
+    </row>
+    <row r="39" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="24" t="s">
         <v>92</v>
       </c>
       <c r="I39" s="9" t="s">
@@ -3791,33 +6845,52 @@
         <v>62</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="21"/>
+      <c r="L39" s="315"/>
+      <c r="M39" s="316"/>
       <c r="N39" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O39" s="9"/>
-      <c r="P39" s="39"/>
-      <c r="R39" s="32" t="s">
+      <c r="P39" s="23"/>
+      <c r="R39" s="18" t="s">
         <v>142</v>
       </c>
       <c r="S39" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="T39" s="22" t="s">
+      <c r="T39" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U39" s="23"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="21"/>
+      <c r="U39" s="323"/>
+      <c r="V39" s="315"/>
+      <c r="W39" s="316"/>
       <c r="X39" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y39" s="6"/>
-      <c r="Z39" s="31"/>
-    </row>
-    <row r="40" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="40" t="s">
+      <c r="Z39" s="17"/>
+      <c r="AB39" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="17"/>
+    </row>
+    <row r="40" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="24" t="s">
         <v>93</v>
       </c>
       <c r="I40" s="9" t="s">
@@ -3827,33 +6900,50 @@
         <v>62</v>
       </c>
       <c r="K40" s="6"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="21"/>
+      <c r="L40" s="315"/>
+      <c r="M40" s="316"/>
       <c r="N40" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O40" s="9"/>
-      <c r="P40" s="39"/>
-      <c r="R40" s="32" t="s">
+      <c r="P40" s="23"/>
+      <c r="R40" s="18" t="s">
         <v>149</v>
       </c>
       <c r="S40" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T40" s="22" t="s">
+      <c r="T40" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U40" s="23"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="21"/>
+      <c r="U40" s="323"/>
+      <c r="V40" s="315"/>
+      <c r="W40" s="316"/>
       <c r="X40" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y40" s="6"/>
-      <c r="Z40" s="31"/>
-    </row>
-    <row r="41" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H41" s="40" t="s">
+      <c r="Z40" s="17"/>
+      <c r="AB40" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="315"/>
+      <c r="AG40" s="316"/>
+      <c r="AH40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="17"/>
+    </row>
+    <row r="41" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="24" t="s">
         <v>94</v>
       </c>
       <c r="I41" s="9" t="s">
@@ -3863,33 +6953,52 @@
         <v>62</v>
       </c>
       <c r="K41" s="6"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="21"/>
+      <c r="L41" s="315"/>
+      <c r="M41" s="316"/>
       <c r="N41" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O41" s="9"/>
-      <c r="P41" s="39"/>
-      <c r="R41" s="32" t="s">
+      <c r="P41" s="23"/>
+      <c r="R41" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S41" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="T41" s="22" t="s">
+      <c r="T41" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U41" s="23"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="21"/>
+      <c r="U41" s="323"/>
+      <c r="V41" s="315"/>
+      <c r="W41" s="316"/>
       <c r="X41" s="8">
         <v>0</v>
       </c>
       <c r="Y41" s="6"/>
-      <c r="Z41" s="31"/>
-    </row>
-    <row r="42" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="40" t="s">
+      <c r="Z41" s="17"/>
+      <c r="AB41" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD41" s="322" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE41" s="323"/>
+      <c r="AF41" s="322" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG41" s="323"/>
+      <c r="AH41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="17"/>
+    </row>
+    <row r="42" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="24" t="s">
         <v>95</v>
       </c>
       <c r="I42" s="9" t="s">
@@ -3899,33 +7008,52 @@
         <v>62</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="21"/>
+      <c r="L42" s="315"/>
+      <c r="M42" s="316"/>
       <c r="N42" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O42" s="9"/>
-      <c r="P42" s="39"/>
-      <c r="R42" s="32" t="s">
+      <c r="P42" s="23"/>
+      <c r="R42" s="18" t="s">
         <v>80</v>
       </c>
       <c r="S42" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="T42" s="22" t="s">
+      <c r="T42" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U42" s="23"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="21"/>
+      <c r="U42" s="323"/>
+      <c r="V42" s="315"/>
+      <c r="W42" s="316"/>
       <c r="X42" s="8">
         <v>0</v>
       </c>
       <c r="Y42" s="6"/>
-      <c r="Z42" s="31"/>
-    </row>
-    <row r="43" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="40" t="s">
+      <c r="Z42" s="17"/>
+      <c r="AB42" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD42" s="322" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE42" s="323"/>
+      <c r="AF42" s="322" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG42" s="323"/>
+      <c r="AH42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="17"/>
+    </row>
+    <row r="43" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="24" t="s">
         <v>96</v>
       </c>
       <c r="I43" s="9" t="s">
@@ -3935,33 +7063,52 @@
         <v>67</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="21"/>
+      <c r="L43" s="315"/>
+      <c r="M43" s="316"/>
       <c r="N43" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O43" s="9"/>
-      <c r="P43" s="39"/>
-      <c r="R43" s="32" t="s">
+      <c r="P43" s="23"/>
+      <c r="R43" s="18" t="s">
         <v>43</v>
       </c>
       <c r="S43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="22" t="s">
+      <c r="T43" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U43" s="23"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="21"/>
+      <c r="U43" s="323"/>
+      <c r="V43" s="315"/>
+      <c r="W43" s="316"/>
       <c r="X43" s="8">
         <v>0</v>
       </c>
       <c r="Y43" s="6"/>
-      <c r="Z43" s="31"/>
-    </row>
-    <row r="44" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H44" s="40" t="s">
+      <c r="Z43" s="17"/>
+      <c r="AB43" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC43" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD43" s="322" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE43" s="323"/>
+      <c r="AF43" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="17"/>
+    </row>
+    <row r="44" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="24" t="s">
         <v>97</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -3971,33 +7118,52 @@
         <v>67</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="21"/>
+      <c r="L44" s="315"/>
+      <c r="M44" s="316"/>
       <c r="N44" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O44" s="9"/>
-      <c r="P44" s="39"/>
-      <c r="R44" s="32" t="s">
+      <c r="P44" s="23"/>
+      <c r="R44" s="18" t="s">
         <v>150</v>
       </c>
       <c r="S44" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="T44" s="22" t="s">
+      <c r="T44" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="U44" s="23"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="21"/>
+      <c r="U44" s="323"/>
+      <c r="V44" s="315"/>
+      <c r="W44" s="316"/>
       <c r="X44" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Y44" s="6"/>
-      <c r="Z44" s="31"/>
-    </row>
-    <row r="45" spans="8:35" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H45" s="40" t="s">
+      <c r="Z44" s="17"/>
+      <c r="AB44" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="17"/>
+    </row>
+    <row r="45" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H45" s="24" t="s">
         <v>98</v>
       </c>
       <c r="I45" s="9" t="s">
@@ -4007,33 +7173,52 @@
         <v>67</v>
       </c>
       <c r="K45" s="6"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="21"/>
+      <c r="L45" s="315"/>
+      <c r="M45" s="316"/>
       <c r="N45" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O45" s="9"/>
-      <c r="P45" s="39"/>
-      <c r="R45" s="33" t="s">
+      <c r="P45" s="23"/>
+      <c r="R45" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="S45" s="34" t="s">
+      <c r="S45" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="T45" s="43" t="s">
+      <c r="T45" s="326" t="s">
         <v>215</v>
       </c>
-      <c r="U45" s="44"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="37" t="s">
+      <c r="U45" s="327"/>
+      <c r="V45" s="317"/>
+      <c r="W45" s="318"/>
+      <c r="X45" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="38"/>
-    </row>
-    <row r="46" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="40" t="s">
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="22"/>
+      <c r="AB45" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="17"/>
+    </row>
+    <row r="46" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="24" t="s">
         <v>99</v>
       </c>
       <c r="I46" s="9" t="s">
@@ -4043,16 +7228,33 @@
         <v>67</v>
       </c>
       <c r="K46" s="6"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="21"/>
+      <c r="L46" s="315"/>
+      <c r="M46" s="316"/>
       <c r="N46" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O46" s="9"/>
-      <c r="P46" s="39"/>
-    </row>
-    <row r="47" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="40" t="s">
+      <c r="P46" s="23"/>
+      <c r="AB46" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="315"/>
+      <c r="AG46" s="316"/>
+      <c r="AH46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="17"/>
+    </row>
+    <row r="47" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="24" t="s">
         <v>100</v>
       </c>
       <c r="I47" s="9" t="s">
@@ -4062,16 +7264,33 @@
         <v>67</v>
       </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="21"/>
+      <c r="L47" s="315"/>
+      <c r="M47" s="316"/>
       <c r="N47" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O47" s="9"/>
-      <c r="P47" s="39"/>
-    </row>
-    <row r="48" spans="8:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H48" s="40" t="s">
+      <c r="P47" s="23"/>
+      <c r="AB47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC47" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD47" s="326" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE47" s="327"/>
+      <c r="AF47" s="317"/>
+      <c r="AG47" s="318"/>
+      <c r="AH47" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="22"/>
+    </row>
+    <row r="48" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H48" s="24" t="s">
         <v>101</v>
       </c>
       <c r="I48" s="9" t="s">
@@ -4081,16 +7300,16 @@
         <v>67</v>
       </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="21"/>
+      <c r="L48" s="315"/>
+      <c r="M48" s="316"/>
       <c r="N48" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O48" s="9"/>
-      <c r="P48" s="39"/>
-    </row>
-    <row r="49" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H49" s="40" t="s">
+      <c r="P48" s="23"/>
+    </row>
+    <row r="49" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="24" t="s">
         <v>102</v>
       </c>
       <c r="I49" s="9" t="s">
@@ -4100,16 +7319,29 @@
         <v>62</v>
       </c>
       <c r="K49" s="6"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="21"/>
+      <c r="L49" s="315"/>
+      <c r="M49" s="316"/>
       <c r="N49" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O49" s="9"/>
-      <c r="P49" s="39"/>
-    </row>
-    <row r="50" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H50" s="40" t="s">
+      <c r="P49" s="23"/>
+      <c r="AB49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC49" s="319" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD49" s="320"/>
+      <c r="AE49" s="320"/>
+      <c r="AF49" s="320"/>
+      <c r="AG49" s="320"/>
+      <c r="AH49" s="320"/>
+      <c r="AI49" s="320"/>
+      <c r="AJ49" s="321"/>
+    </row>
+    <row r="50" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="24" t="s">
         <v>103</v>
       </c>
       <c r="I50" s="9" t="s">
@@ -4119,535 +7351,355 @@
         <v>67</v>
       </c>
       <c r="K50" s="6"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="21"/>
+      <c r="L50" s="315"/>
+      <c r="M50" s="316"/>
       <c r="N50" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O50" s="9"/>
-      <c r="P50" s="39"/>
-    </row>
-    <row r="51" spans="8:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H51" s="41" t="s">
+      <c r="P50" s="23"/>
+      <c r="AB50" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD50" s="312" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE50" s="312"/>
+      <c r="AF50" s="312" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG50" s="312"/>
+      <c r="AH50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ50" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H51" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="I51" s="42" t="s">
+      <c r="I51" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="J51" s="43" t="s">
+      <c r="J51" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="K51" s="44"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="37" t="s">
+      <c r="K51" s="327"/>
+      <c r="L51" s="317"/>
+      <c r="M51" s="318"/>
+      <c r="N51" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O51" s="42"/>
-      <c r="P51" s="45"/>
-    </row>
-    <row r="52" spans="8:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="26" t="s">
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="AB51" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD51" s="328" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE51" s="328"/>
+      <c r="AF51" s="312"/>
+      <c r="AG51" s="312"/>
+      <c r="AH51" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI51" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ51" s="17"/>
+    </row>
+    <row r="52" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB52" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="17"/>
+    </row>
+    <row r="53" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H53" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="29"/>
-      <c r="R53" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="S53" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="29"/>
-    </row>
-    <row r="54" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H54" s="30" t="s">
+      <c r="I53" s="319" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="320"/>
+      <c r="K53" s="320"/>
+      <c r="L53" s="320"/>
+      <c r="M53" s="320"/>
+      <c r="N53" s="320"/>
+      <c r="O53" s="320"/>
+      <c r="P53" s="321"/>
+      <c r="AB53" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="312"/>
+      <c r="AG53" s="312"/>
+      <c r="AH53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="17"/>
+    </row>
+    <row r="54" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="J54" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="K54" s="21"/>
-      <c r="L54" s="20" t="s">
+      <c r="K54" s="316"/>
+      <c r="L54" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="M54" s="21"/>
+      <c r="M54" s="316"/>
       <c r="N54" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P54" s="31" t="s">
+      <c r="P54" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="R54" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="S54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T54" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="W54" s="11"/>
-      <c r="X54" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y54" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z54" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H55" s="32" t="s">
-        <v>184</v>
+      <c r="AB54" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="312"/>
+      <c r="AG54" s="312"/>
+      <c r="AH54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="17"/>
+    </row>
+    <row r="55" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J55" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J55" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="K55" s="23"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="21"/>
+      <c r="K55" s="323"/>
+      <c r="L55" s="315"/>
+      <c r="M55" s="316"/>
       <c r="N55" s="7" t="s">
         <v>71</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P55" s="31"/>
-      <c r="R55" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="T55" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P55" s="17"/>
+      <c r="AB55" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD55" s="322" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE55" s="323"/>
+      <c r="AF55" s="312"/>
+      <c r="AG55" s="312"/>
+      <c r="AH55" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="17"/>
+    </row>
+    <row r="56" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H56" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="J56" s="326" t="s">
+        <v>183</v>
+      </c>
+      <c r="K56" s="327"/>
+      <c r="L56" s="317"/>
+      <c r="M56" s="318"/>
+      <c r="N56" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O56" s="20"/>
+      <c r="P56" s="22"/>
+      <c r="AB56" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC56" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD56" s="328" t="s">
         <v>65</v>
       </c>
-      <c r="U55" s="14"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y55" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z55" s="31"/>
-    </row>
-    <row r="56" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H56" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J56" s="22" t="s">
+      <c r="AE56" s="328"/>
+      <c r="AF56" s="312"/>
+      <c r="AG56" s="312"/>
+      <c r="AH56" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="17"/>
+    </row>
+    <row r="57" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB57" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC57" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD57" s="328" t="s">
         <v>65</v>
       </c>
-      <c r="K56" s="23"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P56" s="31"/>
-      <c r="R56" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="S56" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="T56" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="U56" s="15"/>
-      <c r="V56" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="W56" s="15"/>
-      <c r="X56" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="31"/>
-    </row>
-    <row r="57" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H57" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J57" s="6" t="s">
+      <c r="AE57" s="328"/>
+      <c r="AF57" s="322" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG57" s="323"/>
+      <c r="AH57" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="17"/>
+    </row>
+    <row r="58" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB58" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC58" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K57" s="15"/>
-      <c r="L57" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="M57" s="15"/>
-      <c r="N57" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O57" s="6"/>
-      <c r="P57" s="31"/>
-      <c r="R57" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="S57" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="T57" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U57" s="15"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="31"/>
-    </row>
-    <row r="58" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H58" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K58" s="15"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O58" s="6"/>
-      <c r="P58" s="31"/>
-      <c r="R58" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="S58" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="T58" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U58" s="15"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="31"/>
-    </row>
-    <row r="59" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H59" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J59" s="22" t="s">
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="322" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG58" s="323"/>
+      <c r="AH58" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="17"/>
+    </row>
+    <row r="59" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB59" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC59" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD59" s="329" t="s">
         <v>65</v>
       </c>
-      <c r="K59" s="23"/>
-      <c r="L59" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M59" s="23"/>
-      <c r="N59" s="8">
-        <v>0</v>
-      </c>
-      <c r="O59" s="6"/>
-      <c r="P59" s="31"/>
-      <c r="R59" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="S59" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="T59" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="U59" s="23"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="31"/>
-    </row>
-    <row r="60" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H60" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J60" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K60" s="23"/>
-      <c r="L60" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="M60" s="23"/>
-      <c r="N60" s="8" t="s">
+      <c r="AE59" s="329"/>
+      <c r="AF59" s="326" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG59" s="327"/>
+      <c r="AH59" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O60" s="6"/>
-      <c r="P60" s="31"/>
-      <c r="R60" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="S60" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="T60" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="U60" s="14"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="31"/>
-    </row>
-    <row r="61" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H61" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="J61" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K61" s="23"/>
-      <c r="L61" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="O61" s="6"/>
-      <c r="P61" s="31"/>
-      <c r="R61" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="S61" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="T61" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="U61" s="14"/>
-      <c r="V61" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="W61" s="23"/>
-      <c r="X61" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="31"/>
-    </row>
-    <row r="62" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H62" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K62" s="15"/>
-      <c r="L62" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="M62" s="15"/>
-      <c r="N62" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O62" s="6"/>
-      <c r="P62" s="31"/>
-      <c r="R62" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S62" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="T62" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U62" s="15"/>
-      <c r="V62" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="W62" s="23"/>
-      <c r="X62" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="31"/>
-    </row>
-    <row r="63" spans="8:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H63" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K63" s="15"/>
-      <c r="L63" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="M63" s="15"/>
-      <c r="N63" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O63" s="6"/>
-      <c r="P63" s="31"/>
-      <c r="R63" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="S63" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="T63" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="U63" s="46"/>
-      <c r="V63" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="W63" s="44"/>
-      <c r="X63" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="38"/>
-    </row>
-    <row r="64" spans="8:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H64" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K64" s="15"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O64" s="6"/>
-      <c r="P64" s="31"/>
-    </row>
-    <row r="65" spans="8:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H65" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I65" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="J65" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="K65" s="44"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="O65" s="34"/>
-      <c r="P65" s="38"/>
+      <c r="AI59" s="20"/>
+      <c r="AJ59" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="253">
-    <mergeCell ref="S53:Z53"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V60:W60"/>
+  <mergeCells count="260">
     <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="L56:M56"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF37:AG37"/>
     <mergeCell ref="I53:P53"/>
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="L54:M54"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AD59:AE59"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="AF53:AG53"/>
+    <mergeCell ref="AF54:AG54"/>
+    <mergeCell ref="AF55:AG55"/>
+    <mergeCell ref="AF56:AG56"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AC35:AJ35"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
     <mergeCell ref="T45:U45"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="AC49:AJ49"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="AF58:AG58"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J51:K51"/>
     <mergeCell ref="AD27:AE27"/>
@@ -4670,7 +7722,6 @@
     <mergeCell ref="T39:U39"/>
     <mergeCell ref="T40:U40"/>
     <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
     <mergeCell ref="T43:U43"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J31:K31"/>
@@ -4682,7 +7733,7 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T29:U29"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AF5:AG5"/>
     <mergeCell ref="J19:K19"/>
@@ -4700,10 +7751,13 @@
     <mergeCell ref="AD19:AE19"/>
     <mergeCell ref="AF23:AG23"/>
     <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="V43:W43"/>
     <mergeCell ref="V44:W44"/>
     <mergeCell ref="V45:W45"/>
@@ -4724,27 +7778,18 @@
     <mergeCell ref="V39:W39"/>
     <mergeCell ref="V40:W40"/>
     <mergeCell ref="V41:W41"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T42:U42"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="L41:M41"/>
@@ -4755,11 +7800,6 @@
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L26:M26"/>
@@ -4786,7 +7826,14 @@
     <mergeCell ref="AF20:AG20"/>
     <mergeCell ref="AF21:AG21"/>
     <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="V29:W29"/>
     <mergeCell ref="T36:U36"/>
     <mergeCell ref="V36:W36"/>
@@ -4829,6 +7876,7 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -4871,4 +7919,1598 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A72E2E6-AC5F-4802-B73A-37AE7CCD0AF5}">
+  <dimension ref="A1:C143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="330" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="330"/>
+      <c r="B2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="73" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="81" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="83" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="84" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="85" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" s="86" t="s">
+        <v>336</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="87" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="89" t="s">
+        <v>341</v>
+      </c>
+      <c r="B31" s="90" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="91" t="s">
+        <v>344</v>
+      </c>
+      <c r="B32" s="92" t="s">
+        <v>345</v>
+      </c>
+      <c r="C32" s="92" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="93" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" s="94" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="95" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" s="96" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" s="96" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="97" t="s">
+        <v>353</v>
+      </c>
+      <c r="B35" s="98" t="s">
+        <v>354</v>
+      </c>
+      <c r="C35" s="98" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="99" t="s">
+        <v>356</v>
+      </c>
+      <c r="B36" s="100" t="s">
+        <v>357</v>
+      </c>
+      <c r="C36" s="100" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="101" t="s">
+        <v>359</v>
+      </c>
+      <c r="B37" s="102" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" s="102" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="B38" s="104" t="s">
+        <v>363</v>
+      </c>
+      <c r="C38" s="104" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="105" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="106" t="s">
+        <v>366</v>
+      </c>
+      <c r="C39" s="106" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="107" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="C40" s="108" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="B41" s="110" t="s">
+        <v>372</v>
+      </c>
+      <c r="C41" s="110" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="111" t="s">
+        <v>374</v>
+      </c>
+      <c r="B42" s="112" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" s="112" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="113" t="s">
+        <v>377</v>
+      </c>
+      <c r="B43" s="114" t="s">
+        <v>378</v>
+      </c>
+      <c r="C43" s="114" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="115" t="s">
+        <v>380</v>
+      </c>
+      <c r="B44" s="116" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44" s="116" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="117" t="s">
+        <v>383</v>
+      </c>
+      <c r="B45" s="118" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" s="118" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="119" t="s">
+        <v>386</v>
+      </c>
+      <c r="B46" s="120" t="s">
+        <v>387</v>
+      </c>
+      <c r="C46" s="120" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="121" t="s">
+        <v>389</v>
+      </c>
+      <c r="B47" s="122" t="s">
+        <v>390</v>
+      </c>
+      <c r="C47" s="122" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="123" t="s">
+        <v>392</v>
+      </c>
+      <c r="B48" s="124" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" s="124" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="125" t="s">
+        <v>395</v>
+      </c>
+      <c r="B49" s="126" t="s">
+        <v>396</v>
+      </c>
+      <c r="C49" s="126" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="127" t="s">
+        <v>398</v>
+      </c>
+      <c r="B50" s="128" t="s">
+        <v>399</v>
+      </c>
+      <c r="C50" s="128" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="129" t="s">
+        <v>401</v>
+      </c>
+      <c r="B51" s="130" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" s="130" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="131" t="s">
+        <v>404</v>
+      </c>
+      <c r="B52" s="132" t="s">
+        <v>405</v>
+      </c>
+      <c r="C52" s="132" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="133" t="s">
+        <v>407</v>
+      </c>
+      <c r="B53" s="134" t="s">
+        <v>408</v>
+      </c>
+      <c r="C53" s="134" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="135" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="136" t="s">
+        <v>411</v>
+      </c>
+      <c r="C54" s="136" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="137" t="s">
+        <v>413</v>
+      </c>
+      <c r="B55" s="138" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" s="138" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="139" t="s">
+        <v>416</v>
+      </c>
+      <c r="B56" s="140" t="s">
+        <v>417</v>
+      </c>
+      <c r="C56" s="140" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="141" t="s">
+        <v>419</v>
+      </c>
+      <c r="B57" s="142" t="s">
+        <v>420</v>
+      </c>
+      <c r="C57" s="142" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="143" t="s">
+        <v>422</v>
+      </c>
+      <c r="B58" s="144" t="s">
+        <v>423</v>
+      </c>
+      <c r="C58" s="144" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="B59" s="146" t="s">
+        <v>426</v>
+      </c>
+      <c r="C59" s="146" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="147" t="s">
+        <v>428</v>
+      </c>
+      <c r="B60" s="148" t="s">
+        <v>429</v>
+      </c>
+      <c r="C60" s="148" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="149" t="s">
+        <v>431</v>
+      </c>
+      <c r="B61" s="150" t="s">
+        <v>432</v>
+      </c>
+      <c r="C61" s="150" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="151" t="s">
+        <v>434</v>
+      </c>
+      <c r="B62" s="152" t="s">
+        <v>435</v>
+      </c>
+      <c r="C62" s="152" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="B63" s="154" t="s">
+        <v>438</v>
+      </c>
+      <c r="C63" s="154" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="155" t="s">
+        <v>440</v>
+      </c>
+      <c r="B64" s="156" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" s="156" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="157" t="s">
+        <v>443</v>
+      </c>
+      <c r="B65" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="C65" s="158" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="159" t="s">
+        <v>446</v>
+      </c>
+      <c r="B66" s="160" t="s">
+        <v>447</v>
+      </c>
+      <c r="C66" s="160" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="161" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67" s="162" t="s">
+        <v>450</v>
+      </c>
+      <c r="C67" s="162" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="163" t="s">
+        <v>452</v>
+      </c>
+      <c r="B68" s="164" t="s">
+        <v>453</v>
+      </c>
+      <c r="C68" s="164" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="165" t="s">
+        <v>455</v>
+      </c>
+      <c r="B69" s="166" t="s">
+        <v>456</v>
+      </c>
+      <c r="C69" s="166" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="167" t="s">
+        <v>458</v>
+      </c>
+      <c r="B70" s="168" t="s">
+        <v>459</v>
+      </c>
+      <c r="C70" s="168" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="169" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" s="170" t="s">
+        <v>462</v>
+      </c>
+      <c r="C71" s="170" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="169" t="s">
+        <v>464</v>
+      </c>
+      <c r="B72" s="170" t="s">
+        <v>462</v>
+      </c>
+      <c r="C72" s="170" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="171" t="s">
+        <v>465</v>
+      </c>
+      <c r="B73" s="172" t="s">
+        <v>466</v>
+      </c>
+      <c r="C73" s="172" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="173" t="s">
+        <v>468</v>
+      </c>
+      <c r="B74" s="174" t="s">
+        <v>469</v>
+      </c>
+      <c r="C74" s="174" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="175" t="s">
+        <v>471</v>
+      </c>
+      <c r="B75" s="176" t="s">
+        <v>472</v>
+      </c>
+      <c r="C75" s="176" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="177" t="s">
+        <v>474</v>
+      </c>
+      <c r="B76" s="178" t="s">
+        <v>475</v>
+      </c>
+      <c r="C76" s="178" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="179" t="s">
+        <v>477</v>
+      </c>
+      <c r="B77" s="180" t="s">
+        <v>478</v>
+      </c>
+      <c r="C77" s="180" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="181" t="s">
+        <v>480</v>
+      </c>
+      <c r="B78" s="182" t="s">
+        <v>481</v>
+      </c>
+      <c r="C78" s="182" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="B79" s="184" t="s">
+        <v>484</v>
+      </c>
+      <c r="C79" s="184" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="185" t="s">
+        <v>486</v>
+      </c>
+      <c r="B80" s="186" t="s">
+        <v>487</v>
+      </c>
+      <c r="C80" s="186" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="187" t="s">
+        <v>489</v>
+      </c>
+      <c r="B81" s="188" t="s">
+        <v>490</v>
+      </c>
+      <c r="C81" s="188" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="189" t="s">
+        <v>492</v>
+      </c>
+      <c r="B82" s="190" t="s">
+        <v>493</v>
+      </c>
+      <c r="C82" s="190" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="191" t="s">
+        <v>495</v>
+      </c>
+      <c r="B83" s="192" t="s">
+        <v>496</v>
+      </c>
+      <c r="C83" s="192" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="193" t="s">
+        <v>498</v>
+      </c>
+      <c r="B84" s="194" t="s">
+        <v>499</v>
+      </c>
+      <c r="C84" s="194" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="195" t="s">
+        <v>501</v>
+      </c>
+      <c r="B85" s="196" t="s">
+        <v>502</v>
+      </c>
+      <c r="C85" s="196" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="197" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" s="198" t="s">
+        <v>505</v>
+      </c>
+      <c r="C86" s="198" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="199" t="s">
+        <v>507</v>
+      </c>
+      <c r="B87" s="200" t="s">
+        <v>508</v>
+      </c>
+      <c r="C87" s="200" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="201" t="s">
+        <v>510</v>
+      </c>
+      <c r="B88" s="202" t="s">
+        <v>511</v>
+      </c>
+      <c r="C88" s="202" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="203" t="s">
+        <v>513</v>
+      </c>
+      <c r="B89" s="204" t="s">
+        <v>514</v>
+      </c>
+      <c r="C89" s="204" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="205" t="s">
+        <v>516</v>
+      </c>
+      <c r="B90" s="206" t="s">
+        <v>517</v>
+      </c>
+      <c r="C90" s="206" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="207" t="s">
+        <v>519</v>
+      </c>
+      <c r="B91" s="208" t="s">
+        <v>520</v>
+      </c>
+      <c r="C91" s="208" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="209" t="s">
+        <v>522</v>
+      </c>
+      <c r="B92" s="210" t="s">
+        <v>523</v>
+      </c>
+      <c r="C92" s="210" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="211" t="s">
+        <v>525</v>
+      </c>
+      <c r="B93" s="212" t="s">
+        <v>526</v>
+      </c>
+      <c r="C93" s="212" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="213" t="s">
+        <v>528</v>
+      </c>
+      <c r="B94" s="214" t="s">
+        <v>529</v>
+      </c>
+      <c r="C94" s="214" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="215" t="s">
+        <v>531</v>
+      </c>
+      <c r="B95" s="216" t="s">
+        <v>532</v>
+      </c>
+      <c r="C95" s="216" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="217" t="s">
+        <v>534</v>
+      </c>
+      <c r="B96" s="218" t="s">
+        <v>535</v>
+      </c>
+      <c r="C96" s="218" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="219" t="s">
+        <v>537</v>
+      </c>
+      <c r="B97" s="220" t="s">
+        <v>538</v>
+      </c>
+      <c r="C97" s="220" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="221" t="s">
+        <v>540</v>
+      </c>
+      <c r="B98" s="222" t="s">
+        <v>541</v>
+      </c>
+      <c r="C98" s="222" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="223" t="s">
+        <v>543</v>
+      </c>
+      <c r="B99" s="224" t="s">
+        <v>544</v>
+      </c>
+      <c r="C99" s="224" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="225" t="s">
+        <v>546</v>
+      </c>
+      <c r="B100" s="226" t="s">
+        <v>547</v>
+      </c>
+      <c r="C100" s="226" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="227" t="s">
+        <v>549</v>
+      </c>
+      <c r="B101" s="228" t="s">
+        <v>550</v>
+      </c>
+      <c r="C101" s="228" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="229" t="s">
+        <v>552</v>
+      </c>
+      <c r="B102" s="230" t="s">
+        <v>553</v>
+      </c>
+      <c r="C102" s="230" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="231" t="s">
+        <v>555</v>
+      </c>
+      <c r="B103" s="232" t="s">
+        <v>556</v>
+      </c>
+      <c r="C103" s="232" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="231" t="s">
+        <v>558</v>
+      </c>
+      <c r="B104" s="232" t="s">
+        <v>556</v>
+      </c>
+      <c r="C104" s="232" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="233" t="s">
+        <v>559</v>
+      </c>
+      <c r="B105" s="234" t="s">
+        <v>560</v>
+      </c>
+      <c r="C105" s="234" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="B106" s="236" t="s">
+        <v>563</v>
+      </c>
+      <c r="C106" s="236" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="237" t="s">
+        <v>565</v>
+      </c>
+      <c r="B107" s="238" t="s">
+        <v>566</v>
+      </c>
+      <c r="C107" s="238" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="239" t="s">
+        <v>568</v>
+      </c>
+      <c r="B108" s="240" t="s">
+        <v>569</v>
+      </c>
+      <c r="C108" s="240" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="241" t="s">
+        <v>571</v>
+      </c>
+      <c r="B109" s="242" t="s">
+        <v>572</v>
+      </c>
+      <c r="C109" s="242" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="243" t="s">
+        <v>574</v>
+      </c>
+      <c r="B110" s="244" t="s">
+        <v>575</v>
+      </c>
+      <c r="C110" s="244" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="245" t="s">
+        <v>577</v>
+      </c>
+      <c r="B111" s="246" t="s">
+        <v>578</v>
+      </c>
+      <c r="C111" s="246" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="247" t="s">
+        <v>580</v>
+      </c>
+      <c r="B112" s="248" t="s">
+        <v>581</v>
+      </c>
+      <c r="C112" s="248" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="249" t="s">
+        <v>583</v>
+      </c>
+      <c r="B113" s="250" t="s">
+        <v>584</v>
+      </c>
+      <c r="C113" s="250" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="251" t="s">
+        <v>586</v>
+      </c>
+      <c r="B114" s="252" t="s">
+        <v>587</v>
+      </c>
+      <c r="C114" s="252" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="253" t="s">
+        <v>589</v>
+      </c>
+      <c r="B115" s="254" t="s">
+        <v>590</v>
+      </c>
+      <c r="C115" s="254" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="255" t="s">
+        <v>592</v>
+      </c>
+      <c r="B116" s="256" t="s">
+        <v>593</v>
+      </c>
+      <c r="C116" s="256" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="257" t="s">
+        <v>595</v>
+      </c>
+      <c r="B117" s="258" t="s">
+        <v>596</v>
+      </c>
+      <c r="C117" s="258" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="259" t="s">
+        <v>598</v>
+      </c>
+      <c r="B118" s="260" t="s">
+        <v>599</v>
+      </c>
+      <c r="C118" s="260" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="261" t="s">
+        <v>601</v>
+      </c>
+      <c r="B119" s="262" t="s">
+        <v>602</v>
+      </c>
+      <c r="C119" s="262" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="263" t="s">
+        <v>604</v>
+      </c>
+      <c r="B120" s="264" t="s">
+        <v>605</v>
+      </c>
+      <c r="C120" s="264" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="265" t="s">
+        <v>607</v>
+      </c>
+      <c r="B121" s="266" t="s">
+        <v>608</v>
+      </c>
+      <c r="C121" s="266" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="267" t="s">
+        <v>610</v>
+      </c>
+      <c r="B122" s="268" t="s">
+        <v>611</v>
+      </c>
+      <c r="C122" s="268" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="269" t="s">
+        <v>613</v>
+      </c>
+      <c r="B123" s="270" t="s">
+        <v>614</v>
+      </c>
+      <c r="C123" s="270" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="271" t="s">
+        <v>616</v>
+      </c>
+      <c r="B124" s="272" t="s">
+        <v>617</v>
+      </c>
+      <c r="C124" s="272" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="273" t="s">
+        <v>619</v>
+      </c>
+      <c r="B125" s="274" t="s">
+        <v>620</v>
+      </c>
+      <c r="C125" s="274" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="275" t="s">
+        <v>622</v>
+      </c>
+      <c r="B126" s="276" t="s">
+        <v>623</v>
+      </c>
+      <c r="C126" s="276" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="277" t="s">
+        <v>625</v>
+      </c>
+      <c r="B127" s="278" t="s">
+        <v>626</v>
+      </c>
+      <c r="C127" s="278" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="279" t="s">
+        <v>628</v>
+      </c>
+      <c r="B128" s="280" t="s">
+        <v>629</v>
+      </c>
+      <c r="C128" s="280" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="281" t="s">
+        <v>631</v>
+      </c>
+      <c r="B129" s="282" t="s">
+        <v>632</v>
+      </c>
+      <c r="C129" s="282" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="283" t="s">
+        <v>634</v>
+      </c>
+      <c r="B130" s="284" t="s">
+        <v>635</v>
+      </c>
+      <c r="C130" s="284" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="285" t="s">
+        <v>637</v>
+      </c>
+      <c r="B131" s="286" t="s">
+        <v>638</v>
+      </c>
+      <c r="C131" s="286" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="287" t="s">
+        <v>640</v>
+      </c>
+      <c r="B132" s="288" t="s">
+        <v>641</v>
+      </c>
+      <c r="C132" s="288" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="289" t="s">
+        <v>643</v>
+      </c>
+      <c r="B133" s="290" t="s">
+        <v>644</v>
+      </c>
+      <c r="C133" s="290" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="291" t="s">
+        <v>646</v>
+      </c>
+      <c r="B134" s="292" t="s">
+        <v>647</v>
+      </c>
+      <c r="C134" s="292" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="293" t="s">
+        <v>649</v>
+      </c>
+      <c r="B135" s="294" t="s">
+        <v>650</v>
+      </c>
+      <c r="C135" s="294" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="295" t="s">
+        <v>652</v>
+      </c>
+      <c r="B136" s="296" t="s">
+        <v>653</v>
+      </c>
+      <c r="C136" s="296" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="297" t="s">
+        <v>655</v>
+      </c>
+      <c r="B137" s="298" t="s">
+        <v>656</v>
+      </c>
+      <c r="C137" s="298" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="299" t="s">
+        <v>658</v>
+      </c>
+      <c r="B138" s="300" t="s">
+        <v>659</v>
+      </c>
+      <c r="C138" s="300" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="301" t="s">
+        <v>661</v>
+      </c>
+      <c r="B139" s="302" t="s">
+        <v>662</v>
+      </c>
+      <c r="C139" s="302" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="303" t="s">
+        <v>664</v>
+      </c>
+      <c r="B140" s="304" t="s">
+        <v>665</v>
+      </c>
+      <c r="C140" s="304" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="305" t="s">
+        <v>667</v>
+      </c>
+      <c r="B141" s="306" t="s">
+        <v>668</v>
+      </c>
+      <c r="C141" s="306" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="307" t="s">
+        <v>670</v>
+      </c>
+      <c r="B142" s="308" t="s">
+        <v>671</v>
+      </c>
+      <c r="C142" s="308" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="309" t="s">
+        <v>673</v>
+      </c>
+      <c r="B143" s="310" t="s">
+        <v>674</v>
+      </c>
+      <c r="C143" s="310" t="s">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/테이블명세서.xlsx
+++ b/테이블명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\why_n\Desktop\Beauty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9174818-230E-44C8-B3C1-08FED2FCD4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9E6DEA-9DB0-443E-80A4-4D360C2531B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="677">
   <si>
     <t>테이블 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4396,62 +4396,62 @@
     <xf numFmtId="0" fontId="13" fillId="141" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4739,7 +4739,7 @@
   <dimension ref="A1:AK59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4752,18 +4752,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="313" t="s">
+      <c r="E1" s="327" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="313"/>
+      <c r="F1" s="327"/>
       <c r="H1" s="15" t="s">
         <v>12</v>
       </c>
@@ -4805,30 +4805,30 @@
       <c r="AJ1" s="321"/>
     </row>
     <row r="2" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="312"/>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
+      <c r="A2" s="324"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="313" t="s">
+      <c r="E2" s="327" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="313"/>
+      <c r="F2" s="327"/>
       <c r="H2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="315" t="s">
+      <c r="J2" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="316"/>
-      <c r="L2" s="315" t="s">
+      <c r="K2" s="314"/>
+      <c r="L2" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="316"/>
+      <c r="M2" s="314"/>
       <c r="N2" s="5" t="s">
         <v>36</v>
       </c>
@@ -4844,14 +4844,14 @@
       <c r="S2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="315" t="s">
+      <c r="T2" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="316"/>
-      <c r="V2" s="315" t="s">
+      <c r="U2" s="314"/>
+      <c r="V2" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="316"/>
+      <c r="W2" s="314"/>
       <c r="X2" s="5" t="s">
         <v>36</v>
       </c>
@@ -4867,14 +4867,14 @@
       <c r="AC2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="315" t="s">
+      <c r="AD2" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="316"/>
-      <c r="AF2" s="315" t="s">
+      <c r="AE2" s="314"/>
+      <c r="AF2" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="316"/>
+      <c r="AG2" s="314"/>
       <c r="AH2" s="5" t="s">
         <v>36</v>
       </c>
@@ -4889,17 +4889,17 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="313" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="313"/>
+      <c r="C3" s="327"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="314">
+      <c r="E3" s="328">
         <v>44987</v>
       </c>
-      <c r="F3" s="313"/>
+      <c r="F3" s="327"/>
       <c r="H3" s="18" t="s">
         <v>212</v>
       </c>
@@ -4910,8 +4910,8 @@
         <v>62</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="316"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="314"/>
       <c r="N3" s="7" t="s">
         <v>71</v>
       </c>
@@ -4925,12 +4925,12 @@
       <c r="S3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="322" t="s">
+      <c r="T3" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="323"/>
-      <c r="V3" s="315"/>
-      <c r="W3" s="316"/>
+      <c r="U3" s="312"/>
+      <c r="V3" s="313"/>
+      <c r="W3" s="314"/>
       <c r="X3" s="7" t="s">
         <v>71</v>
       </c>
@@ -4944,12 +4944,12 @@
       <c r="AC3" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AD3" s="322" t="s">
+      <c r="AD3" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE3" s="323"/>
-      <c r="AF3" s="315"/>
-      <c r="AG3" s="316"/>
+      <c r="AE3" s="312"/>
+      <c r="AF3" s="313"/>
+      <c r="AG3" s="314"/>
       <c r="AH3" s="7" t="s">
         <v>71</v>
       </c>
@@ -4962,17 +4962,17 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="313" t="s">
+      <c r="B4" s="327" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="313"/>
+      <c r="C4" s="327"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="313" t="s">
+      <c r="E4" s="327" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="313"/>
+      <c r="F4" s="327"/>
       <c r="H4" s="18" t="s">
         <v>40</v>
       </c>
@@ -4983,8 +4983,8 @@
         <v>62</v>
       </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="315"/>
-      <c r="M4" s="316"/>
+      <c r="L4" s="313"/>
+      <c r="M4" s="314"/>
       <c r="N4" s="8" t="s">
         <v>71</v>
       </c>
@@ -4996,12 +4996,12 @@
       <c r="S4" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="326" t="s">
+      <c r="T4" s="317" t="s">
         <v>183</v>
       </c>
-      <c r="U4" s="327"/>
-      <c r="V4" s="317"/>
-      <c r="W4" s="318"/>
+      <c r="U4" s="318"/>
+      <c r="V4" s="315"/>
+      <c r="W4" s="316"/>
       <c r="X4" s="21" t="s">
         <v>71</v>
       </c>
@@ -5019,10 +5019,10 @@
         <v>62</v>
       </c>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="322" t="s">
+      <c r="AF4" s="311" t="s">
         <v>181</v>
       </c>
-      <c r="AG4" s="323"/>
+      <c r="AG4" s="312"/>
       <c r="AH4" s="8" t="s">
         <v>72</v>
       </c>
@@ -5040,8 +5040,8 @@
         <v>63</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="315"/>
-      <c r="M5" s="316"/>
+      <c r="L5" s="313"/>
+      <c r="M5" s="314"/>
       <c r="N5" s="8" t="s">
         <v>71</v>
       </c>
@@ -5055,14 +5055,14 @@
       <c r="AC5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AD5" s="322" t="s">
+      <c r="AD5" s="311" t="s">
         <v>214</v>
       </c>
-      <c r="AE5" s="323"/>
-      <c r="AF5" s="322" t="s">
+      <c r="AE5" s="312"/>
+      <c r="AF5" s="311" t="s">
         <v>182</v>
       </c>
-      <c r="AG5" s="323"/>
+      <c r="AG5" s="312"/>
       <c r="AH5" s="8" t="s">
         <v>72</v>
       </c>
@@ -5070,32 +5070,32 @@
       <c r="AJ5" s="17"/>
     </row>
     <row r="6" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="311" t="s">
+      <c r="A6" s="329" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311" t="s">
+      <c r="B6" s="329"/>
+      <c r="C6" s="329" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311" t="s">
+      <c r="D6" s="329"/>
+      <c r="E6" s="329" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="311"/>
+      <c r="F6" s="329"/>
       <c r="H6" s="18" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="322" t="s">
+      <c r="J6" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="323"/>
-      <c r="L6" s="322" t="s">
+      <c r="K6" s="312"/>
+      <c r="L6" s="311" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="323"/>
+      <c r="M6" s="312"/>
       <c r="N6" s="8">
         <v>1</v>
       </c>
@@ -5120,12 +5120,12 @@
       <c r="AC6" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AD6" s="322" t="s">
+      <c r="AD6" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE6" s="323"/>
-      <c r="AF6" s="315"/>
-      <c r="AG6" s="316"/>
+      <c r="AE6" s="312"/>
+      <c r="AF6" s="313"/>
+      <c r="AG6" s="314"/>
       <c r="AH6" s="8">
         <v>0</v>
       </c>
@@ -5133,30 +5133,30 @@
       <c r="AJ6" s="17"/>
     </row>
     <row r="7" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="311" t="s">
+      <c r="A7" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311" t="s">
+      <c r="B7" s="329"/>
+      <c r="C7" s="329" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="311"/>
+      <c r="D7" s="329"/>
+      <c r="E7" s="329"/>
+      <c r="F7" s="329"/>
       <c r="H7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="322" t="s">
+      <c r="J7" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="323"/>
-      <c r="L7" s="322" t="s">
+      <c r="K7" s="312"/>
+      <c r="L7" s="311" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="323"/>
+      <c r="M7" s="312"/>
       <c r="N7" s="8">
         <v>0</v>
       </c>
@@ -5168,14 +5168,14 @@
       <c r="S7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="315" t="s">
+      <c r="T7" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="316"/>
-      <c r="V7" s="315" t="s">
+      <c r="U7" s="314"/>
+      <c r="V7" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="316"/>
+      <c r="W7" s="314"/>
       <c r="X7" s="5" t="s">
         <v>36</v>
       </c>
@@ -5191,12 +5191,12 @@
       <c r="AC7" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="AD7" s="322" t="s">
+      <c r="AD7" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE7" s="323"/>
-      <c r="AF7" s="315"/>
-      <c r="AG7" s="316"/>
+      <c r="AE7" s="312"/>
+      <c r="AF7" s="313"/>
+      <c r="AG7" s="314"/>
       <c r="AH7" s="8">
         <v>0</v>
       </c>
@@ -5204,16 +5204,16 @@
       <c r="AJ7" s="17"/>
     </row>
     <row r="8" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="311" t="s">
+      <c r="A8" s="329" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311" t="s">
+      <c r="B8" s="329"/>
+      <c r="C8" s="329" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="311"/>
+      <c r="D8" s="329"/>
+      <c r="E8" s="329"/>
+      <c r="F8" s="329"/>
       <c r="H8" s="18" t="s">
         <v>44</v>
       </c>
@@ -5224,8 +5224,8 @@
         <v>66</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="315"/>
-      <c r="M8" s="316"/>
+      <c r="L8" s="313"/>
+      <c r="M8" s="314"/>
       <c r="N8" s="8" t="s">
         <v>72</v>
       </c>
@@ -5237,12 +5237,12 @@
       <c r="S8" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T8" s="322" t="s">
+      <c r="T8" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="323"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="316"/>
+      <c r="U8" s="312"/>
+      <c r="V8" s="313"/>
+      <c r="W8" s="314"/>
       <c r="X8" s="7" t="s">
         <v>71</v>
       </c>
@@ -5256,12 +5256,12 @@
       <c r="AC8" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AD8" s="322" t="s">
+      <c r="AD8" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE8" s="323"/>
-      <c r="AF8" s="315"/>
-      <c r="AG8" s="316"/>
+      <c r="AE8" s="312"/>
+      <c r="AF8" s="313"/>
+      <c r="AG8" s="314"/>
       <c r="AH8" s="8">
         <v>0</v>
       </c>
@@ -5269,16 +5269,16 @@
       <c r="AJ8" s="17"/>
     </row>
     <row r="9" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="311" t="s">
+      <c r="A9" s="329" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="311"/>
-      <c r="C9" s="311" t="s">
+      <c r="B9" s="329"/>
+      <c r="C9" s="329" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="311"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
+      <c r="D9" s="329"/>
+      <c r="E9" s="329"/>
+      <c r="F9" s="329"/>
       <c r="H9" s="18" t="s">
         <v>45</v>
       </c>
@@ -5289,8 +5289,8 @@
         <v>67</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="315"/>
-      <c r="M9" s="316"/>
+      <c r="L9" s="313"/>
+      <c r="M9" s="314"/>
       <c r="N9" s="8" t="s">
         <v>72</v>
       </c>
@@ -5302,12 +5302,12 @@
       <c r="S9" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="T9" s="322" t="s">
+      <c r="T9" s="311" t="s">
         <v>183</v>
       </c>
-      <c r="U9" s="323"/>
-      <c r="V9" s="315"/>
-      <c r="W9" s="316"/>
+      <c r="U9" s="312"/>
+      <c r="V9" s="313"/>
+      <c r="W9" s="314"/>
       <c r="X9" s="8" t="s">
         <v>71</v>
       </c>
@@ -5321,12 +5321,12 @@
       <c r="AC9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AD9" s="322" t="s">
+      <c r="AD9" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE9" s="323"/>
-      <c r="AF9" s="315"/>
-      <c r="AG9" s="316"/>
+      <c r="AE9" s="312"/>
+      <c r="AF9" s="313"/>
+      <c r="AG9" s="314"/>
       <c r="AH9" s="8">
         <v>0</v>
       </c>
@@ -5334,16 +5334,16 @@
       <c r="AJ9" s="17"/>
     </row>
     <row r="10" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="311" t="s">
+      <c r="A10" s="329" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="311"/>
-      <c r="C10" s="311" t="s">
+      <c r="B10" s="329"/>
+      <c r="C10" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="311"/>
-      <c r="E10" s="311"/>
-      <c r="F10" s="311"/>
+      <c r="D10" s="329"/>
+      <c r="E10" s="329"/>
+      <c r="F10" s="329"/>
       <c r="H10" s="18" t="s">
         <v>46</v>
       </c>
@@ -5354,8 +5354,8 @@
         <v>67</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="315"/>
-      <c r="M10" s="316"/>
+      <c r="L10" s="313"/>
+      <c r="M10" s="314"/>
       <c r="N10" s="8" t="s">
         <v>72</v>
       </c>
@@ -5367,12 +5367,12 @@
       <c r="S10" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="T10" s="326" t="s">
+      <c r="T10" s="317" t="s">
         <v>183</v>
       </c>
-      <c r="U10" s="327"/>
-      <c r="V10" s="317"/>
-      <c r="W10" s="318"/>
+      <c r="U10" s="318"/>
+      <c r="V10" s="315"/>
+      <c r="W10" s="316"/>
       <c r="X10" s="21" t="s">
         <v>71</v>
       </c>
@@ -5384,12 +5384,12 @@
       <c r="AC10" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AD10" s="322" t="s">
+      <c r="AD10" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE10" s="323"/>
-      <c r="AF10" s="315"/>
-      <c r="AG10" s="316"/>
+      <c r="AE10" s="312"/>
+      <c r="AF10" s="313"/>
+      <c r="AG10" s="314"/>
       <c r="AH10" s="8">
         <v>0</v>
       </c>
@@ -5397,16 +5397,16 @@
       <c r="AJ10" s="17"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="311" t="s">
+      <c r="A11" s="329" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="311"/>
-      <c r="C11" s="311" t="s">
+      <c r="B11" s="329"/>
+      <c r="C11" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="311"/>
-      <c r="E11" s="311"/>
-      <c r="F11" s="311"/>
+      <c r="D11" s="329"/>
+      <c r="E11" s="329"/>
+      <c r="F11" s="329"/>
       <c r="H11" s="18" t="s">
         <v>47</v>
       </c>
@@ -5417,8 +5417,8 @@
         <v>67</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="315"/>
-      <c r="M11" s="316"/>
+      <c r="L11" s="313"/>
+      <c r="M11" s="314"/>
       <c r="N11" s="8" t="s">
         <v>72</v>
       </c>
@@ -5430,12 +5430,12 @@
       <c r="AC11" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="AD11" s="322" t="s">
+      <c r="AD11" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE11" s="323"/>
-      <c r="AF11" s="315"/>
-      <c r="AG11" s="316"/>
+      <c r="AE11" s="312"/>
+      <c r="AF11" s="313"/>
+      <c r="AG11" s="314"/>
       <c r="AH11" s="8">
         <v>0</v>
       </c>
@@ -5443,16 +5443,16 @@
       <c r="AJ11" s="17"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="311" t="s">
+      <c r="A12" s="329" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="311"/>
-      <c r="C12" s="311" t="s">
+      <c r="B12" s="329"/>
+      <c r="C12" s="329" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="311"/>
-      <c r="E12" s="311"/>
-      <c r="F12" s="311"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="329"/>
+      <c r="F12" s="329"/>
       <c r="H12" s="18" t="s">
         <v>48</v>
       </c>
@@ -5463,8 +5463,8 @@
         <v>67</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="315"/>
-      <c r="M12" s="316"/>
+      <c r="L12" s="313"/>
+      <c r="M12" s="314"/>
       <c r="N12" s="8" t="s">
         <v>71</v>
       </c>
@@ -5489,12 +5489,12 @@
       <c r="AC12" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AD12" s="322" t="s">
+      <c r="AD12" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE12" s="323"/>
-      <c r="AF12" s="315"/>
-      <c r="AG12" s="316"/>
+      <c r="AE12" s="312"/>
+      <c r="AF12" s="313"/>
+      <c r="AG12" s="314"/>
       <c r="AH12" s="8">
         <v>0</v>
       </c>
@@ -5502,28 +5502,28 @@
       <c r="AJ12" s="17"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="311" t="s">
+      <c r="A13" s="329" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="311"/>
-      <c r="C13" s="311" t="s">
+      <c r="B13" s="329"/>
+      <c r="C13" s="329" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="311"/>
-      <c r="E13" s="311"/>
-      <c r="F13" s="311"/>
+      <c r="D13" s="329"/>
+      <c r="E13" s="329"/>
+      <c r="F13" s="329"/>
       <c r="H13" s="18" t="s">
         <v>49</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="322" t="s">
+      <c r="J13" s="311" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="323"/>
-      <c r="L13" s="315"/>
-      <c r="M13" s="316"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
+      <c r="M13" s="314"/>
       <c r="N13" s="8" t="s">
         <v>71</v>
       </c>
@@ -5535,14 +5535,14 @@
       <c r="S13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="315" t="s">
+      <c r="T13" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="316"/>
-      <c r="V13" s="315" t="s">
+      <c r="U13" s="314"/>
+      <c r="V13" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="316"/>
+      <c r="W13" s="314"/>
       <c r="X13" s="5" t="s">
         <v>36</v>
       </c>
@@ -5558,12 +5558,12 @@
       <c r="AC13" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AD13" s="322" t="s">
+      <c r="AD13" s="311" t="s">
         <v>241</v>
       </c>
-      <c r="AE13" s="323"/>
-      <c r="AF13" s="315"/>
-      <c r="AG13" s="316"/>
+      <c r="AE13" s="312"/>
+      <c r="AF13" s="313"/>
+      <c r="AG13" s="314"/>
       <c r="AH13" s="7" t="s">
         <v>71</v>
       </c>
@@ -5571,16 +5571,16 @@
       <c r="AJ13" s="17"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="311" t="s">
+      <c r="A14" s="329" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="311"/>
-      <c r="C14" s="311" t="s">
+      <c r="B14" s="329"/>
+      <c r="C14" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="311"/>
-      <c r="E14" s="311"/>
-      <c r="F14" s="311"/>
+      <c r="D14" s="329"/>
+      <c r="E14" s="329"/>
+      <c r="F14" s="329"/>
       <c r="H14" s="18" t="s">
         <v>50</v>
       </c>
@@ -5591,8 +5591,8 @@
         <v>67</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="315"/>
-      <c r="M14" s="316"/>
+      <c r="L14" s="313"/>
+      <c r="M14" s="314"/>
       <c r="N14" s="8" t="s">
         <v>72</v>
       </c>
@@ -5604,12 +5604,12 @@
       <c r="S14" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="T14" s="322" t="s">
+      <c r="T14" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U14" s="323"/>
-      <c r="V14" s="315"/>
-      <c r="W14" s="316"/>
+      <c r="U14" s="312"/>
+      <c r="V14" s="313"/>
+      <c r="W14" s="314"/>
       <c r="X14" s="7" t="s">
         <v>71</v>
       </c>
@@ -5623,12 +5623,12 @@
       <c r="AC14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD14" s="322" t="s">
+      <c r="AD14" s="311" t="s">
         <v>242</v>
       </c>
-      <c r="AE14" s="323"/>
-      <c r="AF14" s="315"/>
-      <c r="AG14" s="316"/>
+      <c r="AE14" s="312"/>
+      <c r="AF14" s="313"/>
+      <c r="AG14" s="314"/>
       <c r="AH14" s="7" t="s">
         <v>71</v>
       </c>
@@ -5636,16 +5636,16 @@
       <c r="AJ14" s="17"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="311" t="s">
+      <c r="A15" s="329" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="311"/>
-      <c r="C15" s="311" t="s">
+      <c r="B15" s="329"/>
+      <c r="C15" s="329" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="311"/>
-      <c r="E15" s="311"/>
-      <c r="F15" s="311"/>
+      <c r="D15" s="329"/>
+      <c r="E15" s="329"/>
+      <c r="F15" s="329"/>
       <c r="H15" s="19" t="s">
         <v>51</v>
       </c>
@@ -5656,8 +5656,8 @@
         <v>67</v>
       </c>
       <c r="K15" s="20"/>
-      <c r="L15" s="317"/>
-      <c r="M15" s="318"/>
+      <c r="L15" s="315"/>
+      <c r="M15" s="316"/>
       <c r="N15" s="21" t="s">
         <v>72</v>
       </c>
@@ -5673,8 +5673,8 @@
         <v>62</v>
       </c>
       <c r="U15" s="9"/>
-      <c r="V15" s="315"/>
-      <c r="W15" s="316"/>
+      <c r="V15" s="313"/>
+      <c r="W15" s="314"/>
       <c r="X15" s="7" t="s">
         <v>71</v>
       </c>
@@ -5690,8 +5690,8 @@
         <v>62</v>
       </c>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="315"/>
-      <c r="AG15" s="316"/>
+      <c r="AF15" s="313"/>
+      <c r="AG15" s="314"/>
       <c r="AH15" s="7" t="s">
         <v>71</v>
       </c>
@@ -5705,12 +5705,12 @@
       <c r="S16" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="T16" s="322" t="s">
+      <c r="T16" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U16" s="323"/>
-      <c r="V16" s="315"/>
-      <c r="W16" s="316"/>
+      <c r="U16" s="312"/>
+      <c r="V16" s="313"/>
+      <c r="W16" s="314"/>
       <c r="X16" s="8" t="s">
         <v>71</v>
       </c>
@@ -5728,8 +5728,8 @@
         <v>62</v>
       </c>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="315"/>
-      <c r="AG16" s="316"/>
+      <c r="AF16" s="313"/>
+      <c r="AG16" s="314"/>
       <c r="AH16" s="7" t="s">
         <v>71</v>
       </c>
@@ -5760,8 +5760,8 @@
         <v>62</v>
       </c>
       <c r="U17" s="9"/>
-      <c r="V17" s="315"/>
-      <c r="W17" s="316"/>
+      <c r="V17" s="313"/>
+      <c r="W17" s="314"/>
       <c r="X17" s="8" t="s">
         <v>71</v>
       </c>
@@ -5777,8 +5777,8 @@
         <v>62</v>
       </c>
       <c r="AE17" s="6"/>
-      <c r="AF17" s="315"/>
-      <c r="AG17" s="316"/>
+      <c r="AF17" s="313"/>
+      <c r="AG17" s="314"/>
       <c r="AH17" s="7" t="s">
         <v>71</v>
       </c>
@@ -5792,14 +5792,14 @@
       <c r="I18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="315" t="s">
+      <c r="J18" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="316"/>
-      <c r="L18" s="315" t="s">
+      <c r="K18" s="314"/>
+      <c r="L18" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="316"/>
+      <c r="M18" s="314"/>
       <c r="N18" s="5" t="s">
         <v>36</v>
       </c>
@@ -5815,12 +5815,12 @@
       <c r="S18" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="T18" s="322" t="s">
+      <c r="T18" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U18" s="323"/>
-      <c r="V18" s="315"/>
-      <c r="W18" s="316"/>
+      <c r="U18" s="312"/>
+      <c r="V18" s="313"/>
+      <c r="W18" s="314"/>
       <c r="X18" s="8">
         <v>0</v>
       </c>
@@ -5836,8 +5836,8 @@
         <v>62</v>
       </c>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="315"/>
-      <c r="AG18" s="316"/>
+      <c r="AF18" s="313"/>
+      <c r="AG18" s="314"/>
       <c r="AH18" s="7" t="s">
         <v>71</v>
       </c>
@@ -5851,12 +5851,12 @@
       <c r="I19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="322" t="s">
+      <c r="J19" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="323"/>
-      <c r="L19" s="315"/>
-      <c r="M19" s="316"/>
+      <c r="K19" s="312"/>
+      <c r="L19" s="313"/>
+      <c r="M19" s="314"/>
       <c r="N19" s="7" t="s">
         <v>71</v>
       </c>
@@ -5870,12 +5870,12 @@
       <c r="S19" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="T19" s="322" t="s">
+      <c r="T19" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U19" s="323"/>
-      <c r="V19" s="315"/>
-      <c r="W19" s="316"/>
+      <c r="U19" s="312"/>
+      <c r="V19" s="313"/>
+      <c r="W19" s="314"/>
       <c r="X19" s="8">
         <v>0</v>
       </c>
@@ -5887,12 +5887,12 @@
       <c r="AC19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AD19" s="322" t="s">
+      <c r="AD19" s="311" t="s">
         <v>241</v>
       </c>
-      <c r="AE19" s="323"/>
-      <c r="AF19" s="315"/>
-      <c r="AG19" s="316"/>
+      <c r="AE19" s="312"/>
+      <c r="AF19" s="313"/>
+      <c r="AG19" s="314"/>
       <c r="AH19" s="7" t="s">
         <v>71</v>
       </c>
@@ -5910,8 +5910,8 @@
         <v>62</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="315"/>
-      <c r="M20" s="316"/>
+      <c r="L20" s="313"/>
+      <c r="M20" s="314"/>
       <c r="N20" s="8" t="s">
         <v>71</v>
       </c>
@@ -5923,12 +5923,12 @@
       <c r="S20" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="T20" s="322" t="s">
+      <c r="T20" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U20" s="323"/>
-      <c r="V20" s="315"/>
-      <c r="W20" s="316"/>
+      <c r="U20" s="312"/>
+      <c r="V20" s="313"/>
+      <c r="W20" s="314"/>
       <c r="X20" s="8">
         <v>0</v>
       </c>
@@ -5940,12 +5940,12 @@
       <c r="AC20" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="AD20" s="322" t="s">
+      <c r="AD20" s="311" t="s">
         <v>242</v>
       </c>
-      <c r="AE20" s="323"/>
-      <c r="AF20" s="315"/>
-      <c r="AG20" s="316"/>
+      <c r="AE20" s="312"/>
+      <c r="AF20" s="313"/>
+      <c r="AG20" s="314"/>
       <c r="AH20" s="7" t="s">
         <v>71</v>
       </c>
@@ -5963,8 +5963,8 @@
         <v>62</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="315"/>
-      <c r="M21" s="316"/>
+      <c r="L21" s="313"/>
+      <c r="M21" s="314"/>
       <c r="N21" s="8" t="s">
         <v>71</v>
       </c>
@@ -5976,12 +5976,12 @@
       <c r="S21" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="T21" s="322" t="s">
+      <c r="T21" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U21" s="323"/>
-      <c r="V21" s="315"/>
-      <c r="W21" s="316"/>
+      <c r="U21" s="312"/>
+      <c r="V21" s="313"/>
+      <c r="W21" s="314"/>
       <c r="X21" s="8">
         <v>0</v>
       </c>
@@ -5997,8 +5997,8 @@
         <v>62</v>
       </c>
       <c r="AE21" s="6"/>
-      <c r="AF21" s="315"/>
-      <c r="AG21" s="316"/>
+      <c r="AF21" s="313"/>
+      <c r="AG21" s="314"/>
       <c r="AH21" s="7" t="s">
         <v>71</v>
       </c>
@@ -6012,12 +6012,12 @@
       <c r="I22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J22" s="322" t="s">
+      <c r="J22" s="311" t="s">
         <v>183</v>
       </c>
-      <c r="K22" s="323"/>
-      <c r="L22" s="315"/>
-      <c r="M22" s="316"/>
+      <c r="K22" s="312"/>
+      <c r="L22" s="313"/>
+      <c r="M22" s="314"/>
       <c r="N22" s="8" t="s">
         <v>71</v>
       </c>
@@ -6031,12 +6031,12 @@
       <c r="S22" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="T22" s="322" t="s">
+      <c r="T22" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U22" s="323"/>
-      <c r="V22" s="315"/>
-      <c r="W22" s="316"/>
+      <c r="U22" s="312"/>
+      <c r="V22" s="313"/>
+      <c r="W22" s="314"/>
       <c r="X22" s="8">
         <v>1</v>
       </c>
@@ -6052,8 +6052,8 @@
         <v>62</v>
       </c>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="315"/>
-      <c r="AG22" s="316"/>
+      <c r="AF22" s="313"/>
+      <c r="AG22" s="314"/>
       <c r="AH22" s="7" t="s">
         <v>71</v>
       </c>
@@ -6067,12 +6067,12 @@
       <c r="I23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="322" t="s">
+      <c r="J23" s="311" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="323"/>
-      <c r="L23" s="315"/>
-      <c r="M23" s="316"/>
+      <c r="K23" s="312"/>
+      <c r="L23" s="313"/>
+      <c r="M23" s="314"/>
       <c r="N23" s="8" t="s">
         <v>71</v>
       </c>
@@ -6090,8 +6090,8 @@
         <v>62</v>
       </c>
       <c r="U23" s="9"/>
-      <c r="V23" s="315"/>
-      <c r="W23" s="316"/>
+      <c r="V23" s="313"/>
+      <c r="W23" s="314"/>
       <c r="X23" s="8" t="s">
         <v>71</v>
       </c>
@@ -6107,8 +6107,8 @@
         <v>62</v>
       </c>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="315"/>
-      <c r="AG23" s="316"/>
+      <c r="AF23" s="313"/>
+      <c r="AG23" s="314"/>
       <c r="AH23" s="7" t="s">
         <v>71</v>
       </c>
@@ -6122,12 +6122,12 @@
       <c r="I24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="322" t="s">
+      <c r="J24" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="323"/>
-      <c r="L24" s="315"/>
-      <c r="M24" s="316"/>
+      <c r="K24" s="312"/>
+      <c r="L24" s="313"/>
+      <c r="M24" s="314"/>
       <c r="N24" s="8">
         <v>0</v>
       </c>
@@ -6143,8 +6143,8 @@
         <v>62</v>
       </c>
       <c r="U24" s="9"/>
-      <c r="V24" s="315"/>
-      <c r="W24" s="316"/>
+      <c r="V24" s="313"/>
+      <c r="W24" s="314"/>
       <c r="X24" s="8" t="s">
         <v>71</v>
       </c>
@@ -6156,12 +6156,12 @@
       <c r="AC24" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AD24" s="322" t="s">
+      <c r="AD24" s="311" t="s">
         <v>247</v>
       </c>
-      <c r="AE24" s="323"/>
-      <c r="AF24" s="315"/>
-      <c r="AG24" s="316"/>
+      <c r="AE24" s="312"/>
+      <c r="AF24" s="313"/>
+      <c r="AG24" s="314"/>
       <c r="AH24" s="7" t="s">
         <v>71</v>
       </c>
@@ -6175,12 +6175,12 @@
       <c r="I25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="322" t="s">
+      <c r="J25" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="323"/>
-      <c r="L25" s="315"/>
-      <c r="M25" s="316"/>
+      <c r="K25" s="312"/>
+      <c r="L25" s="313"/>
+      <c r="M25" s="314"/>
       <c r="N25" s="8">
         <v>0</v>
       </c>
@@ -6196,8 +6196,8 @@
         <v>62</v>
       </c>
       <c r="U25" s="9"/>
-      <c r="V25" s="315"/>
-      <c r="W25" s="316"/>
+      <c r="V25" s="313"/>
+      <c r="W25" s="314"/>
       <c r="X25" s="8" t="s">
         <v>71</v>
       </c>
@@ -6209,12 +6209,12 @@
       <c r="AC25" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="AD25" s="322" t="s">
+      <c r="AD25" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="AE25" s="323"/>
-      <c r="AF25" s="315"/>
-      <c r="AG25" s="316"/>
+      <c r="AE25" s="312"/>
+      <c r="AF25" s="313"/>
+      <c r="AG25" s="314"/>
       <c r="AH25" s="7" t="s">
         <v>71</v>
       </c>
@@ -6228,12 +6228,12 @@
       <c r="I26" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J26" s="322" t="s">
+      <c r="J26" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="323"/>
-      <c r="L26" s="315"/>
-      <c r="M26" s="316"/>
+      <c r="K26" s="312"/>
+      <c r="L26" s="313"/>
+      <c r="M26" s="314"/>
       <c r="N26" s="8">
         <v>0</v>
       </c>
@@ -6245,12 +6245,12 @@
       <c r="S26" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="T26" s="326" t="s">
+      <c r="T26" s="317" t="s">
         <v>126</v>
       </c>
-      <c r="U26" s="327"/>
-      <c r="V26" s="317"/>
-      <c r="W26" s="318"/>
+      <c r="U26" s="318"/>
+      <c r="V26" s="315"/>
+      <c r="W26" s="316"/>
       <c r="X26" s="21" t="s">
         <v>71</v>
       </c>
@@ -6262,12 +6262,12 @@
       <c r="AC26" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="AD26" s="324" t="s">
+      <c r="AD26" s="325" t="s">
         <v>248</v>
       </c>
-      <c r="AE26" s="325"/>
-      <c r="AF26" s="315"/>
-      <c r="AG26" s="316"/>
+      <c r="AE26" s="326"/>
+      <c r="AF26" s="313"/>
+      <c r="AG26" s="314"/>
       <c r="AH26" s="8">
         <v>1</v>
       </c>
@@ -6281,12 +6281,12 @@
       <c r="I27" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J27" s="322" t="s">
+      <c r="J27" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="323"/>
-      <c r="L27" s="315"/>
-      <c r="M27" s="316"/>
+      <c r="K27" s="312"/>
+      <c r="L27" s="313"/>
+      <c r="M27" s="314"/>
       <c r="N27" s="8">
         <v>0</v>
       </c>
@@ -6298,12 +6298,12 @@
       <c r="AC27" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="AD27" s="326" t="s">
+      <c r="AD27" s="317" t="s">
         <v>126</v>
       </c>
-      <c r="AE27" s="327"/>
-      <c r="AF27" s="317"/>
-      <c r="AG27" s="318"/>
+      <c r="AE27" s="318"/>
+      <c r="AF27" s="315"/>
+      <c r="AG27" s="316"/>
       <c r="AH27" s="31" t="s">
         <v>71</v>
       </c>
@@ -6317,12 +6317,12 @@
       <c r="I28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="322" t="s">
+      <c r="J28" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K28" s="323"/>
-      <c r="L28" s="315"/>
-      <c r="M28" s="316"/>
+      <c r="K28" s="312"/>
+      <c r="L28" s="313"/>
+      <c r="M28" s="314"/>
       <c r="N28" s="8">
         <v>0</v>
       </c>
@@ -6361,12 +6361,12 @@
       <c r="I29" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J29" s="322" t="s">
+      <c r="J29" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="323"/>
-      <c r="L29" s="315"/>
-      <c r="M29" s="316"/>
+      <c r="K29" s="312"/>
+      <c r="L29" s="313"/>
+      <c r="M29" s="314"/>
       <c r="N29" s="8">
         <v>0</v>
       </c>
@@ -6378,14 +6378,14 @@
       <c r="S29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T29" s="315" t="s">
+      <c r="T29" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="U29" s="316"/>
-      <c r="V29" s="315" t="s">
+      <c r="U29" s="314"/>
+      <c r="V29" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="W29" s="316"/>
+      <c r="W29" s="314"/>
       <c r="X29" s="5" t="s">
         <v>36</v>
       </c>
@@ -6415,12 +6415,12 @@
       <c r="I30" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J30" s="322" t="s">
+      <c r="J30" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="323"/>
-      <c r="L30" s="315"/>
-      <c r="M30" s="316"/>
+      <c r="K30" s="312"/>
+      <c r="L30" s="313"/>
+      <c r="M30" s="314"/>
       <c r="N30" s="8">
         <v>0</v>
       </c>
@@ -6432,12 +6432,12 @@
       <c r="S30" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T30" s="322" t="s">
+      <c r="T30" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U30" s="323"/>
-      <c r="V30" s="315"/>
-      <c r="W30" s="316"/>
+      <c r="U30" s="312"/>
+      <c r="V30" s="313"/>
+      <c r="W30" s="314"/>
       <c r="X30" s="7" t="s">
         <v>71</v>
       </c>
@@ -6465,12 +6465,12 @@
       <c r="I31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="322" t="s">
+      <c r="J31" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K31" s="323"/>
-      <c r="L31" s="315"/>
-      <c r="M31" s="316"/>
+      <c r="K31" s="312"/>
+      <c r="L31" s="313"/>
+      <c r="M31" s="314"/>
       <c r="N31" s="8">
         <v>0</v>
       </c>
@@ -6482,12 +6482,12 @@
       <c r="S31" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="T31" s="322" t="s">
+      <c r="T31" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U31" s="323"/>
-      <c r="V31" s="315"/>
-      <c r="W31" s="316"/>
+      <c r="U31" s="312"/>
+      <c r="V31" s="313"/>
+      <c r="W31" s="314"/>
       <c r="X31" s="8" t="s">
         <v>71</v>
       </c>
@@ -6509,12 +6509,12 @@
       <c r="I32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="322" t="s">
+      <c r="J32" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="323"/>
-      <c r="L32" s="315"/>
-      <c r="M32" s="316"/>
+      <c r="K32" s="312"/>
+      <c r="L32" s="313"/>
+      <c r="M32" s="314"/>
       <c r="N32" s="8">
         <v>0</v>
       </c>
@@ -6530,8 +6530,8 @@
         <v>62</v>
       </c>
       <c r="U32" s="6"/>
-      <c r="V32" s="315"/>
-      <c r="W32" s="316"/>
+      <c r="V32" s="313"/>
+      <c r="W32" s="314"/>
       <c r="X32" s="8" t="s">
         <v>71</v>
       </c>
@@ -6552,8 +6552,8 @@
         <v>62</v>
       </c>
       <c r="K33" s="6"/>
-      <c r="L33" s="315"/>
-      <c r="M33" s="316"/>
+      <c r="L33" s="313"/>
+      <c r="M33" s="314"/>
       <c r="N33" s="8" t="s">
         <v>72</v>
       </c>
@@ -6565,12 +6565,12 @@
       <c r="S33" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="T33" s="326" t="s">
+      <c r="T33" s="317" t="s">
         <v>126</v>
       </c>
-      <c r="U33" s="327"/>
-      <c r="V33" s="317"/>
-      <c r="W33" s="318"/>
+      <c r="U33" s="318"/>
+      <c r="V33" s="315"/>
+      <c r="W33" s="316"/>
       <c r="X33" s="21" t="s">
         <v>71</v>
       </c>
@@ -6594,8 +6594,8 @@
         <v>62</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="315"/>
-      <c r="M34" s="316"/>
+      <c r="L34" s="313"/>
+      <c r="M34" s="314"/>
       <c r="N34" s="8" t="s">
         <v>72</v>
       </c>
@@ -6621,8 +6621,8 @@
         <v>62</v>
       </c>
       <c r="K35" s="6"/>
-      <c r="L35" s="315"/>
-      <c r="M35" s="316"/>
+      <c r="L35" s="313"/>
+      <c r="M35" s="314"/>
       <c r="N35" s="8" t="s">
         <v>72</v>
       </c>
@@ -6666,8 +6666,8 @@
         <v>62</v>
       </c>
       <c r="K36" s="6"/>
-      <c r="L36" s="315"/>
-      <c r="M36" s="316"/>
+      <c r="L36" s="313"/>
+      <c r="M36" s="314"/>
       <c r="N36" s="8" t="s">
         <v>72</v>
       </c>
@@ -6679,14 +6679,14 @@
       <c r="S36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T36" s="315" t="s">
+      <c r="T36" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="U36" s="316"/>
-      <c r="V36" s="315" t="s">
+      <c r="U36" s="314"/>
+      <c r="V36" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="W36" s="316"/>
+      <c r="W36" s="314"/>
       <c r="X36" s="5" t="s">
         <v>36</v>
       </c>
@@ -6702,14 +6702,14 @@
       <c r="AC36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD36" s="315" t="s">
+      <c r="AD36" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="AE36" s="316"/>
-      <c r="AF36" s="315" t="s">
+      <c r="AE36" s="314"/>
+      <c r="AF36" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="AG36" s="316"/>
+      <c r="AG36" s="314"/>
       <c r="AH36" s="5" t="s">
         <v>36</v>
       </c>
@@ -6731,8 +6731,8 @@
         <v>62</v>
       </c>
       <c r="K37" s="6"/>
-      <c r="L37" s="315"/>
-      <c r="M37" s="316"/>
+      <c r="L37" s="313"/>
+      <c r="M37" s="314"/>
       <c r="N37" s="8" t="s">
         <v>72</v>
       </c>
@@ -6744,12 +6744,12 @@
       <c r="S37" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="T37" s="322" t="s">
+      <c r="T37" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U37" s="323"/>
-      <c r="V37" s="315"/>
-      <c r="W37" s="316"/>
+      <c r="U37" s="312"/>
+      <c r="V37" s="313"/>
+      <c r="W37" s="314"/>
       <c r="X37" s="7" t="s">
         <v>71</v>
       </c>
@@ -6763,12 +6763,12 @@
       <c r="AC37" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AD37" s="322" t="s">
+      <c r="AD37" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE37" s="323"/>
-      <c r="AF37" s="315"/>
-      <c r="AG37" s="316"/>
+      <c r="AE37" s="312"/>
+      <c r="AF37" s="313"/>
+      <c r="AG37" s="314"/>
       <c r="AH37" s="7" t="s">
         <v>71</v>
       </c>
@@ -6788,8 +6788,8 @@
         <v>62</v>
       </c>
       <c r="K38" s="6"/>
-      <c r="L38" s="315"/>
-      <c r="M38" s="316"/>
+      <c r="L38" s="313"/>
+      <c r="M38" s="314"/>
       <c r="N38" s="8" t="s">
         <v>72</v>
       </c>
@@ -6801,12 +6801,12 @@
       <c r="S38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="T38" s="322" t="s">
+      <c r="T38" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U38" s="323"/>
-      <c r="V38" s="315"/>
-      <c r="W38" s="316"/>
+      <c r="U38" s="312"/>
+      <c r="V38" s="313"/>
+      <c r="W38" s="314"/>
       <c r="X38" s="8" t="s">
         <v>71</v>
       </c>
@@ -6820,12 +6820,12 @@
       <c r="AC38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AD38" s="322" t="s">
+      <c r="AD38" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE38" s="323"/>
-      <c r="AF38" s="315"/>
-      <c r="AG38" s="316"/>
+      <c r="AE38" s="312"/>
+      <c r="AF38" s="313"/>
+      <c r="AG38" s="314"/>
       <c r="AH38" s="8" t="s">
         <v>71</v>
       </c>
@@ -6845,8 +6845,8 @@
         <v>62</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="315"/>
-      <c r="M39" s="316"/>
+      <c r="L39" s="313"/>
+      <c r="M39" s="314"/>
       <c r="N39" s="8" t="s">
         <v>72</v>
       </c>
@@ -6858,12 +6858,12 @@
       <c r="S39" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="T39" s="322" t="s">
+      <c r="T39" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U39" s="323"/>
-      <c r="V39" s="315"/>
-      <c r="W39" s="316"/>
+      <c r="U39" s="312"/>
+      <c r="V39" s="313"/>
+      <c r="W39" s="314"/>
       <c r="X39" s="8" t="s">
         <v>71</v>
       </c>
@@ -6900,8 +6900,8 @@
         <v>62</v>
       </c>
       <c r="K40" s="6"/>
-      <c r="L40" s="315"/>
-      <c r="M40" s="316"/>
+      <c r="L40" s="313"/>
+      <c r="M40" s="314"/>
       <c r="N40" s="8" t="s">
         <v>72</v>
       </c>
@@ -6913,12 +6913,12 @@
       <c r="S40" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T40" s="322" t="s">
+      <c r="T40" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U40" s="323"/>
-      <c r="V40" s="315"/>
-      <c r="W40" s="316"/>
+      <c r="U40" s="312"/>
+      <c r="V40" s="313"/>
+      <c r="W40" s="314"/>
       <c r="X40" s="8" t="s">
         <v>71</v>
       </c>
@@ -6934,8 +6934,8 @@
         <v>62</v>
       </c>
       <c r="AE40" s="10"/>
-      <c r="AF40" s="315"/>
-      <c r="AG40" s="316"/>
+      <c r="AF40" s="313"/>
+      <c r="AG40" s="314"/>
       <c r="AH40" s="8" t="s">
         <v>71</v>
       </c>
@@ -6953,8 +6953,8 @@
         <v>62</v>
       </c>
       <c r="K41" s="6"/>
-      <c r="L41" s="315"/>
-      <c r="M41" s="316"/>
+      <c r="L41" s="313"/>
+      <c r="M41" s="314"/>
       <c r="N41" s="8" t="s">
         <v>72</v>
       </c>
@@ -6966,12 +6966,12 @@
       <c r="S41" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="T41" s="322" t="s">
+      <c r="T41" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U41" s="323"/>
-      <c r="V41" s="315"/>
-      <c r="W41" s="316"/>
+      <c r="U41" s="312"/>
+      <c r="V41" s="313"/>
+      <c r="W41" s="314"/>
       <c r="X41" s="8">
         <v>0</v>
       </c>
@@ -6983,14 +6983,14 @@
       <c r="AC41" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AD41" s="322" t="s">
+      <c r="AD41" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE41" s="323"/>
-      <c r="AF41" s="322" t="s">
+      <c r="AE41" s="312"/>
+      <c r="AF41" s="311" t="s">
         <v>195</v>
       </c>
-      <c r="AG41" s="323"/>
+      <c r="AG41" s="312"/>
       <c r="AH41" s="8">
         <v>0</v>
       </c>
@@ -7008,8 +7008,8 @@
         <v>62</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="L42" s="315"/>
-      <c r="M42" s="316"/>
+      <c r="L42" s="313"/>
+      <c r="M42" s="314"/>
       <c r="N42" s="8" t="s">
         <v>72</v>
       </c>
@@ -7021,12 +7021,12 @@
       <c r="S42" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="T42" s="322" t="s">
+      <c r="T42" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U42" s="323"/>
-      <c r="V42" s="315"/>
-      <c r="W42" s="316"/>
+      <c r="U42" s="312"/>
+      <c r="V42" s="313"/>
+      <c r="W42" s="314"/>
       <c r="X42" s="8">
         <v>0</v>
       </c>
@@ -7038,14 +7038,14 @@
       <c r="AC42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AD42" s="322" t="s">
+      <c r="AD42" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE42" s="323"/>
-      <c r="AF42" s="322" t="s">
+      <c r="AE42" s="312"/>
+      <c r="AF42" s="311" t="s">
         <v>252</v>
       </c>
-      <c r="AG42" s="323"/>
+      <c r="AG42" s="312"/>
       <c r="AH42" s="8" t="s">
         <v>72</v>
       </c>
@@ -7063,8 +7063,8 @@
         <v>67</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="315"/>
-      <c r="M43" s="316"/>
+      <c r="L43" s="313"/>
+      <c r="M43" s="314"/>
       <c r="N43" s="8" t="s">
         <v>72</v>
       </c>
@@ -7076,12 +7076,12 @@
       <c r="S43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="322" t="s">
+      <c r="T43" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U43" s="323"/>
-      <c r="V43" s="315"/>
-      <c r="W43" s="316"/>
+      <c r="U43" s="312"/>
+      <c r="V43" s="313"/>
+      <c r="W43" s="314"/>
       <c r="X43" s="8">
         <v>0</v>
       </c>
@@ -7093,10 +7093,10 @@
       <c r="AC43" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AD43" s="322" t="s">
+      <c r="AD43" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="AE43" s="323"/>
+      <c r="AE43" s="312"/>
       <c r="AF43" s="6" t="s">
         <v>251</v>
       </c>
@@ -7118,8 +7118,8 @@
         <v>67</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="315"/>
-      <c r="M44" s="316"/>
+      <c r="L44" s="313"/>
+      <c r="M44" s="314"/>
       <c r="N44" s="8" t="s">
         <v>72</v>
       </c>
@@ -7131,12 +7131,12 @@
       <c r="S44" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="T44" s="322" t="s">
+      <c r="T44" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="U44" s="323"/>
-      <c r="V44" s="315"/>
-      <c r="W44" s="316"/>
+      <c r="U44" s="312"/>
+      <c r="V44" s="313"/>
+      <c r="W44" s="314"/>
       <c r="X44" s="8" t="s">
         <v>71</v>
       </c>
@@ -7173,8 +7173,8 @@
         <v>67</v>
       </c>
       <c r="K45" s="6"/>
-      <c r="L45" s="315"/>
-      <c r="M45" s="316"/>
+      <c r="L45" s="313"/>
+      <c r="M45" s="314"/>
       <c r="N45" s="8" t="s">
         <v>72</v>
       </c>
@@ -7186,12 +7186,12 @@
       <c r="S45" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="T45" s="326" t="s">
+      <c r="T45" s="317" t="s">
         <v>215</v>
       </c>
-      <c r="U45" s="327"/>
-      <c r="V45" s="317"/>
-      <c r="W45" s="318"/>
+      <c r="U45" s="318"/>
+      <c r="V45" s="315"/>
+      <c r="W45" s="316"/>
       <c r="X45" s="21" t="s">
         <v>71</v>
       </c>
@@ -7228,8 +7228,8 @@
         <v>67</v>
       </c>
       <c r="K46" s="6"/>
-      <c r="L46" s="315"/>
-      <c r="M46" s="316"/>
+      <c r="L46" s="313"/>
+      <c r="M46" s="314"/>
       <c r="N46" s="8" t="s">
         <v>72</v>
       </c>
@@ -7245,8 +7245,8 @@
         <v>62</v>
       </c>
       <c r="AE46" s="10"/>
-      <c r="AF46" s="315"/>
-      <c r="AG46" s="316"/>
+      <c r="AF46" s="313"/>
+      <c r="AG46" s="314"/>
       <c r="AH46" s="8" t="s">
         <v>71</v>
       </c>
@@ -7264,8 +7264,8 @@
         <v>67</v>
       </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="315"/>
-      <c r="M47" s="316"/>
+      <c r="L47" s="313"/>
+      <c r="M47" s="314"/>
       <c r="N47" s="8" t="s">
         <v>72</v>
       </c>
@@ -7277,12 +7277,12 @@
       <c r="AC47" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="AD47" s="326" t="s">
+      <c r="AD47" s="317" t="s">
         <v>126</v>
       </c>
-      <c r="AE47" s="327"/>
-      <c r="AF47" s="317"/>
-      <c r="AG47" s="318"/>
+      <c r="AE47" s="318"/>
+      <c r="AF47" s="315"/>
+      <c r="AG47" s="316"/>
       <c r="AH47" s="21" t="s">
         <v>71</v>
       </c>
@@ -7300,23 +7300,23 @@
         <v>67</v>
       </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="315"/>
-      <c r="M48" s="316"/>
+      <c r="L48" s="313"/>
+      <c r="M48" s="314"/>
       <c r="N48" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="23"/>
     </row>
-    <row r="49" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H49" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="315"/>
@@ -7340,38 +7340,38 @@
       <c r="AI49" s="320"/>
       <c r="AJ49" s="321"/>
     </row>
-    <row r="50" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H50" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K50" s="6"/>
+    <row r="50" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H50" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="J50" s="317" t="s">
+        <v>126</v>
+      </c>
+      <c r="K50" s="318"/>
       <c r="L50" s="315"/>
       <c r="M50" s="316"/>
-      <c r="N50" s="8" t="s">
+      <c r="N50" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O50" s="9"/>
-      <c r="P50" s="23"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="27"/>
       <c r="AB50" s="16" t="s">
         <v>33</v>
       </c>
       <c r="AC50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD50" s="312" t="s">
+      <c r="AD50" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="AE50" s="312"/>
-      <c r="AF50" s="312" t="s">
+      <c r="AE50" s="324"/>
+      <c r="AF50" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="AG50" s="312"/>
+      <c r="AG50" s="324"/>
       <c r="AH50" s="5" t="s">
         <v>36</v>
       </c>
@@ -7382,36 +7382,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H51" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I51" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="J51" s="326" t="s">
-        <v>126</v>
-      </c>
-      <c r="K51" s="327"/>
-      <c r="L51" s="317"/>
-      <c r="M51" s="318"/>
-      <c r="N51" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
+    <row r="51" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB51" s="18" t="s">
         <v>199</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AD51" s="328" t="s">
+      <c r="AD51" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="AE51" s="328"/>
-      <c r="AF51" s="312"/>
-      <c r="AG51" s="312"/>
+      <c r="AE51" s="322"/>
+      <c r="AF51" s="324"/>
+      <c r="AG51" s="324"/>
       <c r="AH51" s="7" t="s">
         <v>71</v>
       </c>
@@ -7465,8 +7448,8 @@
         <v>62</v>
       </c>
       <c r="AE53" s="10"/>
-      <c r="AF53" s="312"/>
-      <c r="AG53" s="312"/>
+      <c r="AF53" s="324"/>
+      <c r="AG53" s="324"/>
       <c r="AH53" s="8" t="s">
         <v>71</v>
       </c>
@@ -7480,14 +7463,14 @@
       <c r="I54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J54" s="315" t="s">
+      <c r="J54" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="K54" s="316"/>
-      <c r="L54" s="315" t="s">
+      <c r="K54" s="314"/>
+      <c r="L54" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="M54" s="316"/>
+      <c r="M54" s="314"/>
       <c r="N54" s="5" t="s">
         <v>36</v>
       </c>
@@ -7507,8 +7490,8 @@
         <v>62</v>
       </c>
       <c r="AE54" s="10"/>
-      <c r="AF54" s="312"/>
-      <c r="AG54" s="312"/>
+      <c r="AF54" s="324"/>
+      <c r="AG54" s="324"/>
       <c r="AH54" s="8" t="s">
         <v>71</v>
       </c>
@@ -7522,12 +7505,12 @@
       <c r="I55" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J55" s="322" t="s">
+      <c r="J55" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="K55" s="323"/>
-      <c r="L55" s="315"/>
-      <c r="M55" s="316"/>
+      <c r="K55" s="312"/>
+      <c r="L55" s="313"/>
+      <c r="M55" s="314"/>
       <c r="N55" s="7" t="s">
         <v>71</v>
       </c>
@@ -7541,12 +7524,12 @@
       <c r="AC55" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AD55" s="322" t="s">
+      <c r="AD55" s="311" t="s">
         <v>126</v>
       </c>
-      <c r="AE55" s="323"/>
-      <c r="AF55" s="312"/>
-      <c r="AG55" s="312"/>
+      <c r="AE55" s="312"/>
+      <c r="AF55" s="324"/>
+      <c r="AG55" s="324"/>
       <c r="AH55" s="8" t="s">
         <v>71</v>
       </c>
@@ -7560,12 +7543,12 @@
       <c r="I56" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="J56" s="326" t="s">
+      <c r="J56" s="317" t="s">
         <v>183</v>
       </c>
-      <c r="K56" s="327"/>
-      <c r="L56" s="317"/>
-      <c r="M56" s="318"/>
+      <c r="K56" s="318"/>
+      <c r="L56" s="315"/>
+      <c r="M56" s="316"/>
       <c r="N56" s="21" t="s">
         <v>71</v>
       </c>
@@ -7577,12 +7560,12 @@
       <c r="AC56" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AD56" s="328" t="s">
+      <c r="AD56" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="AE56" s="328"/>
-      <c r="AF56" s="312"/>
-      <c r="AG56" s="312"/>
+      <c r="AE56" s="322"/>
+      <c r="AF56" s="324"/>
+      <c r="AG56" s="324"/>
       <c r="AH56" s="8">
         <v>0</v>
       </c>
@@ -7596,14 +7579,14 @@
       <c r="AC57" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AD57" s="328" t="s">
+      <c r="AD57" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="AE57" s="328"/>
-      <c r="AF57" s="322" t="s">
+      <c r="AE57" s="322"/>
+      <c r="AF57" s="311" t="s">
         <v>209</v>
       </c>
-      <c r="AG57" s="323"/>
+      <c r="AG57" s="312"/>
       <c r="AH57" s="8" t="s">
         <v>72</v>
       </c>
@@ -7621,10 +7604,10 @@
         <v>62</v>
       </c>
       <c r="AE58" s="10"/>
-      <c r="AF58" s="322" t="s">
+      <c r="AF58" s="311" t="s">
         <v>209</v>
       </c>
-      <c r="AG58" s="323"/>
+      <c r="AG58" s="312"/>
       <c r="AH58" s="8" t="s">
         <v>72</v>
       </c>
@@ -7638,14 +7621,14 @@
       <c r="AC59" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="AD59" s="329" t="s">
+      <c r="AD59" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE59" s="329"/>
-      <c r="AF59" s="326" t="s">
+      <c r="AE59" s="323"/>
+      <c r="AF59" s="317" t="s">
         <v>209</v>
       </c>
-      <c r="AG59" s="327"/>
+      <c r="AG59" s="318"/>
       <c r="AH59" s="21" t="s">
         <v>72</v>
       </c>
@@ -7653,87 +7636,154 @@
       <c r="AJ59" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="260">
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="I53:P53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AD59:AE59"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="AF53:AG53"/>
-    <mergeCell ref="AF54:AG54"/>
-    <mergeCell ref="AF55:AG55"/>
-    <mergeCell ref="AF56:AG56"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AC35:AJ35"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="AC49:AJ49"/>
-    <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="AF58:AG58"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="AD55:AE55"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AD50:AE50"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="T29:U29"/>
+  <mergeCells count="259">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="S35:Z35"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="S28:Z28"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AF5:AG5"/>
     <mergeCell ref="J19:K19"/>
@@ -7758,162 +7808,94 @@
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="V19:W19"/>
     <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="AC35:AJ35"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="AC49:AJ49"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
     <mergeCell ref="V43:W43"/>
     <mergeCell ref="V44:W44"/>
     <mergeCell ref="V45:W45"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AF27:AG27"/>
     <mergeCell ref="V42:W42"/>
     <mergeCell ref="T42:U42"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="S28:Z28"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="S35:Z35"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="I53:P53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AD59:AE59"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="AF53:AG53"/>
+    <mergeCell ref="AF54:AG54"/>
+    <mergeCell ref="AF55:AG55"/>
+    <mergeCell ref="AF56:AG56"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="AF58:AG58"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/테이블명세서.xlsx
+++ b/테이블명세서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\why_n\Desktop\Beauty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Desktop\Beauty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9E6DEA-9DB0-443E-80A4-4D360C2531B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="679">
   <si>
     <t>테이블 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2298,14 +2297,22 @@
   </si>
   <si>
     <t>색깔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3462,7 +3469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4396,23 +4403,53 @@
     <xf numFmtId="0" fontId="13" fillId="141" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4420,38 +4457,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4735,14 +4745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51:K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
@@ -4751,84 +4761,84 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="324" t="s">
+    <row r="1" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="313" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="327" t="s">
+      <c r="E1" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="327"/>
+      <c r="F1" s="314"/>
       <c r="H1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="319" t="s">
+      <c r="I1" s="320" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="320"/>
-      <c r="K1" s="320"/>
-      <c r="L1" s="320"/>
-      <c r="M1" s="320"/>
-      <c r="N1" s="320"/>
-      <c r="O1" s="320"/>
-      <c r="P1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
+      <c r="N1" s="321"/>
+      <c r="O1" s="321"/>
+      <c r="P1" s="322"/>
       <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="319" t="s">
+      <c r="S1" s="320" t="s">
         <v>223</v>
       </c>
-      <c r="T1" s="320"/>
-      <c r="U1" s="320"/>
-      <c r="V1" s="320"/>
-      <c r="W1" s="320"/>
-      <c r="X1" s="320"/>
-      <c r="Y1" s="320"/>
-      <c r="Z1" s="321"/>
+      <c r="T1" s="321"/>
+      <c r="U1" s="321"/>
+      <c r="V1" s="321"/>
+      <c r="W1" s="321"/>
+      <c r="X1" s="321"/>
+      <c r="Y1" s="321"/>
+      <c r="Z1" s="322"/>
       <c r="AB1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="319" t="s">
+      <c r="AC1" s="320" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="320"/>
-      <c r="AE1" s="320"/>
-      <c r="AF1" s="320"/>
-      <c r="AG1" s="320"/>
-      <c r="AH1" s="320"/>
-      <c r="AI1" s="320"/>
-      <c r="AJ1" s="321"/>
-    </row>
-    <row r="2" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="324"/>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
+      <c r="AD1" s="321"/>
+      <c r="AE1" s="321"/>
+      <c r="AF1" s="321"/>
+      <c r="AG1" s="321"/>
+      <c r="AH1" s="321"/>
+      <c r="AI1" s="321"/>
+      <c r="AJ1" s="322"/>
+    </row>
+    <row r="2" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="313"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="327" t="s">
+      <c r="E2" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="327"/>
+      <c r="F2" s="314"/>
       <c r="H2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="313" t="s">
+      <c r="J2" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="314"/>
-      <c r="L2" s="313" t="s">
+      <c r="K2" s="317"/>
+      <c r="L2" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="314"/>
+      <c r="M2" s="317"/>
       <c r="N2" s="5" t="s">
         <v>36</v>
       </c>
@@ -4844,14 +4854,14 @@
       <c r="S2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="313" t="s">
+      <c r="T2" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="314"/>
-      <c r="V2" s="313" t="s">
+      <c r="U2" s="317"/>
+      <c r="V2" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="314"/>
+      <c r="W2" s="317"/>
       <c r="X2" s="5" t="s">
         <v>36</v>
       </c>
@@ -4867,14 +4877,14 @@
       <c r="AC2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="313" t="s">
+      <c r="AD2" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="314"/>
-      <c r="AF2" s="313" t="s">
+      <c r="AE2" s="317"/>
+      <c r="AF2" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="314"/>
+      <c r="AG2" s="317"/>
       <c r="AH2" s="5" t="s">
         <v>36</v>
       </c>
@@ -4885,21 +4895,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
+      <c r="C3" s="314"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="328">
+      <c r="E3" s="315">
         <v>44987</v>
       </c>
-      <c r="F3" s="327"/>
+      <c r="F3" s="314"/>
       <c r="H3" s="18" t="s">
         <v>212</v>
       </c>
@@ -4910,8 +4920,8 @@
         <v>62</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="314"/>
+      <c r="L3" s="316"/>
+      <c r="M3" s="317"/>
       <c r="N3" s="7" t="s">
         <v>71</v>
       </c>
@@ -4925,12 +4935,12 @@
       <c r="S3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="311" t="s">
+      <c r="T3" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="312"/>
-      <c r="V3" s="313"/>
-      <c r="W3" s="314"/>
+      <c r="U3" s="324"/>
+      <c r="V3" s="316"/>
+      <c r="W3" s="317"/>
       <c r="X3" s="7" t="s">
         <v>71</v>
       </c>
@@ -4944,12 +4954,12 @@
       <c r="AC3" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AD3" s="311" t="s">
+      <c r="AD3" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE3" s="312"/>
-      <c r="AF3" s="313"/>
-      <c r="AG3" s="314"/>
+      <c r="AE3" s="324"/>
+      <c r="AF3" s="316"/>
+      <c r="AG3" s="317"/>
       <c r="AH3" s="7" t="s">
         <v>71</v>
       </c>
@@ -4958,21 +4968,21 @@
       </c>
       <c r="AJ3" s="17"/>
     </row>
-    <row r="4" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="327" t="s">
+      <c r="B4" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="327"/>
+      <c r="C4" s="314"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="314" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="327"/>
+      <c r="F4" s="314"/>
       <c r="H4" s="18" t="s">
         <v>40</v>
       </c>
@@ -4983,8 +4993,8 @@
         <v>62</v>
       </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="313"/>
-      <c r="M4" s="314"/>
+      <c r="L4" s="316"/>
+      <c r="M4" s="317"/>
       <c r="N4" s="8" t="s">
         <v>71</v>
       </c>
@@ -4996,12 +5006,12 @@
       <c r="S4" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="317" t="s">
+      <c r="T4" s="327" t="s">
         <v>183</v>
       </c>
-      <c r="U4" s="318"/>
-      <c r="V4" s="315"/>
-      <c r="W4" s="316"/>
+      <c r="U4" s="328"/>
+      <c r="V4" s="318"/>
+      <c r="W4" s="319"/>
       <c r="X4" s="21" t="s">
         <v>71</v>
       </c>
@@ -5019,17 +5029,17 @@
         <v>62</v>
       </c>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="311" t="s">
+      <c r="AF4" s="323" t="s">
         <v>181</v>
       </c>
-      <c r="AG4" s="312"/>
+      <c r="AG4" s="324"/>
       <c r="AH4" s="8" t="s">
         <v>72</v>
       </c>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="H5" s="18" t="s">
         <v>41</v>
       </c>
@@ -5040,8 +5050,8 @@
         <v>63</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="314"/>
+      <c r="L5" s="316"/>
+      <c r="M5" s="317"/>
       <c r="N5" s="8" t="s">
         <v>71</v>
       </c>
@@ -5055,47 +5065,47 @@
       <c r="AC5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AD5" s="311" t="s">
+      <c r="AD5" s="323" t="s">
         <v>214</v>
       </c>
-      <c r="AE5" s="312"/>
-      <c r="AF5" s="311" t="s">
+      <c r="AE5" s="324"/>
+      <c r="AF5" s="323" t="s">
         <v>182</v>
       </c>
-      <c r="AG5" s="312"/>
+      <c r="AG5" s="324"/>
       <c r="AH5" s="8" t="s">
         <v>72</v>
       </c>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="329" t="s">
+    <row r="6" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="312" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="329"/>
-      <c r="C6" s="329" t="s">
+      <c r="B6" s="312"/>
+      <c r="C6" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="329"/>
-      <c r="E6" s="329" t="s">
+      <c r="D6" s="312"/>
+      <c r="E6" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="329"/>
+      <c r="F6" s="312"/>
       <c r="H6" s="18" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="311" t="s">
+      <c r="J6" s="323" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="312"/>
-      <c r="L6" s="311" t="s">
+      <c r="K6" s="324"/>
+      <c r="L6" s="323" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="312"/>
+      <c r="M6" s="324"/>
       <c r="N6" s="8">
         <v>1</v>
       </c>
@@ -5104,59 +5114,59 @@
       <c r="R6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="319" t="s">
+      <c r="S6" s="320" t="s">
         <v>224</v>
       </c>
-      <c r="T6" s="320"/>
-      <c r="U6" s="320"/>
-      <c r="V6" s="320"/>
-      <c r="W6" s="320"/>
-      <c r="X6" s="320"/>
-      <c r="Y6" s="320"/>
-      <c r="Z6" s="321"/>
+      <c r="T6" s="321"/>
+      <c r="U6" s="321"/>
+      <c r="V6" s="321"/>
+      <c r="W6" s="321"/>
+      <c r="X6" s="321"/>
+      <c r="Y6" s="321"/>
+      <c r="Z6" s="322"/>
       <c r="AB6" s="18" t="s">
         <v>155</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AD6" s="311" t="s">
+      <c r="AD6" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE6" s="312"/>
-      <c r="AF6" s="313"/>
-      <c r="AG6" s="314"/>
+      <c r="AE6" s="324"/>
+      <c r="AF6" s="316"/>
+      <c r="AG6" s="317"/>
       <c r="AH6" s="8">
         <v>0</v>
       </c>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="329" t="s">
+    <row r="7" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="329"/>
-      <c r="C7" s="329" t="s">
+      <c r="B7" s="312"/>
+      <c r="C7" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="329"/>
-      <c r="E7" s="329"/>
-      <c r="F7" s="329"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
       <c r="H7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="311" t="s">
+      <c r="J7" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="312"/>
-      <c r="L7" s="311" t="s">
+      <c r="K7" s="324"/>
+      <c r="L7" s="323" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="312"/>
+      <c r="M7" s="324"/>
       <c r="N7" s="8">
         <v>0</v>
       </c>
@@ -5168,14 +5178,14 @@
       <c r="S7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="313" t="s">
+      <c r="T7" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="314"/>
-      <c r="V7" s="313" t="s">
+      <c r="U7" s="317"/>
+      <c r="V7" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="314"/>
+      <c r="W7" s="317"/>
       <c r="X7" s="5" t="s">
         <v>36</v>
       </c>
@@ -5191,29 +5201,29 @@
       <c r="AC7" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="AD7" s="311" t="s">
+      <c r="AD7" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE7" s="312"/>
-      <c r="AF7" s="313"/>
-      <c r="AG7" s="314"/>
+      <c r="AE7" s="324"/>
+      <c r="AF7" s="316"/>
+      <c r="AG7" s="317"/>
       <c r="AH7" s="8">
         <v>0</v>
       </c>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="329" t="s">
+    <row r="8" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="312" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="329"/>
-      <c r="C8" s="329" t="s">
+      <c r="B8" s="312"/>
+      <c r="C8" s="312" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="329"/>
-      <c r="E8" s="329"/>
-      <c r="F8" s="329"/>
+      <c r="D8" s="312"/>
+      <c r="E8" s="312"/>
+      <c r="F8" s="312"/>
       <c r="H8" s="18" t="s">
         <v>44</v>
       </c>
@@ -5224,8 +5234,8 @@
         <v>66</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="313"/>
-      <c r="M8" s="314"/>
+      <c r="L8" s="316"/>
+      <c r="M8" s="317"/>
       <c r="N8" s="8" t="s">
         <v>72</v>
       </c>
@@ -5237,12 +5247,12 @@
       <c r="S8" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T8" s="311" t="s">
+      <c r="T8" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="312"/>
-      <c r="V8" s="313"/>
-      <c r="W8" s="314"/>
+      <c r="U8" s="324"/>
+      <c r="V8" s="316"/>
+      <c r="W8" s="317"/>
       <c r="X8" s="7" t="s">
         <v>71</v>
       </c>
@@ -5256,29 +5266,29 @@
       <c r="AC8" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AD8" s="311" t="s">
+      <c r="AD8" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE8" s="312"/>
-      <c r="AF8" s="313"/>
-      <c r="AG8" s="314"/>
+      <c r="AE8" s="324"/>
+      <c r="AF8" s="316"/>
+      <c r="AG8" s="317"/>
       <c r="AH8" s="8">
         <v>0</v>
       </c>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="329" t="s">
+    <row r="9" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="312" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="329"/>
-      <c r="C9" s="329" t="s">
+      <c r="B9" s="312"/>
+      <c r="C9" s="312" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="329"/>
-      <c r="E9" s="329"/>
-      <c r="F9" s="329"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
       <c r="H9" s="18" t="s">
         <v>45</v>
       </c>
@@ -5289,8 +5299,8 @@
         <v>67</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="313"/>
-      <c r="M9" s="314"/>
+      <c r="L9" s="316"/>
+      <c r="M9" s="317"/>
       <c r="N9" s="8" t="s">
         <v>72</v>
       </c>
@@ -5302,12 +5312,12 @@
       <c r="S9" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="T9" s="311" t="s">
+      <c r="T9" s="323" t="s">
         <v>183</v>
       </c>
-      <c r="U9" s="312"/>
-      <c r="V9" s="313"/>
-      <c r="W9" s="314"/>
+      <c r="U9" s="324"/>
+      <c r="V9" s="316"/>
+      <c r="W9" s="317"/>
       <c r="X9" s="8" t="s">
         <v>71</v>
       </c>
@@ -5321,29 +5331,29 @@
       <c r="AC9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AD9" s="311" t="s">
+      <c r="AD9" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE9" s="312"/>
-      <c r="AF9" s="313"/>
-      <c r="AG9" s="314"/>
+      <c r="AE9" s="324"/>
+      <c r="AF9" s="316"/>
+      <c r="AG9" s="317"/>
       <c r="AH9" s="8">
         <v>0</v>
       </c>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="329" t="s">
+    <row r="10" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A10" s="312" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="329"/>
-      <c r="C10" s="329" t="s">
+      <c r="B10" s="312"/>
+      <c r="C10" s="312" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="329"/>
-      <c r="E10" s="329"/>
-      <c r="F10" s="329"/>
+      <c r="D10" s="312"/>
+      <c r="E10" s="312"/>
+      <c r="F10" s="312"/>
       <c r="H10" s="18" t="s">
         <v>46</v>
       </c>
@@ -5354,8 +5364,8 @@
         <v>67</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="313"/>
-      <c r="M10" s="314"/>
+      <c r="L10" s="316"/>
+      <c r="M10" s="317"/>
       <c r="N10" s="8" t="s">
         <v>72</v>
       </c>
@@ -5367,12 +5377,12 @@
       <c r="S10" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="T10" s="317" t="s">
+      <c r="T10" s="327" t="s">
         <v>183</v>
       </c>
-      <c r="U10" s="318"/>
-      <c r="V10" s="315"/>
-      <c r="W10" s="316"/>
+      <c r="U10" s="328"/>
+      <c r="V10" s="318"/>
+      <c r="W10" s="319"/>
       <c r="X10" s="21" t="s">
         <v>71</v>
       </c>
@@ -5384,29 +5394,29 @@
       <c r="AC10" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AD10" s="311" t="s">
+      <c r="AD10" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE10" s="312"/>
-      <c r="AF10" s="313"/>
-      <c r="AG10" s="314"/>
+      <c r="AE10" s="324"/>
+      <c r="AF10" s="316"/>
+      <c r="AG10" s="317"/>
       <c r="AH10" s="8">
         <v>0</v>
       </c>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="329" t="s">
+    <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A11" s="312" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="329"/>
-      <c r="C11" s="329" t="s">
+      <c r="B11" s="312"/>
+      <c r="C11" s="312" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="329"/>
-      <c r="E11" s="329"/>
-      <c r="F11" s="329"/>
+      <c r="D11" s="312"/>
+      <c r="E11" s="312"/>
+      <c r="F11" s="312"/>
       <c r="H11" s="18" t="s">
         <v>47</v>
       </c>
@@ -5417,8 +5427,8 @@
         <v>67</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="313"/>
-      <c r="M11" s="314"/>
+      <c r="L11" s="316"/>
+      <c r="M11" s="317"/>
       <c r="N11" s="8" t="s">
         <v>72</v>
       </c>
@@ -5430,29 +5440,29 @@
       <c r="AC11" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="AD11" s="311" t="s">
+      <c r="AD11" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE11" s="312"/>
-      <c r="AF11" s="313"/>
-      <c r="AG11" s="314"/>
+      <c r="AE11" s="324"/>
+      <c r="AF11" s="316"/>
+      <c r="AG11" s="317"/>
       <c r="AH11" s="8">
         <v>0</v>
       </c>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="329" t="s">
+    <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="312" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="329"/>
-      <c r="C12" s="329" t="s">
+      <c r="B12" s="312"/>
+      <c r="C12" s="312" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="329"/>
-      <c r="E12" s="329"/>
-      <c r="F12" s="329"/>
+      <c r="D12" s="312"/>
+      <c r="E12" s="312"/>
+      <c r="F12" s="312"/>
       <c r="H12" s="18" t="s">
         <v>48</v>
       </c>
@@ -5463,8 +5473,8 @@
         <v>67</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="313"/>
-      <c r="M12" s="314"/>
+      <c r="L12" s="316"/>
+      <c r="M12" s="317"/>
       <c r="N12" s="8" t="s">
         <v>71</v>
       </c>
@@ -5473,57 +5483,57 @@
       <c r="R12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S12" s="319" t="s">
+      <c r="S12" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="320"/>
-      <c r="U12" s="320"/>
-      <c r="V12" s="320"/>
-      <c r="W12" s="320"/>
-      <c r="X12" s="320"/>
-      <c r="Y12" s="320"/>
-      <c r="Z12" s="321"/>
+      <c r="T12" s="321"/>
+      <c r="U12" s="321"/>
+      <c r="V12" s="321"/>
+      <c r="W12" s="321"/>
+      <c r="X12" s="321"/>
+      <c r="Y12" s="321"/>
+      <c r="Z12" s="322"/>
       <c r="AB12" s="18" t="s">
         <v>150</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AD12" s="311" t="s">
+      <c r="AD12" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE12" s="312"/>
-      <c r="AF12" s="313"/>
-      <c r="AG12" s="314"/>
+      <c r="AE12" s="324"/>
+      <c r="AF12" s="316"/>
+      <c r="AG12" s="317"/>
       <c r="AH12" s="8">
         <v>0</v>
       </c>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="17"/>
     </row>
-    <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="329" t="s">
+    <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="312" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="329"/>
-      <c r="C13" s="329" t="s">
+      <c r="B13" s="312"/>
+      <c r="C13" s="312" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="329"/>
-      <c r="E13" s="329"/>
-      <c r="F13" s="329"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
       <c r="H13" s="18" t="s">
         <v>49</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="311" t="s">
+      <c r="J13" s="323" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="312"/>
-      <c r="L13" s="313"/>
-      <c r="M13" s="314"/>
+      <c r="K13" s="324"/>
+      <c r="L13" s="316"/>
+      <c r="M13" s="317"/>
       <c r="N13" s="8" t="s">
         <v>71</v>
       </c>
@@ -5535,14 +5545,14 @@
       <c r="S13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="313" t="s">
+      <c r="T13" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="314"/>
-      <c r="V13" s="313" t="s">
+      <c r="U13" s="317"/>
+      <c r="V13" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="314"/>
+      <c r="W13" s="317"/>
       <c r="X13" s="5" t="s">
         <v>36</v>
       </c>
@@ -5558,29 +5568,29 @@
       <c r="AC13" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AD13" s="311" t="s">
+      <c r="AD13" s="323" t="s">
         <v>241</v>
       </c>
-      <c r="AE13" s="312"/>
-      <c r="AF13" s="313"/>
-      <c r="AG13" s="314"/>
+      <c r="AE13" s="324"/>
+      <c r="AF13" s="316"/>
+      <c r="AG13" s="317"/>
       <c r="AH13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="17"/>
     </row>
-    <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="329" t="s">
+    <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="312" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="329"/>
-      <c r="C14" s="329" t="s">
+      <c r="B14" s="312"/>
+      <c r="C14" s="312" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="329"/>
-      <c r="E14" s="329"/>
-      <c r="F14" s="329"/>
+      <c r="D14" s="312"/>
+      <c r="E14" s="312"/>
+      <c r="F14" s="312"/>
       <c r="H14" s="18" t="s">
         <v>50</v>
       </c>
@@ -5591,8 +5601,8 @@
         <v>67</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="313"/>
-      <c r="M14" s="314"/>
+      <c r="L14" s="316"/>
+      <c r="M14" s="317"/>
       <c r="N14" s="8" t="s">
         <v>72</v>
       </c>
@@ -5604,12 +5614,12 @@
       <c r="S14" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="T14" s="311" t="s">
+      <c r="T14" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U14" s="312"/>
-      <c r="V14" s="313"/>
-      <c r="W14" s="314"/>
+      <c r="U14" s="324"/>
+      <c r="V14" s="316"/>
+      <c r="W14" s="317"/>
       <c r="X14" s="7" t="s">
         <v>71</v>
       </c>
@@ -5623,29 +5633,29 @@
       <c r="AC14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD14" s="311" t="s">
+      <c r="AD14" s="323" t="s">
         <v>242</v>
       </c>
-      <c r="AE14" s="312"/>
-      <c r="AF14" s="313"/>
-      <c r="AG14" s="314"/>
+      <c r="AE14" s="324"/>
+      <c r="AF14" s="316"/>
+      <c r="AG14" s="317"/>
       <c r="AH14" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="17"/>
     </row>
-    <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="329" t="s">
+    <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A15" s="312" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="329"/>
-      <c r="C15" s="329" t="s">
+      <c r="B15" s="312"/>
+      <c r="C15" s="312" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="329"/>
-      <c r="E15" s="329"/>
-      <c r="F15" s="329"/>
+      <c r="D15" s="312"/>
+      <c r="E15" s="312"/>
+      <c r="F15" s="312"/>
       <c r="H15" s="19" t="s">
         <v>51</v>
       </c>
@@ -5656,8 +5666,8 @@
         <v>67</v>
       </c>
       <c r="K15" s="20"/>
-      <c r="L15" s="315"/>
-      <c r="M15" s="316"/>
+      <c r="L15" s="318"/>
+      <c r="M15" s="319"/>
       <c r="N15" s="21" t="s">
         <v>72</v>
       </c>
@@ -5673,8 +5683,8 @@
         <v>62</v>
       </c>
       <c r="U15" s="9"/>
-      <c r="V15" s="313"/>
-      <c r="W15" s="314"/>
+      <c r="V15" s="316"/>
+      <c r="W15" s="317"/>
       <c r="X15" s="7" t="s">
         <v>71</v>
       </c>
@@ -5690,27 +5700,27 @@
         <v>62</v>
       </c>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="313"/>
-      <c r="AG15" s="314"/>
+      <c r="AF15" s="316"/>
+      <c r="AG15" s="317"/>
       <c r="AH15" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="17"/>
     </row>
-    <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="R16" s="24" t="s">
         <v>73</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="T16" s="311" t="s">
+      <c r="T16" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U16" s="312"/>
-      <c r="V16" s="313"/>
-      <c r="W16" s="314"/>
+      <c r="U16" s="324"/>
+      <c r="V16" s="316"/>
+      <c r="W16" s="317"/>
       <c r="X16" s="8" t="s">
         <v>71</v>
       </c>
@@ -5728,28 +5738,28 @@
         <v>62</v>
       </c>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="313"/>
-      <c r="AG16" s="314"/>
+      <c r="AF16" s="316"/>
+      <c r="AG16" s="317"/>
       <c r="AH16" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="23"/>
     </row>
-    <row r="17" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="319" t="s">
+      <c r="I17" s="320" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="320"/>
-      <c r="K17" s="320"/>
-      <c r="L17" s="320"/>
-      <c r="M17" s="320"/>
-      <c r="N17" s="320"/>
-      <c r="O17" s="320"/>
-      <c r="P17" s="321"/>
+      <c r="J17" s="321"/>
+      <c r="K17" s="321"/>
+      <c r="L17" s="321"/>
+      <c r="M17" s="321"/>
+      <c r="N17" s="321"/>
+      <c r="O17" s="321"/>
+      <c r="P17" s="322"/>
       <c r="R17" s="24" t="s">
         <v>74</v>
       </c>
@@ -5760,8 +5770,8 @@
         <v>62</v>
       </c>
       <c r="U17" s="9"/>
-      <c r="V17" s="313"/>
-      <c r="W17" s="314"/>
+      <c r="V17" s="316"/>
+      <c r="W17" s="317"/>
       <c r="X17" s="8" t="s">
         <v>71</v>
       </c>
@@ -5777,29 +5787,29 @@
         <v>62</v>
       </c>
       <c r="AE17" s="6"/>
-      <c r="AF17" s="313"/>
-      <c r="AG17" s="314"/>
+      <c r="AF17" s="316"/>
+      <c r="AG17" s="317"/>
       <c r="AH17" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="23"/>
     </row>
-    <row r="18" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="313" t="s">
+      <c r="J18" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="314"/>
-      <c r="L18" s="313" t="s">
+      <c r="K18" s="317"/>
+      <c r="L18" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="314"/>
+      <c r="M18" s="317"/>
       <c r="N18" s="5" t="s">
         <v>36</v>
       </c>
@@ -5815,12 +5825,12 @@
       <c r="S18" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="T18" s="311" t="s">
+      <c r="T18" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U18" s="312"/>
-      <c r="V18" s="313"/>
-      <c r="W18" s="314"/>
+      <c r="U18" s="324"/>
+      <c r="V18" s="316"/>
+      <c r="W18" s="317"/>
       <c r="X18" s="8">
         <v>0</v>
       </c>
@@ -5836,27 +5846,27 @@
         <v>62</v>
       </c>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="313"/>
-      <c r="AG18" s="314"/>
+      <c r="AF18" s="316"/>
+      <c r="AG18" s="317"/>
       <c r="AH18" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="23"/>
     </row>
-    <row r="19" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H19" s="18" t="s">
         <v>73</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="311" t="s">
+      <c r="J19" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="312"/>
-      <c r="L19" s="313"/>
-      <c r="M19" s="314"/>
+      <c r="K19" s="324"/>
+      <c r="L19" s="316"/>
+      <c r="M19" s="317"/>
       <c r="N19" s="7" t="s">
         <v>71</v>
       </c>
@@ -5870,12 +5880,12 @@
       <c r="S19" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="T19" s="311" t="s">
+      <c r="T19" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U19" s="312"/>
-      <c r="V19" s="313"/>
-      <c r="W19" s="314"/>
+      <c r="U19" s="324"/>
+      <c r="V19" s="316"/>
+      <c r="W19" s="317"/>
       <c r="X19" s="8">
         <v>0</v>
       </c>
@@ -5887,19 +5897,19 @@
       <c r="AC19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AD19" s="311" t="s">
+      <c r="AD19" s="323" t="s">
         <v>241</v>
       </c>
-      <c r="AE19" s="312"/>
-      <c r="AF19" s="313"/>
-      <c r="AG19" s="314"/>
+      <c r="AE19" s="324"/>
+      <c r="AF19" s="316"/>
+      <c r="AG19" s="317"/>
       <c r="AH19" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="23"/>
     </row>
-    <row r="20" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H20" s="18" t="s">
         <v>74</v>
       </c>
@@ -5910,8 +5920,8 @@
         <v>62</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="313"/>
-      <c r="M20" s="314"/>
+      <c r="L20" s="316"/>
+      <c r="M20" s="317"/>
       <c r="N20" s="8" t="s">
         <v>71</v>
       </c>
@@ -5923,12 +5933,12 @@
       <c r="S20" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="T20" s="311" t="s">
+      <c r="T20" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U20" s="312"/>
-      <c r="V20" s="313"/>
-      <c r="W20" s="314"/>
+      <c r="U20" s="324"/>
+      <c r="V20" s="316"/>
+      <c r="W20" s="317"/>
       <c r="X20" s="8">
         <v>0</v>
       </c>
@@ -5940,19 +5950,19 @@
       <c r="AC20" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="AD20" s="311" t="s">
+      <c r="AD20" s="323" t="s">
         <v>242</v>
       </c>
-      <c r="AE20" s="312"/>
-      <c r="AF20" s="313"/>
-      <c r="AG20" s="314"/>
+      <c r="AE20" s="324"/>
+      <c r="AF20" s="316"/>
+      <c r="AG20" s="317"/>
       <c r="AH20" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="29"/>
     </row>
-    <row r="21" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H21" s="18" t="s">
         <v>75</v>
       </c>
@@ -5963,8 +5973,8 @@
         <v>62</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="313"/>
-      <c r="M21" s="314"/>
+      <c r="L21" s="316"/>
+      <c r="M21" s="317"/>
       <c r="N21" s="8" t="s">
         <v>71</v>
       </c>
@@ -5976,12 +5986,12 @@
       <c r="S21" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="T21" s="311" t="s">
+      <c r="T21" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U21" s="312"/>
-      <c r="V21" s="313"/>
-      <c r="W21" s="314"/>
+      <c r="U21" s="324"/>
+      <c r="V21" s="316"/>
+      <c r="W21" s="317"/>
       <c r="X21" s="8">
         <v>0</v>
       </c>
@@ -5997,27 +6007,27 @@
         <v>62</v>
       </c>
       <c r="AE21" s="6"/>
-      <c r="AF21" s="313"/>
-      <c r="AG21" s="314"/>
+      <c r="AF21" s="316"/>
+      <c r="AG21" s="317"/>
       <c r="AH21" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="29"/>
     </row>
-    <row r="22" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H22" s="18" t="s">
         <v>77</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J22" s="311" t="s">
+      <c r="J22" s="323" t="s">
         <v>183</v>
       </c>
-      <c r="K22" s="312"/>
-      <c r="L22" s="313"/>
-      <c r="M22" s="314"/>
+      <c r="K22" s="324"/>
+      <c r="L22" s="316"/>
+      <c r="M22" s="317"/>
       <c r="N22" s="8" t="s">
         <v>71</v>
       </c>
@@ -6031,12 +6041,12 @@
       <c r="S22" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="T22" s="311" t="s">
+      <c r="T22" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U22" s="312"/>
-      <c r="V22" s="313"/>
-      <c r="W22" s="314"/>
+      <c r="U22" s="324"/>
+      <c r="V22" s="316"/>
+      <c r="W22" s="317"/>
       <c r="X22" s="8">
         <v>1</v>
       </c>
@@ -6052,27 +6062,27 @@
         <v>62</v>
       </c>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="313"/>
-      <c r="AG22" s="314"/>
+      <c r="AF22" s="316"/>
+      <c r="AG22" s="317"/>
       <c r="AH22" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="29"/>
     </row>
-    <row r="23" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H23" s="18" t="s">
         <v>76</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="311" t="s">
+      <c r="J23" s="323" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="312"/>
-      <c r="L23" s="313"/>
-      <c r="M23" s="314"/>
+      <c r="K23" s="324"/>
+      <c r="L23" s="316"/>
+      <c r="M23" s="317"/>
       <c r="N23" s="8" t="s">
         <v>71</v>
       </c>
@@ -6090,8 +6100,8 @@
         <v>62</v>
       </c>
       <c r="U23" s="9"/>
-      <c r="V23" s="313"/>
-      <c r="W23" s="314"/>
+      <c r="V23" s="316"/>
+      <c r="W23" s="317"/>
       <c r="X23" s="8" t="s">
         <v>71</v>
       </c>
@@ -6107,27 +6117,27 @@
         <v>62</v>
       </c>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="313"/>
-      <c r="AG23" s="314"/>
+      <c r="AF23" s="316"/>
+      <c r="AG23" s="317"/>
       <c r="AH23" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI23" s="10"/>
       <c r="AJ23" s="29"/>
     </row>
-    <row r="24" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H24" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="311" t="s">
+      <c r="J24" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="312"/>
-      <c r="L24" s="313"/>
-      <c r="M24" s="314"/>
+      <c r="K24" s="324"/>
+      <c r="L24" s="316"/>
+      <c r="M24" s="317"/>
       <c r="N24" s="8">
         <v>0</v>
       </c>
@@ -6143,8 +6153,8 @@
         <v>62</v>
       </c>
       <c r="U24" s="9"/>
-      <c r="V24" s="313"/>
-      <c r="W24" s="314"/>
+      <c r="V24" s="316"/>
+      <c r="W24" s="317"/>
       <c r="X24" s="8" t="s">
         <v>71</v>
       </c>
@@ -6156,31 +6166,31 @@
       <c r="AC24" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AD24" s="311" t="s">
+      <c r="AD24" s="323" t="s">
         <v>247</v>
       </c>
-      <c r="AE24" s="312"/>
-      <c r="AF24" s="313"/>
-      <c r="AG24" s="314"/>
+      <c r="AE24" s="324"/>
+      <c r="AF24" s="316"/>
+      <c r="AG24" s="317"/>
       <c r="AH24" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI24" s="10"/>
       <c r="AJ24" s="29"/>
     </row>
-    <row r="25" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H25" s="18" t="s">
         <v>79</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="311" t="s">
+      <c r="J25" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="312"/>
-      <c r="L25" s="313"/>
-      <c r="M25" s="314"/>
+      <c r="K25" s="324"/>
+      <c r="L25" s="316"/>
+      <c r="M25" s="317"/>
       <c r="N25" s="8">
         <v>0</v>
       </c>
@@ -6196,8 +6206,8 @@
         <v>62</v>
       </c>
       <c r="U25" s="9"/>
-      <c r="V25" s="313"/>
-      <c r="W25" s="314"/>
+      <c r="V25" s="316"/>
+      <c r="W25" s="317"/>
       <c r="X25" s="8" t="s">
         <v>71</v>
       </c>
@@ -6209,31 +6219,31 @@
       <c r="AC25" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="AD25" s="311" t="s">
+      <c r="AD25" s="323" t="s">
         <v>64</v>
       </c>
-      <c r="AE25" s="312"/>
-      <c r="AF25" s="313"/>
-      <c r="AG25" s="314"/>
+      <c r="AE25" s="324"/>
+      <c r="AF25" s="316"/>
+      <c r="AG25" s="317"/>
       <c r="AH25" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AI25" s="10"/>
       <c r="AJ25" s="29"/>
     </row>
-    <row r="26" spans="8:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:37" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="H26" s="18" t="s">
         <v>80</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J26" s="311" t="s">
+      <c r="J26" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="312"/>
-      <c r="L26" s="313"/>
-      <c r="M26" s="314"/>
+      <c r="K26" s="324"/>
+      <c r="L26" s="316"/>
+      <c r="M26" s="317"/>
       <c r="N26" s="8">
         <v>0</v>
       </c>
@@ -6245,12 +6255,12 @@
       <c r="S26" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="T26" s="317" t="s">
+      <c r="T26" s="327" t="s">
         <v>126</v>
       </c>
-      <c r="U26" s="318"/>
-      <c r="V26" s="315"/>
-      <c r="W26" s="316"/>
+      <c r="U26" s="328"/>
+      <c r="V26" s="318"/>
+      <c r="W26" s="319"/>
       <c r="X26" s="21" t="s">
         <v>71</v>
       </c>
@@ -6266,27 +6276,27 @@
         <v>248</v>
       </c>
       <c r="AE26" s="326"/>
-      <c r="AF26" s="313"/>
-      <c r="AG26" s="314"/>
+      <c r="AF26" s="316"/>
+      <c r="AG26" s="317"/>
       <c r="AH26" s="8">
         <v>1</v>
       </c>
       <c r="AI26" s="10"/>
       <c r="AJ26" s="29"/>
     </row>
-    <row r="27" spans="8:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:37" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="H27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J27" s="311" t="s">
+      <c r="J27" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="312"/>
-      <c r="L27" s="313"/>
-      <c r="M27" s="314"/>
+      <c r="K27" s="324"/>
+      <c r="L27" s="316"/>
+      <c r="M27" s="317"/>
       <c r="N27" s="8">
         <v>0</v>
       </c>
@@ -6298,31 +6308,31 @@
       <c r="AC27" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="AD27" s="317" t="s">
+      <c r="AD27" s="327" t="s">
         <v>126</v>
       </c>
-      <c r="AE27" s="318"/>
-      <c r="AF27" s="315"/>
-      <c r="AG27" s="316"/>
+      <c r="AE27" s="328"/>
+      <c r="AF27" s="318"/>
+      <c r="AG27" s="319"/>
       <c r="AH27" s="31" t="s">
         <v>71</v>
       </c>
       <c r="AI27" s="20"/>
       <c r="AJ27" s="22"/>
     </row>
-    <row r="28" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H28" s="18" t="s">
         <v>81</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="311" t="s">
+      <c r="J28" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K28" s="312"/>
-      <c r="L28" s="313"/>
-      <c r="M28" s="314"/>
+      <c r="K28" s="324"/>
+      <c r="L28" s="316"/>
+      <c r="M28" s="317"/>
       <c r="N28" s="8">
         <v>0</v>
       </c>
@@ -6331,16 +6341,16 @@
       <c r="R28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S28" s="319" t="s">
+      <c r="S28" s="320" t="s">
         <v>21</v>
       </c>
-      <c r="T28" s="320"/>
-      <c r="U28" s="320"/>
-      <c r="V28" s="320"/>
-      <c r="W28" s="320"/>
-      <c r="X28" s="320"/>
-      <c r="Y28" s="320"/>
-      <c r="Z28" s="321"/>
+      <c r="T28" s="321"/>
+      <c r="U28" s="321"/>
+      <c r="V28" s="321"/>
+      <c r="W28" s="321"/>
+      <c r="X28" s="321"/>
+      <c r="Y28" s="321"/>
+      <c r="Z28" s="322"/>
       <c r="AB28" s="11" t="s">
         <v>165</v>
       </c>
@@ -6354,19 +6364,19 @@
       <c r="AJ28" s="13"/>
       <c r="AK28" s="13"/>
     </row>
-    <row r="29" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H29" s="18" t="s">
         <v>82</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J29" s="311" t="s">
+      <c r="J29" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="312"/>
-      <c r="L29" s="313"/>
-      <c r="M29" s="314"/>
+      <c r="K29" s="324"/>
+      <c r="L29" s="316"/>
+      <c r="M29" s="317"/>
       <c r="N29" s="8">
         <v>0</v>
       </c>
@@ -6378,14 +6388,14 @@
       <c r="S29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T29" s="313" t="s">
+      <c r="T29" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="U29" s="314"/>
-      <c r="V29" s="313" t="s">
+      <c r="U29" s="317"/>
+      <c r="V29" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="W29" s="314"/>
+      <c r="W29" s="317"/>
       <c r="X29" s="5" t="s">
         <v>36</v>
       </c>
@@ -6408,19 +6418,19 @@
       <c r="AJ29" s="13"/>
       <c r="AK29" s="13"/>
     </row>
-    <row r="30" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H30" s="18" t="s">
         <v>83</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J30" s="311" t="s">
+      <c r="J30" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="312"/>
-      <c r="L30" s="313"/>
-      <c r="M30" s="314"/>
+      <c r="K30" s="324"/>
+      <c r="L30" s="316"/>
+      <c r="M30" s="317"/>
       <c r="N30" s="8">
         <v>0</v>
       </c>
@@ -6432,12 +6442,12 @@
       <c r="S30" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T30" s="311" t="s">
+      <c r="T30" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U30" s="312"/>
-      <c r="V30" s="313"/>
-      <c r="W30" s="314"/>
+      <c r="U30" s="324"/>
+      <c r="V30" s="316"/>
+      <c r="W30" s="317"/>
       <c r="X30" s="7" t="s">
         <v>71</v>
       </c>
@@ -6458,19 +6468,19 @@
       <c r="AJ30" s="13"/>
       <c r="AK30" s="13"/>
     </row>
-    <row r="31" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H31" s="18" t="s">
         <v>84</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="311" t="s">
+      <c r="J31" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K31" s="312"/>
-      <c r="L31" s="313"/>
-      <c r="M31" s="314"/>
+      <c r="K31" s="324"/>
+      <c r="L31" s="316"/>
+      <c r="M31" s="317"/>
       <c r="N31" s="8">
         <v>0</v>
       </c>
@@ -6482,12 +6492,12 @@
       <c r="S31" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="T31" s="311" t="s">
+      <c r="T31" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U31" s="312"/>
-      <c r="V31" s="313"/>
-      <c r="W31" s="314"/>
+      <c r="U31" s="324"/>
+      <c r="V31" s="316"/>
+      <c r="W31" s="317"/>
       <c r="X31" s="8" t="s">
         <v>71</v>
       </c>
@@ -6502,19 +6512,19 @@
       <c r="AJ31" s="13"/>
       <c r="AK31" s="13"/>
     </row>
-    <row r="32" spans="8:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:37" ht="20.100000000000001" customHeight="1">
       <c r="H32" s="18" t="s">
         <v>85</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="311" t="s">
+      <c r="J32" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="312"/>
-      <c r="L32" s="313"/>
-      <c r="M32" s="314"/>
+      <c r="K32" s="324"/>
+      <c r="L32" s="316"/>
+      <c r="M32" s="317"/>
       <c r="N32" s="8">
         <v>0</v>
       </c>
@@ -6530,8 +6540,8 @@
         <v>62</v>
       </c>
       <c r="U32" s="6"/>
-      <c r="V32" s="313"/>
-      <c r="W32" s="314"/>
+      <c r="V32" s="316"/>
+      <c r="W32" s="317"/>
       <c r="X32" s="8" t="s">
         <v>71</v>
       </c>
@@ -6541,7 +6551,7 @@
       <c r="Z32" s="17"/>
       <c r="AB32" s="14"/>
     </row>
-    <row r="33" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="H33" s="18" t="s">
         <v>86</v>
       </c>
@@ -6552,8 +6562,8 @@
         <v>62</v>
       </c>
       <c r="K33" s="6"/>
-      <c r="L33" s="313"/>
-      <c r="M33" s="314"/>
+      <c r="L33" s="316"/>
+      <c r="M33" s="317"/>
       <c r="N33" s="8" t="s">
         <v>72</v>
       </c>
@@ -6565,12 +6575,12 @@
       <c r="S33" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="T33" s="317" t="s">
+      <c r="T33" s="327" t="s">
         <v>126</v>
       </c>
-      <c r="U33" s="318"/>
-      <c r="V33" s="315"/>
-      <c r="W33" s="316"/>
+      <c r="U33" s="328"/>
+      <c r="V33" s="318"/>
+      <c r="W33" s="319"/>
       <c r="X33" s="21" t="s">
         <v>71</v>
       </c>
@@ -6583,7 +6593,7 @@
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
     </row>
-    <row r="34" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="H34" s="18" t="s">
         <v>87</v>
       </c>
@@ -6594,8 +6604,8 @@
         <v>62</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="313"/>
-      <c r="M34" s="314"/>
+      <c r="L34" s="316"/>
+      <c r="M34" s="317"/>
       <c r="N34" s="8" t="s">
         <v>72</v>
       </c>
@@ -6610,7 +6620,7 @@
       <c r="AH34" s="4"/>
       <c r="AI34" s="3"/>
     </row>
-    <row r="35" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H35" s="18" t="s">
         <v>88</v>
       </c>
@@ -6621,8 +6631,8 @@
         <v>62</v>
       </c>
       <c r="K35" s="6"/>
-      <c r="L35" s="313"/>
-      <c r="M35" s="314"/>
+      <c r="L35" s="316"/>
+      <c r="M35" s="317"/>
       <c r="N35" s="8" t="s">
         <v>72</v>
       </c>
@@ -6631,31 +6641,31 @@
       <c r="R35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S35" s="319" t="s">
+      <c r="S35" s="320" t="s">
         <v>23</v>
       </c>
-      <c r="T35" s="320"/>
-      <c r="U35" s="320"/>
-      <c r="V35" s="320"/>
-      <c r="W35" s="320"/>
-      <c r="X35" s="320"/>
-      <c r="Y35" s="320"/>
-      <c r="Z35" s="321"/>
+      <c r="T35" s="321"/>
+      <c r="U35" s="321"/>
+      <c r="V35" s="321"/>
+      <c r="W35" s="321"/>
+      <c r="X35" s="321"/>
+      <c r="Y35" s="321"/>
+      <c r="Z35" s="322"/>
       <c r="AB35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC35" s="319" t="s">
+      <c r="AC35" s="320" t="s">
         <v>27</v>
       </c>
-      <c r="AD35" s="320"/>
-      <c r="AE35" s="320"/>
-      <c r="AF35" s="320"/>
-      <c r="AG35" s="320"/>
-      <c r="AH35" s="320"/>
-      <c r="AI35" s="320"/>
-      <c r="AJ35" s="321"/>
-    </row>
-    <row r="36" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD35" s="321"/>
+      <c r="AE35" s="321"/>
+      <c r="AF35" s="321"/>
+      <c r="AG35" s="321"/>
+      <c r="AH35" s="321"/>
+      <c r="AI35" s="321"/>
+      <c r="AJ35" s="322"/>
+    </row>
+    <row r="36" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H36" s="18" t="s">
         <v>89</v>
       </c>
@@ -6666,8 +6676,8 @@
         <v>62</v>
       </c>
       <c r="K36" s="6"/>
-      <c r="L36" s="313"/>
-      <c r="M36" s="314"/>
+      <c r="L36" s="316"/>
+      <c r="M36" s="317"/>
       <c r="N36" s="8" t="s">
         <v>72</v>
       </c>
@@ -6679,14 +6689,14 @@
       <c r="S36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T36" s="313" t="s">
+      <c r="T36" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="U36" s="314"/>
-      <c r="V36" s="313" t="s">
+      <c r="U36" s="317"/>
+      <c r="V36" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="W36" s="314"/>
+      <c r="W36" s="317"/>
       <c r="X36" s="5" t="s">
         <v>36</v>
       </c>
@@ -6702,14 +6712,14 @@
       <c r="AC36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD36" s="313" t="s">
+      <c r="AD36" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="AE36" s="314"/>
-      <c r="AF36" s="313" t="s">
+      <c r="AE36" s="317"/>
+      <c r="AF36" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="AG36" s="314"/>
+      <c r="AG36" s="317"/>
       <c r="AH36" s="5" t="s">
         <v>36</v>
       </c>
@@ -6720,7 +6730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H37" s="18" t="s">
         <v>90</v>
       </c>
@@ -6731,8 +6741,8 @@
         <v>62</v>
       </c>
       <c r="K37" s="6"/>
-      <c r="L37" s="313"/>
-      <c r="M37" s="314"/>
+      <c r="L37" s="316"/>
+      <c r="M37" s="317"/>
       <c r="N37" s="8" t="s">
         <v>72</v>
       </c>
@@ -6744,12 +6754,12 @@
       <c r="S37" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="T37" s="311" t="s">
+      <c r="T37" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U37" s="312"/>
-      <c r="V37" s="313"/>
-      <c r="W37" s="314"/>
+      <c r="U37" s="324"/>
+      <c r="V37" s="316"/>
+      <c r="W37" s="317"/>
       <c r="X37" s="7" t="s">
         <v>71</v>
       </c>
@@ -6763,12 +6773,12 @@
       <c r="AC37" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AD37" s="311" t="s">
+      <c r="AD37" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE37" s="312"/>
-      <c r="AF37" s="313"/>
-      <c r="AG37" s="314"/>
+      <c r="AE37" s="324"/>
+      <c r="AF37" s="316"/>
+      <c r="AG37" s="317"/>
       <c r="AH37" s="7" t="s">
         <v>71</v>
       </c>
@@ -6777,7 +6787,7 @@
       </c>
       <c r="AJ37" s="17"/>
     </row>
-    <row r="38" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H38" s="18" t="s">
         <v>91</v>
       </c>
@@ -6788,8 +6798,8 @@
         <v>62</v>
       </c>
       <c r="K38" s="6"/>
-      <c r="L38" s="313"/>
-      <c r="M38" s="314"/>
+      <c r="L38" s="316"/>
+      <c r="M38" s="317"/>
       <c r="N38" s="8" t="s">
         <v>72</v>
       </c>
@@ -6801,12 +6811,12 @@
       <c r="S38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="T38" s="311" t="s">
+      <c r="T38" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U38" s="312"/>
-      <c r="V38" s="313"/>
-      <c r="W38" s="314"/>
+      <c r="U38" s="324"/>
+      <c r="V38" s="316"/>
+      <c r="W38" s="317"/>
       <c r="X38" s="8" t="s">
         <v>71</v>
       </c>
@@ -6820,12 +6830,12 @@
       <c r="AC38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AD38" s="311" t="s">
+      <c r="AD38" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE38" s="312"/>
-      <c r="AF38" s="313"/>
-      <c r="AG38" s="314"/>
+      <c r="AE38" s="324"/>
+      <c r="AF38" s="316"/>
+      <c r="AG38" s="317"/>
       <c r="AH38" s="8" t="s">
         <v>71</v>
       </c>
@@ -6834,7 +6844,7 @@
       </c>
       <c r="AJ38" s="17"/>
     </row>
-    <row r="39" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H39" s="24" t="s">
         <v>92</v>
       </c>
@@ -6845,8 +6855,8 @@
         <v>62</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="313"/>
-      <c r="M39" s="314"/>
+      <c r="L39" s="316"/>
+      <c r="M39" s="317"/>
       <c r="N39" s="8" t="s">
         <v>72</v>
       </c>
@@ -6858,12 +6868,12 @@
       <c r="S39" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="T39" s="311" t="s">
+      <c r="T39" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U39" s="312"/>
-      <c r="V39" s="313"/>
-      <c r="W39" s="314"/>
+      <c r="U39" s="324"/>
+      <c r="V39" s="316"/>
+      <c r="W39" s="317"/>
       <c r="X39" s="8" t="s">
         <v>71</v>
       </c>
@@ -6889,7 +6899,7 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="17"/>
     </row>
-    <row r="40" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H40" s="24" t="s">
         <v>93</v>
       </c>
@@ -6900,8 +6910,8 @@
         <v>62</v>
       </c>
       <c r="K40" s="6"/>
-      <c r="L40" s="313"/>
-      <c r="M40" s="314"/>
+      <c r="L40" s="316"/>
+      <c r="M40" s="317"/>
       <c r="N40" s="8" t="s">
         <v>72</v>
       </c>
@@ -6913,12 +6923,12 @@
       <c r="S40" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T40" s="311" t="s">
+      <c r="T40" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U40" s="312"/>
-      <c r="V40" s="313"/>
-      <c r="W40" s="314"/>
+      <c r="U40" s="324"/>
+      <c r="V40" s="316"/>
+      <c r="W40" s="317"/>
       <c r="X40" s="8" t="s">
         <v>71</v>
       </c>
@@ -6934,15 +6944,15 @@
         <v>62</v>
       </c>
       <c r="AE40" s="10"/>
-      <c r="AF40" s="313"/>
-      <c r="AG40" s="314"/>
+      <c r="AF40" s="316"/>
+      <c r="AG40" s="317"/>
       <c r="AH40" s="8" t="s">
         <v>71</v>
       </c>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="17"/>
     </row>
-    <row r="41" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H41" s="24" t="s">
         <v>94</v>
       </c>
@@ -6953,8 +6963,8 @@
         <v>62</v>
       </c>
       <c r="K41" s="6"/>
-      <c r="L41" s="313"/>
-      <c r="M41" s="314"/>
+      <c r="L41" s="316"/>
+      <c r="M41" s="317"/>
       <c r="N41" s="8" t="s">
         <v>72</v>
       </c>
@@ -6966,12 +6976,12 @@
       <c r="S41" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="T41" s="311" t="s">
+      <c r="T41" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U41" s="312"/>
-      <c r="V41" s="313"/>
-      <c r="W41" s="314"/>
+      <c r="U41" s="324"/>
+      <c r="V41" s="316"/>
+      <c r="W41" s="317"/>
       <c r="X41" s="8">
         <v>0</v>
       </c>
@@ -6983,21 +6993,21 @@
       <c r="AC41" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AD41" s="311" t="s">
+      <c r="AD41" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE41" s="312"/>
-      <c r="AF41" s="311" t="s">
+      <c r="AE41" s="324"/>
+      <c r="AF41" s="323" t="s">
         <v>195</v>
       </c>
-      <c r="AG41" s="312"/>
+      <c r="AG41" s="324"/>
       <c r="AH41" s="8">
         <v>0</v>
       </c>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="17"/>
     </row>
-    <row r="42" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H42" s="24" t="s">
         <v>95</v>
       </c>
@@ -7008,8 +7018,8 @@
         <v>62</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="L42" s="313"/>
-      <c r="M42" s="314"/>
+      <c r="L42" s="316"/>
+      <c r="M42" s="317"/>
       <c r="N42" s="8" t="s">
         <v>72</v>
       </c>
@@ -7021,12 +7031,12 @@
       <c r="S42" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="T42" s="311" t="s">
+      <c r="T42" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U42" s="312"/>
-      <c r="V42" s="313"/>
-      <c r="W42" s="314"/>
+      <c r="U42" s="324"/>
+      <c r="V42" s="316"/>
+      <c r="W42" s="317"/>
       <c r="X42" s="8">
         <v>0</v>
       </c>
@@ -7038,21 +7048,21 @@
       <c r="AC42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AD42" s="311" t="s">
+      <c r="AD42" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE42" s="312"/>
-      <c r="AF42" s="311" t="s">
+      <c r="AE42" s="324"/>
+      <c r="AF42" s="323" t="s">
         <v>252</v>
       </c>
-      <c r="AG42" s="312"/>
+      <c r="AG42" s="324"/>
       <c r="AH42" s="8" t="s">
         <v>72</v>
       </c>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="17"/>
     </row>
-    <row r="43" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H43" s="24" t="s">
         <v>96</v>
       </c>
@@ -7063,8 +7073,8 @@
         <v>67</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="313"/>
-      <c r="M43" s="314"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="317"/>
       <c r="N43" s="8" t="s">
         <v>72</v>
       </c>
@@ -7076,12 +7086,12 @@
       <c r="S43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="311" t="s">
+      <c r="T43" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U43" s="312"/>
-      <c r="V43" s="313"/>
-      <c r="W43" s="314"/>
+      <c r="U43" s="324"/>
+      <c r="V43" s="316"/>
+      <c r="W43" s="317"/>
       <c r="X43" s="8">
         <v>0</v>
       </c>
@@ -7093,10 +7103,10 @@
       <c r="AC43" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AD43" s="311" t="s">
+      <c r="AD43" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE43" s="312"/>
+      <c r="AE43" s="324"/>
       <c r="AF43" s="6" t="s">
         <v>251</v>
       </c>
@@ -7107,7 +7117,7 @@
       <c r="AI43" s="6"/>
       <c r="AJ43" s="17"/>
     </row>
-    <row r="44" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H44" s="24" t="s">
         <v>97</v>
       </c>
@@ -7118,8 +7128,8 @@
         <v>67</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="313"/>
-      <c r="M44" s="314"/>
+      <c r="L44" s="316"/>
+      <c r="M44" s="317"/>
       <c r="N44" s="8" t="s">
         <v>72</v>
       </c>
@@ -7131,12 +7141,12 @@
       <c r="S44" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="T44" s="311" t="s">
+      <c r="T44" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="U44" s="312"/>
-      <c r="V44" s="313"/>
-      <c r="W44" s="314"/>
+      <c r="U44" s="324"/>
+      <c r="V44" s="316"/>
+      <c r="W44" s="317"/>
       <c r="X44" s="8" t="s">
         <v>71</v>
       </c>
@@ -7162,7 +7172,7 @@
       <c r="AI44" s="6"/>
       <c r="AJ44" s="17"/>
     </row>
-    <row r="45" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="H45" s="24" t="s">
         <v>98</v>
       </c>
@@ -7173,8 +7183,8 @@
         <v>67</v>
       </c>
       <c r="K45" s="6"/>
-      <c r="L45" s="313"/>
-      <c r="M45" s="314"/>
+      <c r="L45" s="316"/>
+      <c r="M45" s="317"/>
       <c r="N45" s="8" t="s">
         <v>72</v>
       </c>
@@ -7186,12 +7196,12 @@
       <c r="S45" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="T45" s="317" t="s">
+      <c r="T45" s="327" t="s">
         <v>215</v>
       </c>
-      <c r="U45" s="318"/>
-      <c r="V45" s="315"/>
-      <c r="W45" s="316"/>
+      <c r="U45" s="328"/>
+      <c r="V45" s="318"/>
+      <c r="W45" s="319"/>
       <c r="X45" s="21" t="s">
         <v>71</v>
       </c>
@@ -7217,7 +7227,7 @@
       <c r="AI45" s="6"/>
       <c r="AJ45" s="17"/>
     </row>
-    <row r="46" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H46" s="24" t="s">
         <v>99</v>
       </c>
@@ -7228,8 +7238,8 @@
         <v>67</v>
       </c>
       <c r="K46" s="6"/>
-      <c r="L46" s="313"/>
-      <c r="M46" s="314"/>
+      <c r="L46" s="316"/>
+      <c r="M46" s="317"/>
       <c r="N46" s="8" t="s">
         <v>72</v>
       </c>
@@ -7245,15 +7255,15 @@
         <v>62</v>
       </c>
       <c r="AE46" s="10"/>
-      <c r="AF46" s="313"/>
-      <c r="AG46" s="314"/>
+      <c r="AF46" s="316"/>
+      <c r="AG46" s="317"/>
       <c r="AH46" s="8" t="s">
         <v>71</v>
       </c>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="17"/>
     </row>
-    <row r="47" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="H47" s="24" t="s">
         <v>100</v>
       </c>
@@ -7264,8 +7274,8 @@
         <v>67</v>
       </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="313"/>
-      <c r="M47" s="314"/>
+      <c r="L47" s="316"/>
+      <c r="M47" s="317"/>
       <c r="N47" s="8" t="s">
         <v>72</v>
       </c>
@@ -7277,19 +7287,19 @@
       <c r="AC47" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="AD47" s="317" t="s">
+      <c r="AD47" s="327" t="s">
         <v>126</v>
       </c>
-      <c r="AE47" s="318"/>
-      <c r="AF47" s="315"/>
-      <c r="AG47" s="316"/>
+      <c r="AE47" s="328"/>
+      <c r="AF47" s="318"/>
+      <c r="AG47" s="319"/>
       <c r="AH47" s="21" t="s">
         <v>71</v>
       </c>
       <c r="AI47" s="20"/>
       <c r="AJ47" s="22"/>
     </row>
-    <row r="48" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="H48" s="24" t="s">
         <v>101</v>
       </c>
@@ -7300,15 +7310,15 @@
         <v>67</v>
       </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="313"/>
-      <c r="M48" s="314"/>
+      <c r="L48" s="316"/>
+      <c r="M48" s="317"/>
       <c r="N48" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="23"/>
     </row>
-    <row r="49" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H49" s="24" t="s">
         <v>103</v>
       </c>
@@ -7319,8 +7329,8 @@
         <v>67</v>
       </c>
       <c r="K49" s="6"/>
-      <c r="L49" s="315"/>
-      <c r="M49" s="316"/>
+      <c r="L49" s="316"/>
+      <c r="M49" s="317"/>
       <c r="N49" s="8" t="s">
         <v>72</v>
       </c>
@@ -7329,49 +7339,49 @@
       <c r="AB49" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC49" s="319" t="s">
+      <c r="AC49" s="320" t="s">
         <v>198</v>
       </c>
-      <c r="AD49" s="320"/>
-      <c r="AE49" s="320"/>
-      <c r="AF49" s="320"/>
-      <c r="AG49" s="320"/>
-      <c r="AH49" s="320"/>
-      <c r="AI49" s="320"/>
-      <c r="AJ49" s="321"/>
-    </row>
-    <row r="50" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H50" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="J50" s="317" t="s">
+      <c r="AD49" s="321"/>
+      <c r="AE49" s="321"/>
+      <c r="AF49" s="321"/>
+      <c r="AG49" s="321"/>
+      <c r="AH49" s="321"/>
+      <c r="AI49" s="321"/>
+      <c r="AJ49" s="322"/>
+    </row>
+    <row r="50" spans="8:36" ht="20.100000000000001" customHeight="1">
+      <c r="H50" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="J50" s="311" t="s">
         <v>126</v>
       </c>
-      <c r="K50" s="318"/>
-      <c r="L50" s="315"/>
-      <c r="M50" s="316"/>
-      <c r="N50" s="21" t="s">
+      <c r="K50" s="311"/>
+      <c r="L50" s="316"/>
+      <c r="M50" s="317"/>
+      <c r="N50" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="23"/>
       <c r="AB50" s="16" t="s">
         <v>33</v>
       </c>
       <c r="AC50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD50" s="324" t="s">
+      <c r="AD50" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="AE50" s="324"/>
-      <c r="AF50" s="324" t="s">
+      <c r="AE50" s="313"/>
+      <c r="AF50" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="AG50" s="324"/>
+      <c r="AG50" s="313"/>
       <c r="AH50" s="5" t="s">
         <v>36</v>
       </c>
@@ -7382,19 +7392,36 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="H51" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="J51" s="327" t="s">
+        <v>126</v>
+      </c>
+      <c r="K51" s="328"/>
+      <c r="L51" s="318"/>
+      <c r="M51" s="319"/>
+      <c r="N51" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
       <c r="AB51" s="18" t="s">
         <v>199</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AD51" s="322" t="s">
+      <c r="AD51" s="329" t="s">
         <v>65</v>
       </c>
-      <c r="AE51" s="322"/>
-      <c r="AF51" s="324"/>
-      <c r="AG51" s="324"/>
+      <c r="AE51" s="329"/>
+      <c r="AF51" s="313"/>
+      <c r="AG51" s="313"/>
       <c r="AH51" s="7" t="s">
         <v>71</v>
       </c>
@@ -7403,7 +7430,7 @@
       </c>
       <c r="AJ51" s="17"/>
     </row>
-    <row r="52" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="AB52" s="18" t="s">
         <v>200</v>
       </c>
@@ -7424,20 +7451,20 @@
       <c r="AI52" s="6"/>
       <c r="AJ52" s="17"/>
     </row>
-    <row r="53" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H53" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319" t="s">
+      <c r="I53" s="320" t="s">
         <v>102</v>
       </c>
-      <c r="J53" s="320"/>
-      <c r="K53" s="320"/>
-      <c r="L53" s="320"/>
-      <c r="M53" s="320"/>
-      <c r="N53" s="320"/>
-      <c r="O53" s="320"/>
-      <c r="P53" s="321"/>
+      <c r="J53" s="321"/>
+      <c r="K53" s="321"/>
+      <c r="L53" s="321"/>
+      <c r="M53" s="321"/>
+      <c r="N53" s="321"/>
+      <c r="O53" s="321"/>
+      <c r="P53" s="322"/>
       <c r="AB53" s="18" t="s">
         <v>185</v>
       </c>
@@ -7448,29 +7475,29 @@
         <v>62</v>
       </c>
       <c r="AE53" s="10"/>
-      <c r="AF53" s="324"/>
-      <c r="AG53" s="324"/>
+      <c r="AF53" s="313"/>
+      <c r="AG53" s="313"/>
       <c r="AH53" s="8" t="s">
         <v>71</v>
       </c>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="17"/>
     </row>
-    <row r="54" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H54" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J54" s="313" t="s">
+      <c r="J54" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="K54" s="314"/>
-      <c r="L54" s="313" t="s">
+      <c r="K54" s="317"/>
+      <c r="L54" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="M54" s="314"/>
+      <c r="M54" s="317"/>
       <c r="N54" s="5" t="s">
         <v>36</v>
       </c>
@@ -7490,27 +7517,27 @@
         <v>62</v>
       </c>
       <c r="AE54" s="10"/>
-      <c r="AF54" s="324"/>
-      <c r="AG54" s="324"/>
+      <c r="AF54" s="313"/>
+      <c r="AG54" s="313"/>
       <c r="AH54" s="8" t="s">
         <v>71</v>
       </c>
       <c r="AI54" s="6"/>
       <c r="AJ54" s="17"/>
     </row>
-    <row r="55" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H55" s="18" t="s">
         <v>73</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J55" s="311" t="s">
+      <c r="J55" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="K55" s="312"/>
-      <c r="L55" s="313"/>
-      <c r="M55" s="314"/>
+      <c r="K55" s="324"/>
+      <c r="L55" s="316"/>
+      <c r="M55" s="317"/>
       <c r="N55" s="7" t="s">
         <v>71</v>
       </c>
@@ -7524,31 +7551,31 @@
       <c r="AC55" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AD55" s="311" t="s">
+      <c r="AD55" s="323" t="s">
         <v>126</v>
       </c>
-      <c r="AE55" s="312"/>
-      <c r="AF55" s="324"/>
-      <c r="AG55" s="324"/>
+      <c r="AE55" s="324"/>
+      <c r="AF55" s="313"/>
+      <c r="AG55" s="313"/>
       <c r="AH55" s="8" t="s">
         <v>71</v>
       </c>
       <c r="AI55" s="6"/>
       <c r="AJ55" s="17"/>
     </row>
-    <row r="56" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="H56" s="19" t="s">
         <v>102</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="J56" s="317" t="s">
+      <c r="J56" s="327" t="s">
         <v>183</v>
       </c>
-      <c r="K56" s="318"/>
-      <c r="L56" s="315"/>
-      <c r="M56" s="316"/>
+      <c r="K56" s="328"/>
+      <c r="L56" s="318"/>
+      <c r="M56" s="319"/>
       <c r="N56" s="21" t="s">
         <v>71</v>
       </c>
@@ -7560,40 +7587,40 @@
       <c r="AC56" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AD56" s="322" t="s">
+      <c r="AD56" s="329" t="s">
         <v>65</v>
       </c>
-      <c r="AE56" s="322"/>
-      <c r="AF56" s="324"/>
-      <c r="AG56" s="324"/>
+      <c r="AE56" s="329"/>
+      <c r="AF56" s="313"/>
+      <c r="AG56" s="313"/>
       <c r="AH56" s="8">
         <v>0</v>
       </c>
       <c r="AI56" s="6"/>
       <c r="AJ56" s="17"/>
     </row>
-    <row r="57" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="AB57" s="18" t="s">
         <v>201</v>
       </c>
       <c r="AC57" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AD57" s="322" t="s">
+      <c r="AD57" s="329" t="s">
         <v>65</v>
       </c>
-      <c r="AE57" s="322"/>
-      <c r="AF57" s="311" t="s">
+      <c r="AE57" s="329"/>
+      <c r="AF57" s="323" t="s">
         <v>209</v>
       </c>
-      <c r="AG57" s="312"/>
+      <c r="AG57" s="324"/>
       <c r="AH57" s="8" t="s">
         <v>72</v>
       </c>
       <c r="AI57" s="6"/>
       <c r="AJ57" s="17"/>
     </row>
-    <row r="58" spans="8:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="AB58" s="18" t="s">
         <v>39</v>
       </c>
@@ -7604,31 +7631,31 @@
         <v>62</v>
       </c>
       <c r="AE58" s="10"/>
-      <c r="AF58" s="311" t="s">
+      <c r="AF58" s="323" t="s">
         <v>209</v>
       </c>
-      <c r="AG58" s="312"/>
+      <c r="AG58" s="324"/>
       <c r="AH58" s="8" t="s">
         <v>72</v>
       </c>
       <c r="AI58" s="6"/>
       <c r="AJ58" s="17"/>
     </row>
-    <row r="59" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:36" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="AB59" s="19" t="s">
         <v>202</v>
       </c>
       <c r="AC59" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="AD59" s="323" t="s">
+      <c r="AD59" s="330" t="s">
         <v>65</v>
       </c>
-      <c r="AE59" s="323"/>
-      <c r="AF59" s="317" t="s">
+      <c r="AE59" s="330"/>
+      <c r="AF59" s="327" t="s">
         <v>209</v>
       </c>
-      <c r="AG59" s="318"/>
+      <c r="AG59" s="328"/>
       <c r="AH59" s="21" t="s">
         <v>72</v>
       </c>
@@ -7636,87 +7663,160 @@
       <c r="AJ59" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="259">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="S35:Z35"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
+  <mergeCells count="260">
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="I53:P53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AD59:AE59"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="AF53:AG53"/>
+    <mergeCell ref="AF54:AG54"/>
+    <mergeCell ref="AF55:AG55"/>
+    <mergeCell ref="AF56:AG56"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="AF58:AG58"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="AC49:AJ49"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="S1:Z1"/>
     <mergeCell ref="S6:Z6"/>
@@ -7741,161 +7841,89 @@
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="S35:Z35"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
     <mergeCell ref="AC35:AJ35"/>
     <mergeCell ref="AD36:AE36"/>
     <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="AC49:AJ49"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AD50:AE50"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="I53:P53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AD59:AE59"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="AF53:AG53"/>
-    <mergeCell ref="AF54:AG54"/>
-    <mergeCell ref="AF55:AG55"/>
-    <mergeCell ref="AF56:AG56"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="AF58:AG58"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="AD55:AE55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7904,20 +7932,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A72E2E6-AC5F-4802-B73A-37AE7CCD0AF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="330" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="331" t="s">
         <v>253</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -7927,8 +7955,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="330"/>
+    <row r="2" spans="1:3">
+      <c r="A2" s="331"/>
       <c r="B2" s="32" t="s">
         <v>255</v>
       </c>
@@ -7936,7 +7964,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
         <v>257</v>
       </c>
@@ -7947,7 +7975,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="35" t="s">
         <v>260</v>
       </c>
@@ -7958,7 +7986,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="37" t="s">
         <v>263</v>
       </c>
@@ -7969,7 +7997,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="39" t="s">
         <v>266</v>
       </c>
@@ -7980,7 +8008,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="41" t="s">
         <v>269</v>
       </c>
@@ -7991,7 +8019,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="43" t="s">
         <v>272</v>
       </c>
@@ -8002,7 +8030,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="45" t="s">
         <v>275</v>
       </c>
@@ -8013,7 +8041,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="47" t="s">
         <v>278</v>
       </c>
@@ -8024,7 +8052,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="49" t="s">
         <v>281</v>
       </c>
@@ -8035,7 +8063,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="51" t="s">
         <v>284</v>
       </c>
@@ -8046,7 +8074,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="53" t="s">
         <v>287</v>
       </c>
@@ -8057,7 +8085,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="55" t="s">
         <v>290</v>
       </c>
@@ -8068,7 +8096,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="57" t="s">
         <v>293</v>
       </c>
@@ -8079,7 +8107,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="59" t="s">
         <v>296</v>
       </c>
@@ -8090,7 +8118,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="61" t="s">
         <v>299</v>
       </c>
@@ -8101,7 +8129,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="63" t="s">
         <v>302</v>
       </c>
@@ -8112,7 +8140,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="65" t="s">
         <v>305</v>
       </c>
@@ -8123,7 +8151,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="67" t="s">
         <v>308</v>
       </c>
@@ -8134,7 +8162,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="69" t="s">
         <v>311</v>
       </c>
@@ -8145,7 +8173,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="71" t="s">
         <v>314</v>
       </c>
@@ -8156,7 +8184,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="73" t="s">
         <v>317</v>
       </c>
@@ -8167,7 +8195,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="75" t="s">
         <v>320</v>
       </c>
@@ -8178,7 +8206,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="77" t="s">
         <v>323</v>
       </c>
@@ -8189,7 +8217,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="79" t="s">
         <v>326</v>
       </c>
@@ -8200,7 +8228,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="81" t="s">
         <v>329</v>
       </c>
@@ -8211,7 +8239,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="83" t="s">
         <v>332</v>
       </c>
@@ -8222,7 +8250,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="85" t="s">
         <v>335</v>
       </c>
@@ -8233,7 +8261,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="87" t="s">
         <v>338</v>
       </c>
@@ -8244,7 +8272,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="89" t="s">
         <v>341</v>
       </c>
@@ -8255,7 +8283,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="91" t="s">
         <v>344</v>
       </c>
@@ -8266,7 +8294,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="93" t="s">
         <v>347</v>
       </c>
@@ -8277,7 +8305,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="95" t="s">
         <v>350</v>
       </c>
@@ -8288,7 +8316,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="97" t="s">
         <v>353</v>
       </c>
@@ -8299,7 +8327,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="99" t="s">
         <v>356</v>
       </c>
@@ -8310,7 +8338,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="101" t="s">
         <v>359</v>
       </c>
@@ -8321,7 +8349,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="103" t="s">
         <v>362</v>
       </c>
@@ -8332,7 +8360,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="105" t="s">
         <v>365</v>
       </c>
@@ -8343,7 +8371,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="107" t="s">
         <v>368</v>
       </c>
@@ -8354,7 +8382,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="109" t="s">
         <v>371</v>
       </c>
@@ -8365,7 +8393,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="111" t="s">
         <v>374</v>
       </c>
@@ -8376,7 +8404,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="113" t="s">
         <v>377</v>
       </c>
@@ -8387,7 +8415,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="115" t="s">
         <v>380</v>
       </c>
@@ -8398,7 +8426,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="117" t="s">
         <v>383</v>
       </c>
@@ -8409,7 +8437,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="119" t="s">
         <v>386</v>
       </c>
@@ -8420,7 +8448,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="121" t="s">
         <v>389</v>
       </c>
@@ -8431,7 +8459,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="123" t="s">
         <v>392</v>
       </c>
@@ -8442,7 +8470,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="125" t="s">
         <v>395</v>
       </c>
@@ -8453,7 +8481,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="127" t="s">
         <v>398</v>
       </c>
@@ -8464,7 +8492,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="129" t="s">
         <v>401</v>
       </c>
@@ -8475,7 +8503,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="131" t="s">
         <v>404</v>
       </c>
@@ -8486,7 +8514,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="133" t="s">
         <v>407</v>
       </c>
@@ -8497,7 +8525,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="135" t="s">
         <v>410</v>
       </c>
@@ -8508,7 +8536,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" s="137" t="s">
         <v>413</v>
       </c>
@@ -8519,7 +8547,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" s="139" t="s">
         <v>416</v>
       </c>
@@ -8530,7 +8558,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="141" t="s">
         <v>419</v>
       </c>
@@ -8541,7 +8569,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="143" t="s">
         <v>422</v>
       </c>
@@ -8552,7 +8580,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="145" t="s">
         <v>425</v>
       </c>
@@ -8563,7 +8591,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="147" t="s">
         <v>428</v>
       </c>
@@ -8574,7 +8602,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="149" t="s">
         <v>431</v>
       </c>
@@ -8585,7 +8613,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" s="151" t="s">
         <v>434</v>
       </c>
@@ -8596,7 +8624,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" s="153" t="s">
         <v>437</v>
       </c>
@@ -8607,7 +8635,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="155" t="s">
         <v>440</v>
       </c>
@@ -8618,7 +8646,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="157" t="s">
         <v>443</v>
       </c>
@@ -8629,7 +8657,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="159" t="s">
         <v>446</v>
       </c>
@@ -8640,7 +8668,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="161" t="s">
         <v>449</v>
       </c>
@@ -8651,7 +8679,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="163" t="s">
         <v>452</v>
       </c>
@@ -8662,7 +8690,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="165" t="s">
         <v>455</v>
       </c>
@@ -8673,7 +8701,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="167" t="s">
         <v>458</v>
       </c>
@@ -8684,7 +8712,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="169" t="s">
         <v>461</v>
       </c>
@@ -8695,7 +8723,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="169" t="s">
         <v>464</v>
       </c>
@@ -8706,7 +8734,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="171" t="s">
         <v>465</v>
       </c>
@@ -8717,7 +8745,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="173" t="s">
         <v>468</v>
       </c>
@@ -8728,7 +8756,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="175" t="s">
         <v>471</v>
       </c>
@@ -8739,7 +8767,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="177" t="s">
         <v>474</v>
       </c>
@@ -8750,7 +8778,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="179" t="s">
         <v>477</v>
       </c>
@@ -8761,7 +8789,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="181" t="s">
         <v>480</v>
       </c>
@@ -8772,7 +8800,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="183" t="s">
         <v>483</v>
       </c>
@@ -8783,7 +8811,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="185" t="s">
         <v>486</v>
       </c>
@@ -8794,7 +8822,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="187" t="s">
         <v>489</v>
       </c>
@@ -8805,7 +8833,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="189" t="s">
         <v>492</v>
       </c>
@@ -8816,7 +8844,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" s="191" t="s">
         <v>495</v>
       </c>
@@ -8827,7 +8855,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="193" t="s">
         <v>498</v>
       </c>
@@ -8838,7 +8866,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="195" t="s">
         <v>501</v>
       </c>
@@ -8849,7 +8877,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="197" t="s">
         <v>504</v>
       </c>
@@ -8860,7 +8888,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="199" t="s">
         <v>507</v>
       </c>
@@ -8871,7 +8899,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" s="201" t="s">
         <v>510</v>
       </c>
@@ -8882,7 +8910,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" s="203" t="s">
         <v>513</v>
       </c>
@@ -8893,7 +8921,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="205" t="s">
         <v>516</v>
       </c>
@@ -8904,7 +8932,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="207" t="s">
         <v>519</v>
       </c>
@@ -8915,7 +8943,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="209" t="s">
         <v>522</v>
       </c>
@@ -8926,7 +8954,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" s="211" t="s">
         <v>525</v>
       </c>
@@ -8937,7 +8965,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" s="213" t="s">
         <v>528</v>
       </c>
@@ -8948,7 +8976,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="215" t="s">
         <v>531</v>
       </c>
@@ -8959,7 +8987,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="217" t="s">
         <v>534</v>
       </c>
@@ -8970,7 +8998,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="219" t="s">
         <v>537</v>
       </c>
@@ -8981,7 +9009,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="221" t="s">
         <v>540</v>
       </c>
@@ -8992,7 +9020,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="223" t="s">
         <v>543</v>
       </c>
@@ -9003,7 +9031,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="225" t="s">
         <v>546</v>
       </c>
@@ -9014,7 +9042,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="227" t="s">
         <v>549</v>
       </c>
@@ -9025,7 +9053,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="229" t="s">
         <v>552</v>
       </c>
@@ -9036,7 +9064,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="231" t="s">
         <v>555</v>
       </c>
@@ -9047,7 +9075,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="231" t="s">
         <v>558</v>
       </c>
@@ -9058,7 +9086,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="233" t="s">
         <v>559</v>
       </c>
@@ -9069,7 +9097,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" s="235" t="s">
         <v>562</v>
       </c>
@@ -9080,7 +9108,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="237" t="s">
         <v>565</v>
       </c>
@@ -9091,7 +9119,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="239" t="s">
         <v>568</v>
       </c>
@@ -9102,7 +9130,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="241" t="s">
         <v>571</v>
       </c>
@@ -9113,7 +9141,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="243" t="s">
         <v>574</v>
       </c>
@@ -9124,7 +9152,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="245" t="s">
         <v>577</v>
       </c>
@@ -9135,7 +9163,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="247" t="s">
         <v>580</v>
       </c>
@@ -9146,7 +9174,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" s="249" t="s">
         <v>583</v>
       </c>
@@ -9157,7 +9185,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="251" t="s">
         <v>586</v>
       </c>
@@ -9168,7 +9196,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="253" t="s">
         <v>589</v>
       </c>
@@ -9179,7 +9207,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="255" t="s">
         <v>592</v>
       </c>
@@ -9190,7 +9218,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="257" t="s">
         <v>595</v>
       </c>
@@ -9201,7 +9229,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" s="259" t="s">
         <v>598</v>
       </c>
@@ -9212,7 +9240,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="261" t="s">
         <v>601</v>
       </c>
@@ -9223,7 +9251,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="263" t="s">
         <v>604</v>
       </c>
@@ -9234,7 +9262,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" s="265" t="s">
         <v>607</v>
       </c>
@@ -9245,7 +9273,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="267" t="s">
         <v>610</v>
       </c>
@@ -9256,7 +9284,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" s="269" t="s">
         <v>613</v>
       </c>
@@ -9267,7 +9295,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" s="271" t="s">
         <v>616</v>
       </c>
@@ -9278,7 +9306,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" s="273" t="s">
         <v>619</v>
       </c>
@@ -9289,7 +9317,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="275" t="s">
         <v>622</v>
       </c>
@@ -9300,7 +9328,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="277" t="s">
         <v>625</v>
       </c>
@@ -9311,7 +9339,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="279" t="s">
         <v>628</v>
       </c>
@@ -9322,7 +9350,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="281" t="s">
         <v>631</v>
       </c>
@@ -9333,7 +9361,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="283" t="s">
         <v>634</v>
       </c>
@@ -9344,7 +9372,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="285" t="s">
         <v>637</v>
       </c>
@@ -9355,7 +9383,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="287" t="s">
         <v>640</v>
       </c>
@@ -9366,7 +9394,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="289" t="s">
         <v>643</v>
       </c>
@@ -9377,7 +9405,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="291" t="s">
         <v>646</v>
       </c>
@@ -9388,7 +9416,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="293" t="s">
         <v>649</v>
       </c>
@@ -9399,7 +9427,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="295" t="s">
         <v>652</v>
       </c>
@@ -9410,7 +9438,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="297" t="s">
         <v>655</v>
       </c>
@@ -9421,7 +9449,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="299" t="s">
         <v>658</v>
       </c>
@@ -9432,7 +9460,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="301" t="s">
         <v>661</v>
       </c>
@@ -9443,7 +9471,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="303" t="s">
         <v>664</v>
       </c>
@@ -9454,7 +9482,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" s="305" t="s">
         <v>667</v>
       </c>
@@ -9465,7 +9493,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" s="307" t="s">
         <v>670</v>
       </c>
@@ -9476,7 +9504,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143" s="309" t="s">
         <v>673</v>
       </c>

--- a/테이블명세서.xlsx
+++ b/테이블명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Desktop\Beauty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Documents\KDG\Beauty\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1007,10 +1007,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1: 결제대기, 2: 결제완료, 3: 주문완료, 4: 배송준비, 5: 배송완료, 6: 수취확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2305,6 +2301,10 @@
   </si>
   <si>
     <t>mdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4406,62 +4406,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4748,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51:K51"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK25" sqref="AK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4762,18 +4762,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="325" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="314" t="s">
+      <c r="E1" s="328" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="314"/>
+      <c r="F1" s="328"/>
       <c r="H1" s="15" t="s">
         <v>12</v>
       </c>
@@ -4815,30 +4815,30 @@
       <c r="AJ1" s="322"/>
     </row>
     <row r="2" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="313"/>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
+      <c r="A2" s="325"/>
+      <c r="B2" s="325"/>
+      <c r="C2" s="325"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="314" t="s">
+      <c r="E2" s="328" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="314"/>
+      <c r="F2" s="328"/>
       <c r="H2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="316" t="s">
+      <c r="J2" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="317"/>
-      <c r="L2" s="316" t="s">
+      <c r="K2" s="319"/>
+      <c r="L2" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="317"/>
+      <c r="M2" s="319"/>
       <c r="N2" s="5" t="s">
         <v>36</v>
       </c>
@@ -4854,14 +4854,14 @@
       <c r="S2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="316" t="s">
+      <c r="T2" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="317"/>
-      <c r="V2" s="316" t="s">
+      <c r="U2" s="319"/>
+      <c r="V2" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="317"/>
+      <c r="W2" s="319"/>
       <c r="X2" s="5" t="s">
         <v>36</v>
       </c>
@@ -4877,14 +4877,14 @@
       <c r="AC2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="316" t="s">
+      <c r="AD2" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="317"/>
-      <c r="AF2" s="316" t="s">
+      <c r="AE2" s="319"/>
+      <c r="AF2" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="317"/>
+      <c r="AG2" s="319"/>
       <c r="AH2" s="5" t="s">
         <v>36</v>
       </c>
@@ -4899,17 +4899,17 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="314" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="314"/>
+      <c r="C3" s="328"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="315">
+      <c r="E3" s="329">
         <v>44987</v>
       </c>
-      <c r="F3" s="314"/>
+      <c r="F3" s="328"/>
       <c r="H3" s="18" t="s">
         <v>212</v>
       </c>
@@ -4920,8 +4920,8 @@
         <v>62</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="317"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="319"/>
       <c r="N3" s="7" t="s">
         <v>71</v>
       </c>
@@ -4935,12 +4935,12 @@
       <c r="S3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="323" t="s">
+      <c r="T3" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="324"/>
-      <c r="V3" s="316"/>
-      <c r="W3" s="317"/>
+      <c r="U3" s="317"/>
+      <c r="V3" s="318"/>
+      <c r="W3" s="319"/>
       <c r="X3" s="7" t="s">
         <v>71</v>
       </c>
@@ -4954,12 +4954,12 @@
       <c r="AC3" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AD3" s="323" t="s">
+      <c r="AD3" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE3" s="324"/>
-      <c r="AF3" s="316"/>
-      <c r="AG3" s="317"/>
+      <c r="AE3" s="317"/>
+      <c r="AF3" s="318"/>
+      <c r="AG3" s="319"/>
       <c r="AH3" s="7" t="s">
         <v>71</v>
       </c>
@@ -4972,17 +4972,17 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="314" t="s">
+      <c r="B4" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="314"/>
+      <c r="C4" s="328"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="314" t="s">
+      <c r="E4" s="328" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="314"/>
+      <c r="F4" s="328"/>
       <c r="H4" s="18" t="s">
         <v>40</v>
       </c>
@@ -4993,8 +4993,8 @@
         <v>62</v>
       </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="316"/>
-      <c r="M4" s="317"/>
+      <c r="L4" s="318"/>
+      <c r="M4" s="319"/>
       <c r="N4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5006,12 +5006,12 @@
       <c r="S4" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="327" t="s">
+      <c r="T4" s="314" t="s">
         <v>183</v>
       </c>
-      <c r="U4" s="328"/>
-      <c r="V4" s="318"/>
-      <c r="W4" s="319"/>
+      <c r="U4" s="315"/>
+      <c r="V4" s="312"/>
+      <c r="W4" s="313"/>
       <c r="X4" s="21" t="s">
         <v>71</v>
       </c>
@@ -5029,10 +5029,10 @@
         <v>62</v>
       </c>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="323" t="s">
+      <c r="AF4" s="316" t="s">
         <v>181</v>
       </c>
-      <c r="AG4" s="324"/>
+      <c r="AG4" s="317"/>
       <c r="AH4" s="8" t="s">
         <v>72</v>
       </c>
@@ -5050,8 +5050,8 @@
         <v>63</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="316"/>
-      <c r="M5" s="317"/>
+      <c r="L5" s="318"/>
+      <c r="M5" s="319"/>
       <c r="N5" s="8" t="s">
         <v>71</v>
       </c>
@@ -5065,14 +5065,14 @@
       <c r="AC5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AD5" s="323" t="s">
+      <c r="AD5" s="316" t="s">
         <v>214</v>
       </c>
-      <c r="AE5" s="324"/>
-      <c r="AF5" s="323" t="s">
+      <c r="AE5" s="317"/>
+      <c r="AF5" s="316" t="s">
         <v>182</v>
       </c>
-      <c r="AG5" s="324"/>
+      <c r="AG5" s="317"/>
       <c r="AH5" s="8" t="s">
         <v>72</v>
       </c>
@@ -5080,32 +5080,32 @@
       <c r="AJ5" s="17"/>
     </row>
     <row r="6" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="312" t="s">
+      <c r="A6" s="330" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="312"/>
-      <c r="C6" s="312" t="s">
+      <c r="B6" s="330"/>
+      <c r="C6" s="330" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312" t="s">
+      <c r="D6" s="330"/>
+      <c r="E6" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="312"/>
+      <c r="F6" s="330"/>
       <c r="H6" s="18" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="323" t="s">
+      <c r="J6" s="316" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="324"/>
-      <c r="L6" s="323" t="s">
+      <c r="K6" s="317"/>
+      <c r="L6" s="316" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="324"/>
+      <c r="M6" s="317"/>
       <c r="N6" s="8">
         <v>1</v>
       </c>
@@ -5130,12 +5130,12 @@
       <c r="AC6" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AD6" s="323" t="s">
+      <c r="AD6" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE6" s="324"/>
-      <c r="AF6" s="316"/>
-      <c r="AG6" s="317"/>
+      <c r="AE6" s="317"/>
+      <c r="AF6" s="318"/>
+      <c r="AG6" s="319"/>
       <c r="AH6" s="8">
         <v>0</v>
       </c>
@@ -5143,30 +5143,30 @@
       <c r="AJ6" s="17"/>
     </row>
     <row r="7" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="312" t="s">
+      <c r="A7" s="330" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="312"/>
-      <c r="C7" s="312" t="s">
+      <c r="B7" s="330"/>
+      <c r="C7" s="330" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="330"/>
+      <c r="F7" s="330"/>
       <c r="H7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="323" t="s">
+      <c r="J7" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="324"/>
-      <c r="L7" s="323" t="s">
+      <c r="K7" s="317"/>
+      <c r="L7" s="316" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="324"/>
+      <c r="M7" s="317"/>
       <c r="N7" s="8">
         <v>0</v>
       </c>
@@ -5178,14 +5178,14 @@
       <c r="S7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="316" t="s">
+      <c r="T7" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="317"/>
-      <c r="V7" s="316" t="s">
+      <c r="U7" s="319"/>
+      <c r="V7" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="317"/>
+      <c r="W7" s="319"/>
       <c r="X7" s="5" t="s">
         <v>36</v>
       </c>
@@ -5201,12 +5201,12 @@
       <c r="AC7" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="AD7" s="323" t="s">
+      <c r="AD7" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE7" s="324"/>
-      <c r="AF7" s="316"/>
-      <c r="AG7" s="317"/>
+      <c r="AE7" s="317"/>
+      <c r="AF7" s="318"/>
+      <c r="AG7" s="319"/>
       <c r="AH7" s="8">
         <v>0</v>
       </c>
@@ -5214,16 +5214,16 @@
       <c r="AJ7" s="17"/>
     </row>
     <row r="8" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="312" t="s">
+      <c r="A8" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="312"/>
-      <c r="C8" s="312" t="s">
+      <c r="B8" s="330"/>
+      <c r="C8" s="330" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="312"/>
-      <c r="E8" s="312"/>
-      <c r="F8" s="312"/>
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
       <c r="H8" s="18" t="s">
         <v>44</v>
       </c>
@@ -5234,8 +5234,8 @@
         <v>66</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="316"/>
-      <c r="M8" s="317"/>
+      <c r="L8" s="318"/>
+      <c r="M8" s="319"/>
       <c r="N8" s="8" t="s">
         <v>72</v>
       </c>
@@ -5247,12 +5247,12 @@
       <c r="S8" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T8" s="323" t="s">
+      <c r="T8" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="324"/>
-      <c r="V8" s="316"/>
-      <c r="W8" s="317"/>
+      <c r="U8" s="317"/>
+      <c r="V8" s="318"/>
+      <c r="W8" s="319"/>
       <c r="X8" s="7" t="s">
         <v>71</v>
       </c>
@@ -5266,12 +5266,12 @@
       <c r="AC8" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AD8" s="323" t="s">
+      <c r="AD8" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE8" s="324"/>
-      <c r="AF8" s="316"/>
-      <c r="AG8" s="317"/>
+      <c r="AE8" s="317"/>
+      <c r="AF8" s="318"/>
+      <c r="AG8" s="319"/>
       <c r="AH8" s="8">
         <v>0</v>
       </c>
@@ -5279,16 +5279,16 @@
       <c r="AJ8" s="17"/>
     </row>
     <row r="9" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="312" t="s">
+      <c r="A9" s="330" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="312"/>
-      <c r="C9" s="312" t="s">
+      <c r="B9" s="330"/>
+      <c r="C9" s="330" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
+      <c r="D9" s="330"/>
+      <c r="E9" s="330"/>
+      <c r="F9" s="330"/>
       <c r="H9" s="18" t="s">
         <v>45</v>
       </c>
@@ -5299,8 +5299,8 @@
         <v>67</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="316"/>
-      <c r="M9" s="317"/>
+      <c r="L9" s="318"/>
+      <c r="M9" s="319"/>
       <c r="N9" s="8" t="s">
         <v>72</v>
       </c>
@@ -5312,12 +5312,12 @@
       <c r="S9" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="T9" s="323" t="s">
+      <c r="T9" s="316" t="s">
         <v>183</v>
       </c>
-      <c r="U9" s="324"/>
-      <c r="V9" s="316"/>
-      <c r="W9" s="317"/>
+      <c r="U9" s="317"/>
+      <c r="V9" s="318"/>
+      <c r="W9" s="319"/>
       <c r="X9" s="8" t="s">
         <v>71</v>
       </c>
@@ -5331,12 +5331,12 @@
       <c r="AC9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AD9" s="323" t="s">
+      <c r="AD9" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE9" s="324"/>
-      <c r="AF9" s="316"/>
-      <c r="AG9" s="317"/>
+      <c r="AE9" s="317"/>
+      <c r="AF9" s="318"/>
+      <c r="AG9" s="319"/>
       <c r="AH9" s="8">
         <v>0</v>
       </c>
@@ -5344,16 +5344,16 @@
       <c r="AJ9" s="17"/>
     </row>
     <row r="10" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A10" s="312" t="s">
+      <c r="A10" s="330" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="312"/>
-      <c r="C10" s="312" t="s">
+      <c r="B10" s="330"/>
+      <c r="C10" s="330" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="312"/>
-      <c r="E10" s="312"/>
-      <c r="F10" s="312"/>
+      <c r="D10" s="330"/>
+      <c r="E10" s="330"/>
+      <c r="F10" s="330"/>
       <c r="H10" s="18" t="s">
         <v>46</v>
       </c>
@@ -5364,8 +5364,8 @@
         <v>67</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="316"/>
-      <c r="M10" s="317"/>
+      <c r="L10" s="318"/>
+      <c r="M10" s="319"/>
       <c r="N10" s="8" t="s">
         <v>72</v>
       </c>
@@ -5377,12 +5377,12 @@
       <c r="S10" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="T10" s="327" t="s">
+      <c r="T10" s="314" t="s">
         <v>183</v>
       </c>
-      <c r="U10" s="328"/>
-      <c r="V10" s="318"/>
-      <c r="W10" s="319"/>
+      <c r="U10" s="315"/>
+      <c r="V10" s="312"/>
+      <c r="W10" s="313"/>
       <c r="X10" s="21" t="s">
         <v>71</v>
       </c>
@@ -5394,12 +5394,12 @@
       <c r="AC10" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AD10" s="323" t="s">
+      <c r="AD10" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE10" s="324"/>
-      <c r="AF10" s="316"/>
-      <c r="AG10" s="317"/>
+      <c r="AE10" s="317"/>
+      <c r="AF10" s="318"/>
+      <c r="AG10" s="319"/>
       <c r="AH10" s="8">
         <v>0</v>
       </c>
@@ -5407,16 +5407,16 @@
       <c r="AJ10" s="17"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="312" t="s">
+      <c r="A11" s="330" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="312"/>
-      <c r="C11" s="312" t="s">
+      <c r="B11" s="330"/>
+      <c r="C11" s="330" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="312"/>
-      <c r="E11" s="312"/>
-      <c r="F11" s="312"/>
+      <c r="D11" s="330"/>
+      <c r="E11" s="330"/>
+      <c r="F11" s="330"/>
       <c r="H11" s="18" t="s">
         <v>47</v>
       </c>
@@ -5427,8 +5427,8 @@
         <v>67</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="316"/>
-      <c r="M11" s="317"/>
+      <c r="L11" s="318"/>
+      <c r="M11" s="319"/>
       <c r="N11" s="8" t="s">
         <v>72</v>
       </c>
@@ -5440,12 +5440,12 @@
       <c r="AC11" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="AD11" s="323" t="s">
+      <c r="AD11" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE11" s="324"/>
-      <c r="AF11" s="316"/>
-      <c r="AG11" s="317"/>
+      <c r="AE11" s="317"/>
+      <c r="AF11" s="318"/>
+      <c r="AG11" s="319"/>
       <c r="AH11" s="8">
         <v>0</v>
       </c>
@@ -5453,16 +5453,16 @@
       <c r="AJ11" s="17"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="312" t="s">
+      <c r="A12" s="330" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="312"/>
-      <c r="C12" s="312" t="s">
+      <c r="B12" s="330"/>
+      <c r="C12" s="330" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="312"/>
+      <c r="D12" s="330"/>
+      <c r="E12" s="330"/>
+      <c r="F12" s="330"/>
       <c r="H12" s="18" t="s">
         <v>48</v>
       </c>
@@ -5473,8 +5473,8 @@
         <v>67</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="316"/>
-      <c r="M12" s="317"/>
+      <c r="L12" s="318"/>
+      <c r="M12" s="319"/>
       <c r="N12" s="8" t="s">
         <v>71</v>
       </c>
@@ -5499,12 +5499,12 @@
       <c r="AC12" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AD12" s="323" t="s">
+      <c r="AD12" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE12" s="324"/>
-      <c r="AF12" s="316"/>
-      <c r="AG12" s="317"/>
+      <c r="AE12" s="317"/>
+      <c r="AF12" s="318"/>
+      <c r="AG12" s="319"/>
       <c r="AH12" s="8">
         <v>0</v>
       </c>
@@ -5512,28 +5512,28 @@
       <c r="AJ12" s="17"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="312" t="s">
+      <c r="A13" s="330" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="312"/>
-      <c r="C13" s="312" t="s">
+      <c r="B13" s="330"/>
+      <c r="C13" s="330" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="312"/>
-      <c r="E13" s="312"/>
-      <c r="F13" s="312"/>
+      <c r="D13" s="330"/>
+      <c r="E13" s="330"/>
+      <c r="F13" s="330"/>
       <c r="H13" s="18" t="s">
         <v>49</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="323" t="s">
+      <c r="J13" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="324"/>
-      <c r="L13" s="316"/>
-      <c r="M13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="318"/>
+      <c r="M13" s="319"/>
       <c r="N13" s="8" t="s">
         <v>71</v>
       </c>
@@ -5545,14 +5545,14 @@
       <c r="S13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="316" t="s">
+      <c r="T13" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="317"/>
-      <c r="V13" s="316" t="s">
+      <c r="U13" s="319"/>
+      <c r="V13" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="317"/>
+      <c r="W13" s="319"/>
       <c r="X13" s="5" t="s">
         <v>36</v>
       </c>
@@ -5568,12 +5568,12 @@
       <c r="AC13" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AD13" s="323" t="s">
+      <c r="AD13" s="316" t="s">
         <v>241</v>
       </c>
-      <c r="AE13" s="324"/>
-      <c r="AF13" s="316"/>
-      <c r="AG13" s="317"/>
+      <c r="AE13" s="317"/>
+      <c r="AF13" s="318"/>
+      <c r="AG13" s="319"/>
       <c r="AH13" s="7" t="s">
         <v>71</v>
       </c>
@@ -5581,16 +5581,16 @@
       <c r="AJ13" s="17"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="312" t="s">
+      <c r="A14" s="330" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="312"/>
-      <c r="C14" s="312" t="s">
+      <c r="B14" s="330"/>
+      <c r="C14" s="330" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="312"/>
-      <c r="E14" s="312"/>
-      <c r="F14" s="312"/>
+      <c r="D14" s="330"/>
+      <c r="E14" s="330"/>
+      <c r="F14" s="330"/>
       <c r="H14" s="18" t="s">
         <v>50</v>
       </c>
@@ -5601,8 +5601,8 @@
         <v>67</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="316"/>
-      <c r="M14" s="317"/>
+      <c r="L14" s="318"/>
+      <c r="M14" s="319"/>
       <c r="N14" s="8" t="s">
         <v>72</v>
       </c>
@@ -5614,12 +5614,12 @@
       <c r="S14" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="T14" s="323" t="s">
+      <c r="T14" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U14" s="324"/>
-      <c r="V14" s="316"/>
-      <c r="W14" s="317"/>
+      <c r="U14" s="317"/>
+      <c r="V14" s="318"/>
+      <c r="W14" s="319"/>
       <c r="X14" s="7" t="s">
         <v>71</v>
       </c>
@@ -5633,12 +5633,12 @@
       <c r="AC14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD14" s="323" t="s">
+      <c r="AD14" s="316" t="s">
         <v>242</v>
       </c>
-      <c r="AE14" s="324"/>
-      <c r="AF14" s="316"/>
-      <c r="AG14" s="317"/>
+      <c r="AE14" s="317"/>
+      <c r="AF14" s="318"/>
+      <c r="AG14" s="319"/>
       <c r="AH14" s="7" t="s">
         <v>71</v>
       </c>
@@ -5646,16 +5646,16 @@
       <c r="AJ14" s="17"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A15" s="312" t="s">
+      <c r="A15" s="330" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="312"/>
-      <c r="C15" s="312" t="s">
+      <c r="B15" s="330"/>
+      <c r="C15" s="330" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="312"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="312"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
       <c r="H15" s="19" t="s">
         <v>51</v>
       </c>
@@ -5666,8 +5666,8 @@
         <v>67</v>
       </c>
       <c r="K15" s="20"/>
-      <c r="L15" s="318"/>
-      <c r="M15" s="319"/>
+      <c r="L15" s="312"/>
+      <c r="M15" s="313"/>
       <c r="N15" s="21" t="s">
         <v>72</v>
       </c>
@@ -5683,8 +5683,8 @@
         <v>62</v>
       </c>
       <c r="U15" s="9"/>
-      <c r="V15" s="316"/>
-      <c r="W15" s="317"/>
+      <c r="V15" s="318"/>
+      <c r="W15" s="319"/>
       <c r="X15" s="7" t="s">
         <v>71</v>
       </c>
@@ -5700,8 +5700,8 @@
         <v>62</v>
       </c>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="316"/>
-      <c r="AG15" s="317"/>
+      <c r="AF15" s="318"/>
+      <c r="AG15" s="319"/>
       <c r="AH15" s="7" t="s">
         <v>71</v>
       </c>
@@ -5715,12 +5715,12 @@
       <c r="S16" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="T16" s="323" t="s">
+      <c r="T16" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U16" s="324"/>
-      <c r="V16" s="316"/>
-      <c r="W16" s="317"/>
+      <c r="U16" s="317"/>
+      <c r="V16" s="318"/>
+      <c r="W16" s="319"/>
       <c r="X16" s="8" t="s">
         <v>71</v>
       </c>
@@ -5738,8 +5738,8 @@
         <v>62</v>
       </c>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="316"/>
-      <c r="AG16" s="317"/>
+      <c r="AF16" s="318"/>
+      <c r="AG16" s="319"/>
       <c r="AH16" s="7" t="s">
         <v>71</v>
       </c>
@@ -5770,8 +5770,8 @@
         <v>62</v>
       </c>
       <c r="U17" s="9"/>
-      <c r="V17" s="316"/>
-      <c r="W17" s="317"/>
+      <c r="V17" s="318"/>
+      <c r="W17" s="319"/>
       <c r="X17" s="8" t="s">
         <v>71</v>
       </c>
@@ -5787,8 +5787,8 @@
         <v>62</v>
       </c>
       <c r="AE17" s="6"/>
-      <c r="AF17" s="316"/>
-      <c r="AG17" s="317"/>
+      <c r="AF17" s="318"/>
+      <c r="AG17" s="319"/>
       <c r="AH17" s="7" t="s">
         <v>71</v>
       </c>
@@ -5802,14 +5802,14 @@
       <c r="I18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="316" t="s">
+      <c r="J18" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="317"/>
-      <c r="L18" s="316" t="s">
+      <c r="K18" s="319"/>
+      <c r="L18" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="317"/>
+      <c r="M18" s="319"/>
       <c r="N18" s="5" t="s">
         <v>36</v>
       </c>
@@ -5825,12 +5825,12 @@
       <c r="S18" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="T18" s="323" t="s">
+      <c r="T18" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U18" s="324"/>
-      <c r="V18" s="316"/>
-      <c r="W18" s="317"/>
+      <c r="U18" s="317"/>
+      <c r="V18" s="318"/>
+      <c r="W18" s="319"/>
       <c r="X18" s="8">
         <v>0</v>
       </c>
@@ -5846,8 +5846,8 @@
         <v>62</v>
       </c>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="316"/>
-      <c r="AG18" s="317"/>
+      <c r="AF18" s="318"/>
+      <c r="AG18" s="319"/>
       <c r="AH18" s="7" t="s">
         <v>71</v>
       </c>
@@ -5861,12 +5861,12 @@
       <c r="I19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="323" t="s">
+      <c r="J19" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="324"/>
-      <c r="L19" s="316"/>
-      <c r="M19" s="317"/>
+      <c r="K19" s="317"/>
+      <c r="L19" s="318"/>
+      <c r="M19" s="319"/>
       <c r="N19" s="7" t="s">
         <v>71</v>
       </c>
@@ -5880,12 +5880,12 @@
       <c r="S19" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="T19" s="323" t="s">
+      <c r="T19" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U19" s="324"/>
-      <c r="V19" s="316"/>
-      <c r="W19" s="317"/>
+      <c r="U19" s="317"/>
+      <c r="V19" s="318"/>
+      <c r="W19" s="319"/>
       <c r="X19" s="8">
         <v>0</v>
       </c>
@@ -5897,12 +5897,12 @@
       <c r="AC19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AD19" s="323" t="s">
+      <c r="AD19" s="316" t="s">
         <v>241</v>
       </c>
-      <c r="AE19" s="324"/>
-      <c r="AF19" s="316"/>
-      <c r="AG19" s="317"/>
+      <c r="AE19" s="317"/>
+      <c r="AF19" s="318"/>
+      <c r="AG19" s="319"/>
       <c r="AH19" s="7" t="s">
         <v>71</v>
       </c>
@@ -5920,8 +5920,8 @@
         <v>62</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="316"/>
-      <c r="M20" s="317"/>
+      <c r="L20" s="318"/>
+      <c r="M20" s="319"/>
       <c r="N20" s="8" t="s">
         <v>71</v>
       </c>
@@ -5933,12 +5933,12 @@
       <c r="S20" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="T20" s="323" t="s">
+      <c r="T20" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U20" s="324"/>
-      <c r="V20" s="316"/>
-      <c r="W20" s="317"/>
+      <c r="U20" s="317"/>
+      <c r="V20" s="318"/>
+      <c r="W20" s="319"/>
       <c r="X20" s="8">
         <v>0</v>
       </c>
@@ -5950,12 +5950,12 @@
       <c r="AC20" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="AD20" s="323" t="s">
+      <c r="AD20" s="316" t="s">
         <v>242</v>
       </c>
-      <c r="AE20" s="324"/>
-      <c r="AF20" s="316"/>
-      <c r="AG20" s="317"/>
+      <c r="AE20" s="317"/>
+      <c r="AF20" s="318"/>
+      <c r="AG20" s="319"/>
       <c r="AH20" s="7" t="s">
         <v>71</v>
       </c>
@@ -5973,8 +5973,8 @@
         <v>62</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="316"/>
-      <c r="M21" s="317"/>
+      <c r="L21" s="318"/>
+      <c r="M21" s="319"/>
       <c r="N21" s="8" t="s">
         <v>71</v>
       </c>
@@ -5986,12 +5986,12 @@
       <c r="S21" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="T21" s="323" t="s">
+      <c r="T21" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U21" s="324"/>
-      <c r="V21" s="316"/>
-      <c r="W21" s="317"/>
+      <c r="U21" s="317"/>
+      <c r="V21" s="318"/>
+      <c r="W21" s="319"/>
       <c r="X21" s="8">
         <v>0</v>
       </c>
@@ -6007,8 +6007,8 @@
         <v>62</v>
       </c>
       <c r="AE21" s="6"/>
-      <c r="AF21" s="316"/>
-      <c r="AG21" s="317"/>
+      <c r="AF21" s="318"/>
+      <c r="AG21" s="319"/>
       <c r="AH21" s="7" t="s">
         <v>71</v>
       </c>
@@ -6022,12 +6022,12 @@
       <c r="I22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J22" s="323" t="s">
+      <c r="J22" s="316" t="s">
         <v>183</v>
       </c>
-      <c r="K22" s="324"/>
-      <c r="L22" s="316"/>
-      <c r="M22" s="317"/>
+      <c r="K22" s="317"/>
+      <c r="L22" s="318"/>
+      <c r="M22" s="319"/>
       <c r="N22" s="8" t="s">
         <v>71</v>
       </c>
@@ -6041,12 +6041,12 @@
       <c r="S22" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="T22" s="323" t="s">
+      <c r="T22" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U22" s="324"/>
-      <c r="V22" s="316"/>
-      <c r="W22" s="317"/>
+      <c r="U22" s="317"/>
+      <c r="V22" s="318"/>
+      <c r="W22" s="319"/>
       <c r="X22" s="8">
         <v>1</v>
       </c>
@@ -6062,8 +6062,8 @@
         <v>62</v>
       </c>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="316"/>
-      <c r="AG22" s="317"/>
+      <c r="AF22" s="318"/>
+      <c r="AG22" s="319"/>
       <c r="AH22" s="7" t="s">
         <v>71</v>
       </c>
@@ -6077,12 +6077,12 @@
       <c r="I23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="323" t="s">
+      <c r="J23" s="316" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="324"/>
-      <c r="L23" s="316"/>
-      <c r="M23" s="317"/>
+      <c r="K23" s="317"/>
+      <c r="L23" s="318"/>
+      <c r="M23" s="319"/>
       <c r="N23" s="8" t="s">
         <v>71</v>
       </c>
@@ -6100,8 +6100,8 @@
         <v>62</v>
       </c>
       <c r="U23" s="9"/>
-      <c r="V23" s="316"/>
-      <c r="W23" s="317"/>
+      <c r="V23" s="318"/>
+      <c r="W23" s="319"/>
       <c r="X23" s="8" t="s">
         <v>71</v>
       </c>
@@ -6117,8 +6117,8 @@
         <v>62</v>
       </c>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="316"/>
-      <c r="AG23" s="317"/>
+      <c r="AF23" s="318"/>
+      <c r="AG23" s="319"/>
       <c r="AH23" s="7" t="s">
         <v>71</v>
       </c>
@@ -6132,12 +6132,12 @@
       <c r="I24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="323" t="s">
+      <c r="J24" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="324"/>
-      <c r="L24" s="316"/>
-      <c r="M24" s="317"/>
+      <c r="K24" s="317"/>
+      <c r="L24" s="318"/>
+      <c r="M24" s="319"/>
       <c r="N24" s="8">
         <v>0</v>
       </c>
@@ -6153,8 +6153,8 @@
         <v>62</v>
       </c>
       <c r="U24" s="9"/>
-      <c r="V24" s="316"/>
-      <c r="W24" s="317"/>
+      <c r="V24" s="318"/>
+      <c r="W24" s="319"/>
       <c r="X24" s="8" t="s">
         <v>71</v>
       </c>
@@ -6166,12 +6166,12 @@
       <c r="AC24" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AD24" s="323" t="s">
+      <c r="AD24" s="316" t="s">
         <v>247</v>
       </c>
-      <c r="AE24" s="324"/>
-      <c r="AF24" s="316"/>
-      <c r="AG24" s="317"/>
+      <c r="AE24" s="317"/>
+      <c r="AF24" s="318"/>
+      <c r="AG24" s="319"/>
       <c r="AH24" s="7" t="s">
         <v>71</v>
       </c>
@@ -6185,12 +6185,12 @@
       <c r="I25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="323" t="s">
+      <c r="J25" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="324"/>
-      <c r="L25" s="316"/>
-      <c r="M25" s="317"/>
+      <c r="K25" s="317"/>
+      <c r="L25" s="318"/>
+      <c r="M25" s="319"/>
       <c r="N25" s="8">
         <v>0</v>
       </c>
@@ -6206,8 +6206,8 @@
         <v>62</v>
       </c>
       <c r="U25" s="9"/>
-      <c r="V25" s="316"/>
-      <c r="W25" s="317"/>
+      <c r="V25" s="318"/>
+      <c r="W25" s="319"/>
       <c r="X25" s="8" t="s">
         <v>71</v>
       </c>
@@ -6219,12 +6219,12 @@
       <c r="AC25" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="AD25" s="323" t="s">
+      <c r="AD25" s="316" t="s">
         <v>64</v>
       </c>
-      <c r="AE25" s="324"/>
-      <c r="AF25" s="316"/>
-      <c r="AG25" s="317"/>
+      <c r="AE25" s="317"/>
+      <c r="AF25" s="318"/>
+      <c r="AG25" s="319"/>
       <c r="AH25" s="7" t="s">
         <v>71</v>
       </c>
@@ -6238,12 +6238,12 @@
       <c r="I26" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J26" s="323" t="s">
+      <c r="J26" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="324"/>
-      <c r="L26" s="316"/>
-      <c r="M26" s="317"/>
+      <c r="K26" s="317"/>
+      <c r="L26" s="318"/>
+      <c r="M26" s="319"/>
       <c r="N26" s="8">
         <v>0</v>
       </c>
@@ -6255,12 +6255,12 @@
       <c r="S26" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="T26" s="327" t="s">
+      <c r="T26" s="314" t="s">
         <v>126</v>
       </c>
-      <c r="U26" s="328"/>
-      <c r="V26" s="318"/>
-      <c r="W26" s="319"/>
+      <c r="U26" s="315"/>
+      <c r="V26" s="312"/>
+      <c r="W26" s="313"/>
       <c r="X26" s="21" t="s">
         <v>71</v>
       </c>
@@ -6272,12 +6272,12 @@
       <c r="AC26" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="AD26" s="325" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE26" s="326"/>
-      <c r="AF26" s="316"/>
-      <c r="AG26" s="317"/>
+      <c r="AD26" s="326" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE26" s="327"/>
+      <c r="AF26" s="318"/>
+      <c r="AG26" s="319"/>
       <c r="AH26" s="8">
         <v>1</v>
       </c>
@@ -6291,12 +6291,12 @@
       <c r="I27" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J27" s="323" t="s">
+      <c r="J27" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="324"/>
-      <c r="L27" s="316"/>
-      <c r="M27" s="317"/>
+      <c r="K27" s="317"/>
+      <c r="L27" s="318"/>
+      <c r="M27" s="319"/>
       <c r="N27" s="8">
         <v>0</v>
       </c>
@@ -6308,12 +6308,12 @@
       <c r="AC27" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="AD27" s="327" t="s">
+      <c r="AD27" s="314" t="s">
         <v>126</v>
       </c>
-      <c r="AE27" s="328"/>
-      <c r="AF27" s="318"/>
-      <c r="AG27" s="319"/>
+      <c r="AE27" s="315"/>
+      <c r="AF27" s="312"/>
+      <c r="AG27" s="313"/>
       <c r="AH27" s="31" t="s">
         <v>71</v>
       </c>
@@ -6327,12 +6327,12 @@
       <c r="I28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="323" t="s">
+      <c r="J28" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K28" s="324"/>
-      <c r="L28" s="316"/>
-      <c r="M28" s="317"/>
+      <c r="K28" s="317"/>
+      <c r="L28" s="318"/>
+      <c r="M28" s="319"/>
       <c r="N28" s="8">
         <v>0</v>
       </c>
@@ -6371,12 +6371,12 @@
       <c r="I29" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J29" s="323" t="s">
+      <c r="J29" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="324"/>
-      <c r="L29" s="316"/>
-      <c r="M29" s="317"/>
+      <c r="K29" s="317"/>
+      <c r="L29" s="318"/>
+      <c r="M29" s="319"/>
       <c r="N29" s="8">
         <v>0</v>
       </c>
@@ -6388,14 +6388,14 @@
       <c r="S29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T29" s="316" t="s">
+      <c r="T29" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="U29" s="317"/>
-      <c r="V29" s="316" t="s">
+      <c r="U29" s="319"/>
+      <c r="V29" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="W29" s="317"/>
+      <c r="W29" s="319"/>
       <c r="X29" s="5" t="s">
         <v>36</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>38</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AC29" s="12"/>
       <c r="AD29" s="12"/>
@@ -6425,12 +6425,12 @@
       <c r="I30" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J30" s="323" t="s">
+      <c r="J30" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="324"/>
-      <c r="L30" s="316"/>
-      <c r="M30" s="317"/>
+      <c r="K30" s="317"/>
+      <c r="L30" s="318"/>
+      <c r="M30" s="319"/>
       <c r="N30" s="8">
         <v>0</v>
       </c>
@@ -6442,12 +6442,12 @@
       <c r="S30" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="T30" s="323" t="s">
+      <c r="T30" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U30" s="324"/>
-      <c r="V30" s="316"/>
-      <c r="W30" s="317"/>
+      <c r="U30" s="317"/>
+      <c r="V30" s="318"/>
+      <c r="W30" s="319"/>
       <c r="X30" s="7" t="s">
         <v>71</v>
       </c>
@@ -6475,12 +6475,12 @@
       <c r="I31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="323" t="s">
+      <c r="J31" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K31" s="324"/>
-      <c r="L31" s="316"/>
-      <c r="M31" s="317"/>
+      <c r="K31" s="317"/>
+      <c r="L31" s="318"/>
+      <c r="M31" s="319"/>
       <c r="N31" s="8">
         <v>0</v>
       </c>
@@ -6492,12 +6492,12 @@
       <c r="S31" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="T31" s="323" t="s">
+      <c r="T31" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U31" s="324"/>
-      <c r="V31" s="316"/>
-      <c r="W31" s="317"/>
+      <c r="U31" s="317"/>
+      <c r="V31" s="318"/>
+      <c r="W31" s="319"/>
       <c r="X31" s="8" t="s">
         <v>71</v>
       </c>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="Z31" s="17"/>
       <c r="AB31" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AI31" s="12"/>
       <c r="AJ31" s="13"/>
@@ -6519,12 +6519,12 @@
       <c r="I32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="323" t="s">
+      <c r="J32" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="324"/>
-      <c r="L32" s="316"/>
-      <c r="M32" s="317"/>
+      <c r="K32" s="317"/>
+      <c r="L32" s="318"/>
+      <c r="M32" s="319"/>
       <c r="N32" s="8">
         <v>0</v>
       </c>
@@ -6540,8 +6540,8 @@
         <v>62</v>
       </c>
       <c r="U32" s="6"/>
-      <c r="V32" s="316"/>
-      <c r="W32" s="317"/>
+      <c r="V32" s="318"/>
+      <c r="W32" s="319"/>
       <c r="X32" s="8" t="s">
         <v>71</v>
       </c>
@@ -6562,8 +6562,8 @@
         <v>62</v>
       </c>
       <c r="K33" s="6"/>
-      <c r="L33" s="316"/>
-      <c r="M33" s="317"/>
+      <c r="L33" s="318"/>
+      <c r="M33" s="319"/>
       <c r="N33" s="8" t="s">
         <v>72</v>
       </c>
@@ -6575,12 +6575,12 @@
       <c r="S33" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="T33" s="327" t="s">
+      <c r="T33" s="314" t="s">
         <v>126</v>
       </c>
-      <c r="U33" s="328"/>
-      <c r="V33" s="318"/>
-      <c r="W33" s="319"/>
+      <c r="U33" s="315"/>
+      <c r="V33" s="312"/>
+      <c r="W33" s="313"/>
       <c r="X33" s="21" t="s">
         <v>71</v>
       </c>
@@ -6604,8 +6604,8 @@
         <v>62</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="316"/>
-      <c r="M34" s="317"/>
+      <c r="L34" s="318"/>
+      <c r="M34" s="319"/>
       <c r="N34" s="8" t="s">
         <v>72</v>
       </c>
@@ -6631,8 +6631,8 @@
         <v>62</v>
       </c>
       <c r="K35" s="6"/>
-      <c r="L35" s="316"/>
-      <c r="M35" s="317"/>
+      <c r="L35" s="318"/>
+      <c r="M35" s="319"/>
       <c r="N35" s="8" t="s">
         <v>72</v>
       </c>
@@ -6676,8 +6676,8 @@
         <v>62</v>
       </c>
       <c r="K36" s="6"/>
-      <c r="L36" s="316"/>
-      <c r="M36" s="317"/>
+      <c r="L36" s="318"/>
+      <c r="M36" s="319"/>
       <c r="N36" s="8" t="s">
         <v>72</v>
       </c>
@@ -6689,14 +6689,14 @@
       <c r="S36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T36" s="316" t="s">
+      <c r="T36" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="U36" s="317"/>
-      <c r="V36" s="316" t="s">
+      <c r="U36" s="319"/>
+      <c r="V36" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="W36" s="317"/>
+      <c r="W36" s="319"/>
       <c r="X36" s="5" t="s">
         <v>36</v>
       </c>
@@ -6712,14 +6712,14 @@
       <c r="AC36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD36" s="316" t="s">
+      <c r="AD36" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="AE36" s="317"/>
-      <c r="AF36" s="316" t="s">
+      <c r="AE36" s="319"/>
+      <c r="AF36" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="AG36" s="317"/>
+      <c r="AG36" s="319"/>
       <c r="AH36" s="5" t="s">
         <v>36</v>
       </c>
@@ -6741,8 +6741,8 @@
         <v>62</v>
       </c>
       <c r="K37" s="6"/>
-      <c r="L37" s="316"/>
-      <c r="M37" s="317"/>
+      <c r="L37" s="318"/>
+      <c r="M37" s="319"/>
       <c r="N37" s="8" t="s">
         <v>72</v>
       </c>
@@ -6754,12 +6754,12 @@
       <c r="S37" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="T37" s="323" t="s">
+      <c r="T37" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U37" s="324"/>
-      <c r="V37" s="316"/>
-      <c r="W37" s="317"/>
+      <c r="U37" s="317"/>
+      <c r="V37" s="318"/>
+      <c r="W37" s="319"/>
       <c r="X37" s="7" t="s">
         <v>71</v>
       </c>
@@ -6773,12 +6773,12 @@
       <c r="AC37" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AD37" s="323" t="s">
+      <c r="AD37" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE37" s="324"/>
-      <c r="AF37" s="316"/>
-      <c r="AG37" s="317"/>
+      <c r="AE37" s="317"/>
+      <c r="AF37" s="318"/>
+      <c r="AG37" s="319"/>
       <c r="AH37" s="7" t="s">
         <v>71</v>
       </c>
@@ -6798,8 +6798,8 @@
         <v>62</v>
       </c>
       <c r="K38" s="6"/>
-      <c r="L38" s="316"/>
-      <c r="M38" s="317"/>
+      <c r="L38" s="318"/>
+      <c r="M38" s="319"/>
       <c r="N38" s="8" t="s">
         <v>72</v>
       </c>
@@ -6811,12 +6811,12 @@
       <c r="S38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="T38" s="323" t="s">
+      <c r="T38" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U38" s="324"/>
-      <c r="V38" s="316"/>
-      <c r="W38" s="317"/>
+      <c r="U38" s="317"/>
+      <c r="V38" s="318"/>
+      <c r="W38" s="319"/>
       <c r="X38" s="8" t="s">
         <v>71</v>
       </c>
@@ -6830,12 +6830,12 @@
       <c r="AC38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AD38" s="323" t="s">
+      <c r="AD38" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE38" s="324"/>
-      <c r="AF38" s="316"/>
-      <c r="AG38" s="317"/>
+      <c r="AE38" s="317"/>
+      <c r="AF38" s="318"/>
+      <c r="AG38" s="319"/>
       <c r="AH38" s="8" t="s">
         <v>71</v>
       </c>
@@ -6855,8 +6855,8 @@
         <v>62</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="316"/>
-      <c r="M39" s="317"/>
+      <c r="L39" s="318"/>
+      <c r="M39" s="319"/>
       <c r="N39" s="8" t="s">
         <v>72</v>
       </c>
@@ -6868,12 +6868,12 @@
       <c r="S39" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="T39" s="323" t="s">
+      <c r="T39" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U39" s="324"/>
-      <c r="V39" s="316"/>
-      <c r="W39" s="317"/>
+      <c r="U39" s="317"/>
+      <c r="V39" s="318"/>
+      <c r="W39" s="319"/>
       <c r="X39" s="8" t="s">
         <v>71</v>
       </c>
@@ -6910,8 +6910,8 @@
         <v>62</v>
       </c>
       <c r="K40" s="6"/>
-      <c r="L40" s="316"/>
-      <c r="M40" s="317"/>
+      <c r="L40" s="318"/>
+      <c r="M40" s="319"/>
       <c r="N40" s="8" t="s">
         <v>72</v>
       </c>
@@ -6923,12 +6923,12 @@
       <c r="S40" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T40" s="323" t="s">
+      <c r="T40" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U40" s="324"/>
-      <c r="V40" s="316"/>
-      <c r="W40" s="317"/>
+      <c r="U40" s="317"/>
+      <c r="V40" s="318"/>
+      <c r="W40" s="319"/>
       <c r="X40" s="8" t="s">
         <v>71</v>
       </c>
@@ -6944,8 +6944,8 @@
         <v>62</v>
       </c>
       <c r="AE40" s="10"/>
-      <c r="AF40" s="316"/>
-      <c r="AG40" s="317"/>
+      <c r="AF40" s="318"/>
+      <c r="AG40" s="319"/>
       <c r="AH40" s="8" t="s">
         <v>71</v>
       </c>
@@ -6963,8 +6963,8 @@
         <v>62</v>
       </c>
       <c r="K41" s="6"/>
-      <c r="L41" s="316"/>
-      <c r="M41" s="317"/>
+      <c r="L41" s="318"/>
+      <c r="M41" s="319"/>
       <c r="N41" s="8" t="s">
         <v>72</v>
       </c>
@@ -6976,12 +6976,12 @@
       <c r="S41" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="T41" s="323" t="s">
+      <c r="T41" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U41" s="324"/>
-      <c r="V41" s="316"/>
-      <c r="W41" s="317"/>
+      <c r="U41" s="317"/>
+      <c r="V41" s="318"/>
+      <c r="W41" s="319"/>
       <c r="X41" s="8">
         <v>0</v>
       </c>
@@ -6993,14 +6993,14 @@
       <c r="AC41" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AD41" s="323" t="s">
+      <c r="AD41" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE41" s="324"/>
-      <c r="AF41" s="323" t="s">
+      <c r="AE41" s="317"/>
+      <c r="AF41" s="316" t="s">
         <v>195</v>
       </c>
-      <c r="AG41" s="324"/>
+      <c r="AG41" s="317"/>
       <c r="AH41" s="8">
         <v>0</v>
       </c>
@@ -7018,8 +7018,8 @@
         <v>62</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="L42" s="316"/>
-      <c r="M42" s="317"/>
+      <c r="L42" s="318"/>
+      <c r="M42" s="319"/>
       <c r="N42" s="8" t="s">
         <v>72</v>
       </c>
@@ -7031,12 +7031,12 @@
       <c r="S42" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="T42" s="323" t="s">
+      <c r="T42" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U42" s="324"/>
-      <c r="V42" s="316"/>
-      <c r="W42" s="317"/>
+      <c r="U42" s="317"/>
+      <c r="V42" s="318"/>
+      <c r="W42" s="319"/>
       <c r="X42" s="8">
         <v>0</v>
       </c>
@@ -7048,14 +7048,14 @@
       <c r="AC42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AD42" s="323" t="s">
+      <c r="AD42" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE42" s="324"/>
-      <c r="AF42" s="323" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG42" s="324"/>
+      <c r="AE42" s="317"/>
+      <c r="AF42" s="316" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG42" s="317"/>
       <c r="AH42" s="8" t="s">
         <v>72</v>
       </c>
@@ -7073,8 +7073,8 @@
         <v>67</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="316"/>
-      <c r="M43" s="317"/>
+      <c r="L43" s="318"/>
+      <c r="M43" s="319"/>
       <c r="N43" s="8" t="s">
         <v>72</v>
       </c>
@@ -7086,12 +7086,12 @@
       <c r="S43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="323" t="s">
+      <c r="T43" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U43" s="324"/>
-      <c r="V43" s="316"/>
-      <c r="W43" s="317"/>
+      <c r="U43" s="317"/>
+      <c r="V43" s="318"/>
+      <c r="W43" s="319"/>
       <c r="X43" s="8">
         <v>0</v>
       </c>
@@ -7103,12 +7103,12 @@
       <c r="AC43" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AD43" s="323" t="s">
+      <c r="AD43" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="AE43" s="324"/>
+      <c r="AE43" s="317"/>
       <c r="AF43" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG43" s="10"/>
       <c r="AH43" s="8" t="s">
@@ -7128,8 +7128,8 @@
         <v>67</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="316"/>
-      <c r="M44" s="317"/>
+      <c r="L44" s="318"/>
+      <c r="M44" s="319"/>
       <c r="N44" s="8" t="s">
         <v>72</v>
       </c>
@@ -7141,12 +7141,12 @@
       <c r="S44" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="T44" s="323" t="s">
+      <c r="T44" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="U44" s="324"/>
-      <c r="V44" s="316"/>
-      <c r="W44" s="317"/>
+      <c r="U44" s="317"/>
+      <c r="V44" s="318"/>
+      <c r="W44" s="319"/>
       <c r="X44" s="8" t="s">
         <v>71</v>
       </c>
@@ -7183,8 +7183,8 @@
         <v>67</v>
       </c>
       <c r="K45" s="6"/>
-      <c r="L45" s="316"/>
-      <c r="M45" s="317"/>
+      <c r="L45" s="318"/>
+      <c r="M45" s="319"/>
       <c r="N45" s="8" t="s">
         <v>72</v>
       </c>
@@ -7196,12 +7196,12 @@
       <c r="S45" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="T45" s="327" t="s">
+      <c r="T45" s="314" t="s">
         <v>215</v>
       </c>
-      <c r="U45" s="328"/>
-      <c r="V45" s="318"/>
-      <c r="W45" s="319"/>
+      <c r="U45" s="315"/>
+      <c r="V45" s="312"/>
+      <c r="W45" s="313"/>
       <c r="X45" s="21" t="s">
         <v>71</v>
       </c>
@@ -7238,8 +7238,8 @@
         <v>67</v>
       </c>
       <c r="K46" s="6"/>
-      <c r="L46" s="316"/>
-      <c r="M46" s="317"/>
+      <c r="L46" s="318"/>
+      <c r="M46" s="319"/>
       <c r="N46" s="8" t="s">
         <v>72</v>
       </c>
@@ -7255,8 +7255,8 @@
         <v>62</v>
       </c>
       <c r="AE46" s="10"/>
-      <c r="AF46" s="316"/>
-      <c r="AG46" s="317"/>
+      <c r="AF46" s="318"/>
+      <c r="AG46" s="319"/>
       <c r="AH46" s="8" t="s">
         <v>71</v>
       </c>
@@ -7274,8 +7274,8 @@
         <v>67</v>
       </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="316"/>
-      <c r="M47" s="317"/>
+      <c r="L47" s="318"/>
+      <c r="M47" s="319"/>
       <c r="N47" s="8" t="s">
         <v>72</v>
       </c>
@@ -7287,12 +7287,12 @@
       <c r="AC47" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="AD47" s="327" t="s">
+      <c r="AD47" s="314" t="s">
         <v>126</v>
       </c>
-      <c r="AE47" s="328"/>
-      <c r="AF47" s="318"/>
-      <c r="AG47" s="319"/>
+      <c r="AE47" s="315"/>
+      <c r="AF47" s="312"/>
+      <c r="AG47" s="313"/>
       <c r="AH47" s="21" t="s">
         <v>71</v>
       </c>
@@ -7310,8 +7310,8 @@
         <v>67</v>
       </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="316"/>
-      <c r="M48" s="317"/>
+      <c r="L48" s="318"/>
+      <c r="M48" s="319"/>
       <c r="N48" s="8" t="s">
         <v>72</v>
       </c>
@@ -7329,8 +7329,8 @@
         <v>67</v>
       </c>
       <c r="K49" s="6"/>
-      <c r="L49" s="316"/>
-      <c r="M49" s="317"/>
+      <c r="L49" s="318"/>
+      <c r="M49" s="319"/>
       <c r="N49" s="8" t="s">
         <v>72</v>
       </c>
@@ -7352,17 +7352,17 @@
     </row>
     <row r="50" spans="8:36" ht="20.100000000000001" customHeight="1">
       <c r="H50" s="24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J50" s="311" t="s">
         <v>126</v>
       </c>
       <c r="K50" s="311"/>
-      <c r="L50" s="316"/>
-      <c r="M50" s="317"/>
+      <c r="L50" s="318"/>
+      <c r="M50" s="319"/>
       <c r="N50" s="8" t="s">
         <v>72</v>
       </c>
@@ -7374,14 +7374,14 @@
       <c r="AC50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD50" s="313" t="s">
+      <c r="AD50" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="AE50" s="313"/>
-      <c r="AF50" s="313" t="s">
+      <c r="AE50" s="325"/>
+      <c r="AF50" s="325" t="s">
         <v>13</v>
       </c>
-      <c r="AG50" s="313"/>
+      <c r="AG50" s="325"/>
       <c r="AH50" s="5" t="s">
         <v>36</v>
       </c>
@@ -7397,14 +7397,14 @@
         <v>104</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>677</v>
-      </c>
-      <c r="J51" s="327" t="s">
+        <v>676</v>
+      </c>
+      <c r="J51" s="314" t="s">
         <v>126</v>
       </c>
-      <c r="K51" s="328"/>
-      <c r="L51" s="318"/>
-      <c r="M51" s="319"/>
+      <c r="K51" s="315"/>
+      <c r="L51" s="312"/>
+      <c r="M51" s="313"/>
       <c r="N51" s="21" t="s">
         <v>72</v>
       </c>
@@ -7416,12 +7416,12 @@
       <c r="AC51" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AD51" s="329" t="s">
+      <c r="AD51" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE51" s="329"/>
-      <c r="AF51" s="313"/>
-      <c r="AG51" s="313"/>
+      <c r="AE51" s="323"/>
+      <c r="AF51" s="325"/>
+      <c r="AG51" s="325"/>
       <c r="AH51" s="7" t="s">
         <v>71</v>
       </c>
@@ -7475,8 +7475,8 @@
         <v>62</v>
       </c>
       <c r="AE53" s="10"/>
-      <c r="AF53" s="313"/>
-      <c r="AG53" s="313"/>
+      <c r="AF53" s="325"/>
+      <c r="AG53" s="325"/>
       <c r="AH53" s="8" t="s">
         <v>71</v>
       </c>
@@ -7490,14 +7490,14 @@
       <c r="I54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J54" s="316" t="s">
+      <c r="J54" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="K54" s="317"/>
-      <c r="L54" s="316" t="s">
+      <c r="K54" s="319"/>
+      <c r="L54" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="M54" s="317"/>
+      <c r="M54" s="319"/>
       <c r="N54" s="5" t="s">
         <v>36</v>
       </c>
@@ -7517,8 +7517,8 @@
         <v>62</v>
       </c>
       <c r="AE54" s="10"/>
-      <c r="AF54" s="313"/>
-      <c r="AG54" s="313"/>
+      <c r="AF54" s="325"/>
+      <c r="AG54" s="325"/>
       <c r="AH54" s="8" t="s">
         <v>71</v>
       </c>
@@ -7532,12 +7532,12 @@
       <c r="I55" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J55" s="323" t="s">
+      <c r="J55" s="316" t="s">
         <v>65</v>
       </c>
-      <c r="K55" s="324"/>
-      <c r="L55" s="316"/>
-      <c r="M55" s="317"/>
+      <c r="K55" s="317"/>
+      <c r="L55" s="318"/>
+      <c r="M55" s="319"/>
       <c r="N55" s="7" t="s">
         <v>71</v>
       </c>
@@ -7551,12 +7551,12 @@
       <c r="AC55" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AD55" s="323" t="s">
+      <c r="AD55" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="AE55" s="324"/>
-      <c r="AF55" s="313"/>
-      <c r="AG55" s="313"/>
+      <c r="AE55" s="317"/>
+      <c r="AF55" s="325"/>
+      <c r="AG55" s="325"/>
       <c r="AH55" s="8" t="s">
         <v>71</v>
       </c>
@@ -7568,14 +7568,14 @@
         <v>102</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>676</v>
-      </c>
-      <c r="J56" s="327" t="s">
+        <v>675</v>
+      </c>
+      <c r="J56" s="314" t="s">
         <v>183</v>
       </c>
-      <c r="K56" s="328"/>
-      <c r="L56" s="318"/>
-      <c r="M56" s="319"/>
+      <c r="K56" s="315"/>
+      <c r="L56" s="312"/>
+      <c r="M56" s="313"/>
       <c r="N56" s="21" t="s">
         <v>71</v>
       </c>
@@ -7587,12 +7587,12 @@
       <c r="AC56" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AD56" s="329" t="s">
+      <c r="AD56" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE56" s="329"/>
-      <c r="AF56" s="313"/>
-      <c r="AG56" s="313"/>
+      <c r="AE56" s="323"/>
+      <c r="AF56" s="325"/>
+      <c r="AG56" s="325"/>
       <c r="AH56" s="8">
         <v>0</v>
       </c>
@@ -7606,14 +7606,14 @@
       <c r="AC57" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AD57" s="329" t="s">
+      <c r="AD57" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="AE57" s="329"/>
-      <c r="AF57" s="323" t="s">
+      <c r="AE57" s="323"/>
+      <c r="AF57" s="316" t="s">
         <v>209</v>
       </c>
-      <c r="AG57" s="324"/>
+      <c r="AG57" s="317"/>
       <c r="AH57" s="8" t="s">
         <v>72</v>
       </c>
@@ -7631,10 +7631,10 @@
         <v>62</v>
       </c>
       <c r="AE58" s="10"/>
-      <c r="AF58" s="323" t="s">
+      <c r="AF58" s="316" t="s">
         <v>209</v>
       </c>
-      <c r="AG58" s="324"/>
+      <c r="AG58" s="317"/>
       <c r="AH58" s="8" t="s">
         <v>72</v>
       </c>
@@ -7648,14 +7648,14 @@
       <c r="AC59" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="AD59" s="330" t="s">
+      <c r="AD59" s="324" t="s">
         <v>65</v>
       </c>
-      <c r="AE59" s="330"/>
-      <c r="AF59" s="327" t="s">
+      <c r="AE59" s="324"/>
+      <c r="AF59" s="314" t="s">
         <v>209</v>
       </c>
-      <c r="AG59" s="328"/>
+      <c r="AG59" s="315"/>
       <c r="AH59" s="21" t="s">
         <v>72</v>
       </c>
@@ -7664,92 +7664,149 @@
     </row>
   </sheetData>
   <mergeCells count="260">
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="I53:P53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AD59:AE59"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="AF53:AG53"/>
-    <mergeCell ref="AF54:AG54"/>
-    <mergeCell ref="AF55:AG55"/>
-    <mergeCell ref="AF56:AG56"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="AF58:AG58"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="AD55:AE55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="AC49:AJ49"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AD50:AE50"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="AC35:AJ35"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="S35:Z35"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AF5:AG5"/>
     <mergeCell ref="J19:K19"/>
@@ -7774,156 +7831,99 @@
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="V19:W19"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="S12:Z12"/>
     <mergeCell ref="S28:Z28"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="V23:W23"/>
     <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="S35:Z35"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AC35:AJ35"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AD59:AE59"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="AF53:AG53"/>
+    <mergeCell ref="AF54:AG54"/>
+    <mergeCell ref="AF55:AG55"/>
+    <mergeCell ref="AF56:AG56"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="AF58:AG58"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="AC49:AJ49"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="I53:P53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7946,1573 +7946,1573 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="331" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>254</v>
-      </c>
       <c r="C1" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="331"/>
       <c r="B2" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="C3" s="34" t="s">
         <v>258</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="36" t="s">
         <v>261</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="38" t="s">
         <v>264</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="C6" s="40" t="s">
         <v>267</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="C7" s="42" t="s">
         <v>270</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="C8" s="44" t="s">
         <v>273</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="C9" s="46" t="s">
         <v>276</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="C10" s="48" t="s">
         <v>279</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="C11" s="50" t="s">
         <v>282</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="C12" s="52" t="s">
         <v>285</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="C13" s="54" t="s">
         <v>288</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="C14" s="56" t="s">
         <v>291</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="C15" s="58" t="s">
         <v>294</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="C16" s="60" t="s">
         <v>297</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="C17" s="62" t="s">
         <v>300</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="C18" s="64" t="s">
         <v>303</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="C19" s="66" t="s">
         <v>306</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="C20" s="68" t="s">
         <v>309</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="70" t="s">
         <v>311</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="C21" s="70" t="s">
         <v>312</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="C22" s="72" t="s">
         <v>315</v>
-      </c>
-      <c r="C22" s="72" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="C23" s="74" t="s">
         <v>318</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="C24" s="76" t="s">
         <v>321</v>
-      </c>
-      <c r="C24" s="76" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="C25" s="78" t="s">
         <v>324</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" s="80" t="s">
         <v>326</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="C26" s="80" t="s">
         <v>327</v>
-      </c>
-      <c r="C26" s="80" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="81" t="s">
+        <v>328</v>
+      </c>
+      <c r="B27" s="82" t="s">
         <v>329</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="C27" s="82" t="s">
         <v>330</v>
-      </c>
-      <c r="C27" s="82" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28" s="84" t="s">
         <v>332</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="C28" s="84" t="s">
         <v>333</v>
-      </c>
-      <c r="C28" s="84" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="85" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="C29" s="86" t="s">
         <v>336</v>
-      </c>
-      <c r="C29" s="86" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="87" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" s="88" t="s">
         <v>338</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="C30" s="88" t="s">
         <v>339</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="89" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" s="90" t="s">
         <v>341</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="C31" s="90" t="s">
         <v>342</v>
-      </c>
-      <c r="C31" s="90" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="91" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" s="92" t="s">
         <v>344</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="C32" s="92" t="s">
         <v>345</v>
-      </c>
-      <c r="C32" s="92" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" s="94" t="s">
         <v>347</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="C33" s="94" t="s">
         <v>348</v>
-      </c>
-      <c r="C33" s="94" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="95" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" s="96" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="96" t="s">
+      <c r="C34" s="96" t="s">
         <v>351</v>
-      </c>
-      <c r="C34" s="96" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="97" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" s="98" t="s">
         <v>353</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="C35" s="98" t="s">
         <v>354</v>
-      </c>
-      <c r="C35" s="98" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="99" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="C36" s="100" t="s">
         <v>357</v>
-      </c>
-      <c r="C36" s="100" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="101" t="s">
+        <v>358</v>
+      </c>
+      <c r="B37" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="B37" s="102" t="s">
+      <c r="C37" s="102" t="s">
         <v>360</v>
-      </c>
-      <c r="C37" s="102" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="B38" s="104" t="s">
         <v>362</v>
       </c>
-      <c r="B38" s="104" t="s">
+      <c r="C38" s="104" t="s">
         <v>363</v>
-      </c>
-      <c r="C38" s="104" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="105" t="s">
+        <v>364</v>
+      </c>
+      <c r="B39" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="B39" s="106" t="s">
+      <c r="C39" s="106" t="s">
         <v>366</v>
-      </c>
-      <c r="C39" s="106" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="107" t="s">
+        <v>367</v>
+      </c>
+      <c r="B40" s="108" t="s">
         <v>368</v>
       </c>
-      <c r="B40" s="108" t="s">
+      <c r="C40" s="108" t="s">
         <v>369</v>
-      </c>
-      <c r="C40" s="108" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="109" t="s">
+        <v>370</v>
+      </c>
+      <c r="B41" s="110" t="s">
         <v>371</v>
       </c>
-      <c r="B41" s="110" t="s">
+      <c r="C41" s="110" t="s">
         <v>372</v>
-      </c>
-      <c r="C41" s="110" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="111" t="s">
+        <v>373</v>
+      </c>
+      <c r="B42" s="112" t="s">
         <v>374</v>
       </c>
-      <c r="B42" s="112" t="s">
+      <c r="C42" s="112" t="s">
         <v>375</v>
-      </c>
-      <c r="C42" s="112" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="113" t="s">
+        <v>376</v>
+      </c>
+      <c r="B43" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="B43" s="114" t="s">
+      <c r="C43" s="114" t="s">
         <v>378</v>
-      </c>
-      <c r="C43" s="114" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="115" t="s">
+        <v>379</v>
+      </c>
+      <c r="B44" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="B44" s="116" t="s">
+      <c r="C44" s="116" t="s">
         <v>381</v>
-      </c>
-      <c r="C44" s="116" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="117" t="s">
+        <v>382</v>
+      </c>
+      <c r="B45" s="118" t="s">
         <v>383</v>
       </c>
-      <c r="B45" s="118" t="s">
+      <c r="C45" s="118" t="s">
         <v>384</v>
-      </c>
-      <c r="C45" s="118" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="119" t="s">
+        <v>385</v>
+      </c>
+      <c r="B46" s="120" t="s">
         <v>386</v>
       </c>
-      <c r="B46" s="120" t="s">
+      <c r="C46" s="120" t="s">
         <v>387</v>
-      </c>
-      <c r="C46" s="120" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="121" t="s">
+        <v>388</v>
+      </c>
+      <c r="B47" s="122" t="s">
         <v>389</v>
       </c>
-      <c r="B47" s="122" t="s">
+      <c r="C47" s="122" t="s">
         <v>390</v>
-      </c>
-      <c r="C47" s="122" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="123" t="s">
+        <v>391</v>
+      </c>
+      <c r="B48" s="124" t="s">
         <v>392</v>
       </c>
-      <c r="B48" s="124" t="s">
+      <c r="C48" s="124" t="s">
         <v>393</v>
-      </c>
-      <c r="C48" s="124" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="125" t="s">
+        <v>394</v>
+      </c>
+      <c r="B49" s="126" t="s">
         <v>395</v>
       </c>
-      <c r="B49" s="126" t="s">
+      <c r="C49" s="126" t="s">
         <v>396</v>
-      </c>
-      <c r="C49" s="126" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="127" t="s">
+        <v>397</v>
+      </c>
+      <c r="B50" s="128" t="s">
         <v>398</v>
       </c>
-      <c r="B50" s="128" t="s">
+      <c r="C50" s="128" t="s">
         <v>399</v>
-      </c>
-      <c r="C50" s="128" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="129" t="s">
+        <v>400</v>
+      </c>
+      <c r="B51" s="130" t="s">
         <v>401</v>
       </c>
-      <c r="B51" s="130" t="s">
+      <c r="C51" s="130" t="s">
         <v>402</v>
-      </c>
-      <c r="C51" s="130" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="131" t="s">
+        <v>403</v>
+      </c>
+      <c r="B52" s="132" t="s">
         <v>404</v>
       </c>
-      <c r="B52" s="132" t="s">
+      <c r="C52" s="132" t="s">
         <v>405</v>
-      </c>
-      <c r="C52" s="132" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="133" t="s">
+        <v>406</v>
+      </c>
+      <c r="B53" s="134" t="s">
         <v>407</v>
       </c>
-      <c r="B53" s="134" t="s">
+      <c r="C53" s="134" t="s">
         <v>408</v>
-      </c>
-      <c r="C53" s="134" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="135" t="s">
+        <v>409</v>
+      </c>
+      <c r="B54" s="136" t="s">
         <v>410</v>
       </c>
-      <c r="B54" s="136" t="s">
+      <c r="C54" s="136" t="s">
         <v>411</v>
-      </c>
-      <c r="C54" s="136" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="137" t="s">
+        <v>412</v>
+      </c>
+      <c r="B55" s="138" t="s">
         <v>413</v>
       </c>
-      <c r="B55" s="138" t="s">
+      <c r="C55" s="138" t="s">
         <v>414</v>
-      </c>
-      <c r="C55" s="138" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="139" t="s">
+        <v>415</v>
+      </c>
+      <c r="B56" s="140" t="s">
         <v>416</v>
       </c>
-      <c r="B56" s="140" t="s">
+      <c r="C56" s="140" t="s">
         <v>417</v>
-      </c>
-      <c r="C56" s="140" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="141" t="s">
+        <v>418</v>
+      </c>
+      <c r="B57" s="142" t="s">
         <v>419</v>
       </c>
-      <c r="B57" s="142" t="s">
+      <c r="C57" s="142" t="s">
         <v>420</v>
-      </c>
-      <c r="C57" s="142" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="143" t="s">
+        <v>421</v>
+      </c>
+      <c r="B58" s="144" t="s">
         <v>422</v>
       </c>
-      <c r="B58" s="144" t="s">
+      <c r="C58" s="144" t="s">
         <v>423</v>
-      </c>
-      <c r="C58" s="144" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="145" t="s">
+        <v>424</v>
+      </c>
+      <c r="B59" s="146" t="s">
         <v>425</v>
       </c>
-      <c r="B59" s="146" t="s">
+      <c r="C59" s="146" t="s">
         <v>426</v>
-      </c>
-      <c r="C59" s="146" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="147" t="s">
+        <v>427</v>
+      </c>
+      <c r="B60" s="148" t="s">
         <v>428</v>
       </c>
-      <c r="B60" s="148" t="s">
+      <c r="C60" s="148" t="s">
         <v>429</v>
-      </c>
-      <c r="C60" s="148" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="149" t="s">
+        <v>430</v>
+      </c>
+      <c r="B61" s="150" t="s">
         <v>431</v>
       </c>
-      <c r="B61" s="150" t="s">
+      <c r="C61" s="150" t="s">
         <v>432</v>
-      </c>
-      <c r="C61" s="150" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="151" t="s">
+        <v>433</v>
+      </c>
+      <c r="B62" s="152" t="s">
         <v>434</v>
       </c>
-      <c r="B62" s="152" t="s">
+      <c r="C62" s="152" t="s">
         <v>435</v>
-      </c>
-      <c r="C62" s="152" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="153" t="s">
+        <v>436</v>
+      </c>
+      <c r="B63" s="154" t="s">
         <v>437</v>
       </c>
-      <c r="B63" s="154" t="s">
+      <c r="C63" s="154" t="s">
         <v>438</v>
-      </c>
-      <c r="C63" s="154" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="155" t="s">
+        <v>439</v>
+      </c>
+      <c r="B64" s="156" t="s">
         <v>440</v>
       </c>
-      <c r="B64" s="156" t="s">
+      <c r="C64" s="156" t="s">
         <v>441</v>
-      </c>
-      <c r="C64" s="156" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="157" t="s">
+        <v>442</v>
+      </c>
+      <c r="B65" s="158" t="s">
         <v>443</v>
       </c>
-      <c r="B65" s="158" t="s">
+      <c r="C65" s="158" t="s">
         <v>444</v>
-      </c>
-      <c r="C65" s="158" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="159" t="s">
+        <v>445</v>
+      </c>
+      <c r="B66" s="160" t="s">
         <v>446</v>
       </c>
-      <c r="B66" s="160" t="s">
+      <c r="C66" s="160" t="s">
         <v>447</v>
-      </c>
-      <c r="C66" s="160" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="161" t="s">
+        <v>448</v>
+      </c>
+      <c r="B67" s="162" t="s">
         <v>449</v>
       </c>
-      <c r="B67" s="162" t="s">
+      <c r="C67" s="162" t="s">
         <v>450</v>
-      </c>
-      <c r="C67" s="162" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="163" t="s">
+        <v>451</v>
+      </c>
+      <c r="B68" s="164" t="s">
         <v>452</v>
       </c>
-      <c r="B68" s="164" t="s">
+      <c r="C68" s="164" t="s">
         <v>453</v>
-      </c>
-      <c r="C68" s="164" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="165" t="s">
+        <v>454</v>
+      </c>
+      <c r="B69" s="166" t="s">
         <v>455</v>
       </c>
-      <c r="B69" s="166" t="s">
+      <c r="C69" s="166" t="s">
         <v>456</v>
-      </c>
-      <c r="C69" s="166" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="167" t="s">
+        <v>457</v>
+      </c>
+      <c r="B70" s="168" t="s">
         <v>458</v>
       </c>
-      <c r="B70" s="168" t="s">
+      <c r="C70" s="168" t="s">
         <v>459</v>
-      </c>
-      <c r="C70" s="168" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="169" t="s">
+        <v>460</v>
+      </c>
+      <c r="B71" s="170" t="s">
         <v>461</v>
       </c>
-      <c r="B71" s="170" t="s">
+      <c r="C71" s="170" t="s">
         <v>462</v>
-      </c>
-      <c r="C71" s="170" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="169" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B72" s="170" t="s">
+        <v>461</v>
+      </c>
+      <c r="C72" s="170" t="s">
         <v>462</v>
-      </c>
-      <c r="C72" s="170" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="171" t="s">
+        <v>464</v>
+      </c>
+      <c r="B73" s="172" t="s">
         <v>465</v>
       </c>
-      <c r="B73" s="172" t="s">
+      <c r="C73" s="172" t="s">
         <v>466</v>
-      </c>
-      <c r="C73" s="172" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="173" t="s">
+        <v>467</v>
+      </c>
+      <c r="B74" s="174" t="s">
         <v>468</v>
       </c>
-      <c r="B74" s="174" t="s">
+      <c r="C74" s="174" t="s">
         <v>469</v>
-      </c>
-      <c r="C74" s="174" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="175" t="s">
+        <v>470</v>
+      </c>
+      <c r="B75" s="176" t="s">
         <v>471</v>
       </c>
-      <c r="B75" s="176" t="s">
+      <c r="C75" s="176" t="s">
         <v>472</v>
-      </c>
-      <c r="C75" s="176" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="177" t="s">
+        <v>473</v>
+      </c>
+      <c r="B76" s="178" t="s">
         <v>474</v>
       </c>
-      <c r="B76" s="178" t="s">
+      <c r="C76" s="178" t="s">
         <v>475</v>
-      </c>
-      <c r="C76" s="178" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="179" t="s">
+        <v>476</v>
+      </c>
+      <c r="B77" s="180" t="s">
         <v>477</v>
       </c>
-      <c r="B77" s="180" t="s">
+      <c r="C77" s="180" t="s">
         <v>478</v>
-      </c>
-      <c r="C77" s="180" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="181" t="s">
+        <v>479</v>
+      </c>
+      <c r="B78" s="182" t="s">
         <v>480</v>
       </c>
-      <c r="B78" s="182" t="s">
+      <c r="C78" s="182" t="s">
         <v>481</v>
-      </c>
-      <c r="C78" s="182" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="B79" s="184" t="s">
         <v>483</v>
       </c>
-      <c r="B79" s="184" t="s">
+      <c r="C79" s="184" t="s">
         <v>484</v>
-      </c>
-      <c r="C79" s="184" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="185" t="s">
+        <v>485</v>
+      </c>
+      <c r="B80" s="186" t="s">
         <v>486</v>
       </c>
-      <c r="B80" s="186" t="s">
+      <c r="C80" s="186" t="s">
         <v>487</v>
-      </c>
-      <c r="C80" s="186" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="187" t="s">
+        <v>488</v>
+      </c>
+      <c r="B81" s="188" t="s">
         <v>489</v>
       </c>
-      <c r="B81" s="188" t="s">
+      <c r="C81" s="188" t="s">
         <v>490</v>
-      </c>
-      <c r="C81" s="188" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="189" t="s">
+        <v>491</v>
+      </c>
+      <c r="B82" s="190" t="s">
         <v>492</v>
       </c>
-      <c r="B82" s="190" t="s">
+      <c r="C82" s="190" t="s">
         <v>493</v>
-      </c>
-      <c r="C82" s="190" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="191" t="s">
+        <v>494</v>
+      </c>
+      <c r="B83" s="192" t="s">
         <v>495</v>
       </c>
-      <c r="B83" s="192" t="s">
+      <c r="C83" s="192" t="s">
         <v>496</v>
-      </c>
-      <c r="C83" s="192" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="193" t="s">
+        <v>497</v>
+      </c>
+      <c r="B84" s="194" t="s">
         <v>498</v>
       </c>
-      <c r="B84" s="194" t="s">
+      <c r="C84" s="194" t="s">
         <v>499</v>
-      </c>
-      <c r="C84" s="194" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="195" t="s">
+        <v>500</v>
+      </c>
+      <c r="B85" s="196" t="s">
         <v>501</v>
       </c>
-      <c r="B85" s="196" t="s">
+      <c r="C85" s="196" t="s">
         <v>502</v>
-      </c>
-      <c r="C85" s="196" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="197" t="s">
+        <v>503</v>
+      </c>
+      <c r="B86" s="198" t="s">
         <v>504</v>
       </c>
-      <c r="B86" s="198" t="s">
+      <c r="C86" s="198" t="s">
         <v>505</v>
-      </c>
-      <c r="C86" s="198" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="199" t="s">
+        <v>506</v>
+      </c>
+      <c r="B87" s="200" t="s">
         <v>507</v>
       </c>
-      <c r="B87" s="200" t="s">
+      <c r="C87" s="200" t="s">
         <v>508</v>
-      </c>
-      <c r="C87" s="200" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="201" t="s">
+        <v>509</v>
+      </c>
+      <c r="B88" s="202" t="s">
         <v>510</v>
       </c>
-      <c r="B88" s="202" t="s">
+      <c r="C88" s="202" t="s">
         <v>511</v>
-      </c>
-      <c r="C88" s="202" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="203" t="s">
+        <v>512</v>
+      </c>
+      <c r="B89" s="204" t="s">
         <v>513</v>
       </c>
-      <c r="B89" s="204" t="s">
+      <c r="C89" s="204" t="s">
         <v>514</v>
-      </c>
-      <c r="C89" s="204" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="205" t="s">
+        <v>515</v>
+      </c>
+      <c r="B90" s="206" t="s">
         <v>516</v>
       </c>
-      <c r="B90" s="206" t="s">
+      <c r="C90" s="206" t="s">
         <v>517</v>
-      </c>
-      <c r="C90" s="206" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="207" t="s">
+        <v>518</v>
+      </c>
+      <c r="B91" s="208" t="s">
         <v>519</v>
       </c>
-      <c r="B91" s="208" t="s">
+      <c r="C91" s="208" t="s">
         <v>520</v>
-      </c>
-      <c r="C91" s="208" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="209" t="s">
+        <v>521</v>
+      </c>
+      <c r="B92" s="210" t="s">
         <v>522</v>
       </c>
-      <c r="B92" s="210" t="s">
+      <c r="C92" s="210" t="s">
         <v>523</v>
-      </c>
-      <c r="C92" s="210" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="211" t="s">
+        <v>524</v>
+      </c>
+      <c r="B93" s="212" t="s">
         <v>525</v>
       </c>
-      <c r="B93" s="212" t="s">
+      <c r="C93" s="212" t="s">
         <v>526</v>
-      </c>
-      <c r="C93" s="212" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="213" t="s">
+        <v>527</v>
+      </c>
+      <c r="B94" s="214" t="s">
         <v>528</v>
       </c>
-      <c r="B94" s="214" t="s">
+      <c r="C94" s="214" t="s">
         <v>529</v>
-      </c>
-      <c r="C94" s="214" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="215" t="s">
+        <v>530</v>
+      </c>
+      <c r="B95" s="216" t="s">
         <v>531</v>
       </c>
-      <c r="B95" s="216" t="s">
+      <c r="C95" s="216" t="s">
         <v>532</v>
-      </c>
-      <c r="C95" s="216" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="217" t="s">
+        <v>533</v>
+      </c>
+      <c r="B96" s="218" t="s">
         <v>534</v>
       </c>
-      <c r="B96" s="218" t="s">
+      <c r="C96" s="218" t="s">
         <v>535</v>
-      </c>
-      <c r="C96" s="218" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="219" t="s">
+        <v>536</v>
+      </c>
+      <c r="B97" s="220" t="s">
         <v>537</v>
       </c>
-      <c r="B97" s="220" t="s">
+      <c r="C97" s="220" t="s">
         <v>538</v>
-      </c>
-      <c r="C97" s="220" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="221" t="s">
+        <v>539</v>
+      </c>
+      <c r="B98" s="222" t="s">
         <v>540</v>
       </c>
-      <c r="B98" s="222" t="s">
+      <c r="C98" s="222" t="s">
         <v>541</v>
-      </c>
-      <c r="C98" s="222" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="223" t="s">
+        <v>542</v>
+      </c>
+      <c r="B99" s="224" t="s">
         <v>543</v>
       </c>
-      <c r="B99" s="224" t="s">
+      <c r="C99" s="224" t="s">
         <v>544</v>
-      </c>
-      <c r="C99" s="224" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="225" t="s">
+        <v>545</v>
+      </c>
+      <c r="B100" s="226" t="s">
         <v>546</v>
       </c>
-      <c r="B100" s="226" t="s">
+      <c r="C100" s="226" t="s">
         <v>547</v>
-      </c>
-      <c r="C100" s="226" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="227" t="s">
+        <v>548</v>
+      </c>
+      <c r="B101" s="228" t="s">
         <v>549</v>
       </c>
-      <c r="B101" s="228" t="s">
+      <c r="C101" s="228" t="s">
         <v>550</v>
-      </c>
-      <c r="C101" s="228" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="229" t="s">
+        <v>551</v>
+      </c>
+      <c r="B102" s="230" t="s">
         <v>552</v>
       </c>
-      <c r="B102" s="230" t="s">
+      <c r="C102" s="230" t="s">
         <v>553</v>
-      </c>
-      <c r="C102" s="230" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="231" t="s">
+        <v>554</v>
+      </c>
+      <c r="B103" s="232" t="s">
         <v>555</v>
       </c>
-      <c r="B103" s="232" t="s">
+      <c r="C103" s="232" t="s">
         <v>556</v>
-      </c>
-      <c r="C103" s="232" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="231" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B104" s="232" t="s">
+        <v>555</v>
+      </c>
+      <c r="C104" s="232" t="s">
         <v>556</v>
-      </c>
-      <c r="C104" s="232" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="233" t="s">
+        <v>558</v>
+      </c>
+      <c r="B105" s="234" t="s">
         <v>559</v>
       </c>
-      <c r="B105" s="234" t="s">
+      <c r="C105" s="234" t="s">
         <v>560</v>
-      </c>
-      <c r="C105" s="234" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="235" t="s">
+        <v>561</v>
+      </c>
+      <c r="B106" s="236" t="s">
         <v>562</v>
       </c>
-      <c r="B106" s="236" t="s">
+      <c r="C106" s="236" t="s">
         <v>563</v>
-      </c>
-      <c r="C106" s="236" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="B107" s="238" t="s">
         <v>565</v>
       </c>
-      <c r="B107" s="238" t="s">
+      <c r="C107" s="238" t="s">
         <v>566</v>
-      </c>
-      <c r="C107" s="238" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="239" t="s">
+        <v>567</v>
+      </c>
+      <c r="B108" s="240" t="s">
         <v>568</v>
       </c>
-      <c r="B108" s="240" t="s">
+      <c r="C108" s="240" t="s">
         <v>569</v>
-      </c>
-      <c r="C108" s="240" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="241" t="s">
+        <v>570</v>
+      </c>
+      <c r="B109" s="242" t="s">
         <v>571</v>
       </c>
-      <c r="B109" s="242" t="s">
+      <c r="C109" s="242" t="s">
         <v>572</v>
-      </c>
-      <c r="C109" s="242" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="243" t="s">
+        <v>573</v>
+      </c>
+      <c r="B110" s="244" t="s">
         <v>574</v>
       </c>
-      <c r="B110" s="244" t="s">
+      <c r="C110" s="244" t="s">
         <v>575</v>
-      </c>
-      <c r="C110" s="244" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="245" t="s">
+        <v>576</v>
+      </c>
+      <c r="B111" s="246" t="s">
         <v>577</v>
       </c>
-      <c r="B111" s="246" t="s">
+      <c r="C111" s="246" t="s">
         <v>578</v>
-      </c>
-      <c r="C111" s="246" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="247" t="s">
+        <v>579</v>
+      </c>
+      <c r="B112" s="248" t="s">
         <v>580</v>
       </c>
-      <c r="B112" s="248" t="s">
+      <c r="C112" s="248" t="s">
         <v>581</v>
-      </c>
-      <c r="C112" s="248" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="249" t="s">
+        <v>582</v>
+      </c>
+      <c r="B113" s="250" t="s">
         <v>583</v>
       </c>
-      <c r="B113" s="250" t="s">
+      <c r="C113" s="250" t="s">
         <v>584</v>
-      </c>
-      <c r="C113" s="250" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="251" t="s">
+        <v>585</v>
+      </c>
+      <c r="B114" s="252" t="s">
         <v>586</v>
       </c>
-      <c r="B114" s="252" t="s">
+      <c r="C114" s="252" t="s">
         <v>587</v>
-      </c>
-      <c r="C114" s="252" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="253" t="s">
+        <v>588</v>
+      </c>
+      <c r="B115" s="254" t="s">
         <v>589</v>
       </c>
-      <c r="B115" s="254" t="s">
+      <c r="C115" s="254" t="s">
         <v>590</v>
-      </c>
-      <c r="C115" s="254" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="255" t="s">
+        <v>591</v>
+      </c>
+      <c r="B116" s="256" t="s">
         <v>592</v>
       </c>
-      <c r="B116" s="256" t="s">
+      <c r="C116" s="256" t="s">
         <v>593</v>
-      </c>
-      <c r="C116" s="256" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="257" t="s">
+        <v>594</v>
+      </c>
+      <c r="B117" s="258" t="s">
         <v>595</v>
       </c>
-      <c r="B117" s="258" t="s">
+      <c r="C117" s="258" t="s">
         <v>596</v>
-      </c>
-      <c r="C117" s="258" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="259" t="s">
+        <v>597</v>
+      </c>
+      <c r="B118" s="260" t="s">
         <v>598</v>
       </c>
-      <c r="B118" s="260" t="s">
+      <c r="C118" s="260" t="s">
         <v>599</v>
-      </c>
-      <c r="C118" s="260" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="261" t="s">
+        <v>600</v>
+      </c>
+      <c r="B119" s="262" t="s">
         <v>601</v>
       </c>
-      <c r="B119" s="262" t="s">
+      <c r="C119" s="262" t="s">
         <v>602</v>
-      </c>
-      <c r="C119" s="262" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="263" t="s">
+        <v>603</v>
+      </c>
+      <c r="B120" s="264" t="s">
         <v>604</v>
       </c>
-      <c r="B120" s="264" t="s">
+      <c r="C120" s="264" t="s">
         <v>605</v>
-      </c>
-      <c r="C120" s="264" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="265" t="s">
+        <v>606</v>
+      </c>
+      <c r="B121" s="266" t="s">
         <v>607</v>
       </c>
-      <c r="B121" s="266" t="s">
+      <c r="C121" s="266" t="s">
         <v>608</v>
-      </c>
-      <c r="C121" s="266" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="267" t="s">
+        <v>609</v>
+      </c>
+      <c r="B122" s="268" t="s">
         <v>610</v>
       </c>
-      <c r="B122" s="268" t="s">
+      <c r="C122" s="268" t="s">
         <v>611</v>
-      </c>
-      <c r="C122" s="268" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="269" t="s">
+        <v>612</v>
+      </c>
+      <c r="B123" s="270" t="s">
         <v>613</v>
       </c>
-      <c r="B123" s="270" t="s">
+      <c r="C123" s="270" t="s">
         <v>614</v>
-      </c>
-      <c r="C123" s="270" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="271" t="s">
+        <v>615</v>
+      </c>
+      <c r="B124" s="272" t="s">
         <v>616</v>
       </c>
-      <c r="B124" s="272" t="s">
+      <c r="C124" s="272" t="s">
         <v>617</v>
-      </c>
-      <c r="C124" s="272" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="273" t="s">
+        <v>618</v>
+      </c>
+      <c r="B125" s="274" t="s">
         <v>619</v>
       </c>
-      <c r="B125" s="274" t="s">
+      <c r="C125" s="274" t="s">
         <v>620</v>
-      </c>
-      <c r="C125" s="274" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="275" t="s">
+        <v>621</v>
+      </c>
+      <c r="B126" s="276" t="s">
         <v>622</v>
       </c>
-      <c r="B126" s="276" t="s">
+      <c r="C126" s="276" t="s">
         <v>623</v>
-      </c>
-      <c r="C126" s="276" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="277" t="s">
+        <v>624</v>
+      </c>
+      <c r="B127" s="278" t="s">
         <v>625</v>
       </c>
-      <c r="B127" s="278" t="s">
+      <c r="C127" s="278" t="s">
         <v>626</v>
-      </c>
-      <c r="C127" s="278" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="279" t="s">
+        <v>627</v>
+      </c>
+      <c r="B128" s="280" t="s">
         <v>628</v>
       </c>
-      <c r="B128" s="280" t="s">
+      <c r="C128" s="280" t="s">
         <v>629</v>
-      </c>
-      <c r="C128" s="280" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="281" t="s">
+        <v>630</v>
+      </c>
+      <c r="B129" s="282" t="s">
         <v>631</v>
       </c>
-      <c r="B129" s="282" t="s">
+      <c r="C129" s="282" t="s">
         <v>632</v>
-      </c>
-      <c r="C129" s="282" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="283" t="s">
+        <v>633</v>
+      </c>
+      <c r="B130" s="284" t="s">
         <v>634</v>
       </c>
-      <c r="B130" s="284" t="s">
+      <c r="C130" s="284" t="s">
         <v>635</v>
-      </c>
-      <c r="C130" s="284" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="285" t="s">
+        <v>636</v>
+      </c>
+      <c r="B131" s="286" t="s">
         <v>637</v>
       </c>
-      <c r="B131" s="286" t="s">
+      <c r="C131" s="286" t="s">
         <v>638</v>
-      </c>
-      <c r="C131" s="286" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="287" t="s">
+        <v>639</v>
+      </c>
+      <c r="B132" s="288" t="s">
         <v>640</v>
       </c>
-      <c r="B132" s="288" t="s">
+      <c r="C132" s="288" t="s">
         <v>641</v>
-      </c>
-      <c r="C132" s="288" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="289" t="s">
+        <v>642</v>
+      </c>
+      <c r="B133" s="290" t="s">
         <v>643</v>
       </c>
-      <c r="B133" s="290" t="s">
+      <c r="C133" s="290" t="s">
         <v>644</v>
-      </c>
-      <c r="C133" s="290" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="291" t="s">
+        <v>645</v>
+      </c>
+      <c r="B134" s="292" t="s">
         <v>646</v>
       </c>
-      <c r="B134" s="292" t="s">
+      <c r="C134" s="292" t="s">
         <v>647</v>
-      </c>
-      <c r="C134" s="292" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="293" t="s">
+        <v>648</v>
+      </c>
+      <c r="B135" s="294" t="s">
         <v>649</v>
       </c>
-      <c r="B135" s="294" t="s">
+      <c r="C135" s="294" t="s">
         <v>650</v>
-      </c>
-      <c r="C135" s="294" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="295" t="s">
+        <v>651</v>
+      </c>
+      <c r="B136" s="296" t="s">
         <v>652</v>
       </c>
-      <c r="B136" s="296" t="s">
+      <c r="C136" s="296" t="s">
         <v>653</v>
-      </c>
-      <c r="C136" s="296" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="297" t="s">
+        <v>654</v>
+      </c>
+      <c r="B137" s="298" t="s">
         <v>655</v>
       </c>
-      <c r="B137" s="298" t="s">
+      <c r="C137" s="298" t="s">
         <v>656</v>
-      </c>
-      <c r="C137" s="298" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="299" t="s">
+        <v>657</v>
+      </c>
+      <c r="B138" s="300" t="s">
         <v>658</v>
       </c>
-      <c r="B138" s="300" t="s">
+      <c r="C138" s="300" t="s">
         <v>659</v>
-      </c>
-      <c r="C138" s="300" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="301" t="s">
+        <v>660</v>
+      </c>
+      <c r="B139" s="302" t="s">
         <v>661</v>
       </c>
-      <c r="B139" s="302" t="s">
+      <c r="C139" s="302" t="s">
         <v>662</v>
-      </c>
-      <c r="C139" s="302" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="303" t="s">
+        <v>663</v>
+      </c>
+      <c r="B140" s="304" t="s">
         <v>664</v>
       </c>
-      <c r="B140" s="304" t="s">
+      <c r="C140" s="304" t="s">
         <v>665</v>
-      </c>
-      <c r="C140" s="304" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="305" t="s">
+        <v>666</v>
+      </c>
+      <c r="B141" s="306" t="s">
         <v>667</v>
       </c>
-      <c r="B141" s="306" t="s">
+      <c r="C141" s="306" t="s">
         <v>668</v>
-      </c>
-      <c r="C141" s="306" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="307" t="s">
+        <v>669</v>
+      </c>
+      <c r="B142" s="308" t="s">
         <v>670</v>
       </c>
-      <c r="B142" s="308" t="s">
+      <c r="C142" s="308" t="s">
         <v>671</v>
-      </c>
-      <c r="C142" s="308" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="309" t="s">
+        <v>672</v>
+      </c>
+      <c r="B143" s="310" t="s">
         <v>673</v>
       </c>
-      <c r="B143" s="310" t="s">
+      <c r="C143" s="310" t="s">
         <v>674</v>
-      </c>
-      <c r="C143" s="310" t="s">
-        <v>675</v>
       </c>
     </row>
   </sheetData>
